--- a/Institutions_Final.xlsx
+++ b/Institutions_Final.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmachac\Dropbox\Python\Hodnoceni2016\D3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -1953,7 +1948,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2104,10 +2099,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2127,9 +2122,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2157,7 +2152,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>test</c:v>
           </c:tx>
@@ -2208,7 +2203,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2AE-49F9-AFE0-61B233704284}"/>
             </c:ext>
@@ -2224,9 +2219,9 @@
         </c:dLbls>
         <c:bubbleScale val="40"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="522981568"/>
-        <c:axId val="522983208"/>
-        <c:extLst>
+        <c:axId val="212674432"/>
+        <c:axId val="212675968"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBubbleSeries>
               <c15:ser>
@@ -5265,7 +5260,7 @@
         </c:extLst>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="522981568"/>
+        <c:axId val="212674432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5319,12 +5314,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522983208"/>
+        <c:crossAx val="212675968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522983208"/>
+        <c:axId val="212675968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5378,7 +5373,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522981568"/>
+        <c:crossAx val="212674432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5426,14 +5421,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5490,26 +5485,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6044,7 +6019,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4011-468A-A967-B6BC847256BE}"/>
             </c:ext>
@@ -6060,11 +6035,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="214928768"/>
+        <c:axId val="214971520"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="214928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -6123,12 +6098,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="214971520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="214971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6140,7 +6115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="214928768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6188,14 +6163,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6249,26 +6224,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6644,7 +6599,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E295-4902-B3D4-68A8A660016E}"/>
             </c:ext>
@@ -6660,11 +6615,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215009536"/>
+        <c:axId val="215015424"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -6723,12 +6678,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215015424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6740,7 +6695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215009536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6788,14 +6743,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6849,26 +6804,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7316,7 +7251,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2A0-4483-8760-D19C7E05B39D}"/>
             </c:ext>
@@ -7332,11 +7267,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215859584"/>
+        <c:axId val="215861120"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7395,12 +7330,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215861120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7411,7 +7346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215859584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7459,14 +7394,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7520,26 +7455,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8383,7 +8298,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B4E2-46D9-9160-755062F73BE4}"/>
             </c:ext>
@@ -8399,11 +8314,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215922944"/>
+        <c:axId val="215928832"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215922944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -8462,12 +8377,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215928832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215928832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8478,7 +8393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215922944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8526,14 +8441,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8587,26 +8502,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9081,7 +8976,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3012-45A4-B778-F59796197600}"/>
             </c:ext>
@@ -9097,11 +8992,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="216056192"/>
+        <c:axId val="216057728"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="216056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -9160,12 +9055,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="216057728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="216057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9176,7 +9071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="216056192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9224,14 +9119,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9573,7 +9468,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -10093,7 +9988,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -10451,7 +10346,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -10881,7 +10776,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -11707,7 +11602,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -12164,7 +12059,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4503-45F0-B0C9-5579368D8815}"/>
             </c:ext>
@@ -12180,11 +12075,11 @@
         </c:dLbls>
         <c:bubbleScale val="40"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="522981568"/>
-        <c:axId val="522983208"/>
+        <c:axId val="214512768"/>
+        <c:axId val="214514304"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="522981568"/>
+        <c:axId val="214512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12238,12 +12133,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522983208"/>
+        <c:crossAx val="214514304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522983208"/>
+        <c:axId val="214514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12297,7 +12192,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522981568"/>
+        <c:crossAx val="214512768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12386,14 +12281,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12782,7 +12677,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-85DF-46DF-9E7A-B275E85BBEC1}"/>
             </c:ext>
@@ -12798,11 +12693,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="212029824"/>
+        <c:axId val="212031360"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="212029824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12861,12 +12756,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="212031360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="212031360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -12877,7 +12772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="212029824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12925,14 +12820,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12989,26 +12884,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -13543,7 +13418,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9513-4161-BEF6-708ED8E41C73}"/>
             </c:ext>
@@ -13559,11 +13434,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215045632"/>
+        <c:axId val="215047168"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215045632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13622,12 +13497,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215047168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215047168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -13639,7 +13514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215045632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13687,14 +13562,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13748,26 +13623,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -14143,7 +13998,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1259-4AA6-A2B3-6BE4A1A33848}"/>
             </c:ext>
@@ -14159,11 +14014,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215105536"/>
+        <c:axId val="215107072"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215105536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14222,12 +14077,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215107072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215107072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -14239,7 +14094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215105536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14287,14 +14142,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14348,26 +14203,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -14815,7 +14650,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A6B-48B3-8A50-56DCC35AEFFC}"/>
             </c:ext>
@@ -14831,11 +14666,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="212535168"/>
+        <c:axId val="212536704"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="212535168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14894,12 +14729,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="212536704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="212536704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -14910,7 +14745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="212535168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14958,14 +14793,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15019,26 +14854,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -15882,7 +15697,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6CE-41E5-847B-4F72D41C03DC}"/>
             </c:ext>
@@ -15898,11 +15713,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215223680"/>
+        <c:axId val="215225472"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215223680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15961,12 +15776,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215225472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215225472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -15977,7 +15792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215223680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16025,14 +15840,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16086,26 +15901,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -16580,7 +16375,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24E4-4D03-850B-BBF84815D2AF}"/>
             </c:ext>
@@ -16596,11 +16391,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215275008"/>
+        <c:axId val="215276544"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215275008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16659,12 +16454,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="215276544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="215276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -16675,7 +16470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215275008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16723,14 +16518,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17119,7 +16914,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2CE-4787-BCC1-34D4B6767A9D}"/>
             </c:ext>
@@ -17135,11 +16930,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="964114464"/>
-        <c:axId val="964114792"/>
+        <c:axId val="215480960"/>
+        <c:axId val="214897024"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="964114464"/>
+        <c:axId val="215480960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -17198,12 +16993,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114792"/>
+        <c:crossAx val="214897024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="964114792"/>
+        <c:axId val="214897024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -17214,7 +17009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="964114464"/>
+        <c:crossAx val="215480960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17262,7 +17057,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -34579,7 +34374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -34614,7 +34409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -34826,10 +34621,10 @@
   <dimension ref="A1:M290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34922,7 +34717,7 @@
       <c r="L2" s="16">
         <v>0</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>0</v>
       </c>
     </row>
@@ -34963,7 +34758,7 @@
       <c r="L3" s="16">
         <v>0</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35004,7 +34799,7 @@
       <c r="L4" s="16">
         <v>0</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35045,7 +34840,7 @@
       <c r="L5" s="16">
         <v>7.4487895716945996E-3</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35086,7 +34881,7 @@
       <c r="L6" s="16">
         <v>1.8137847642079809E-3</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35127,7 +34922,7 @@
       <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35168,7 +34963,7 @@
       <c r="L8" s="16">
         <v>0</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35209,7 +35004,7 @@
       <c r="L9" s="16">
         <v>0</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35250,7 +35045,7 @@
       <c r="L10" s="16">
         <v>0</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35291,7 +35086,7 @@
       <c r="L11" s="16">
         <v>3.831417624521073E-3</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35332,7 +35127,7 @@
       <c r="L12" s="16">
         <v>4.9689440993788822E-3</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35373,7 +35168,7 @@
       <c r="L13" s="16">
         <v>5.5096418732782371E-3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35414,7 +35209,7 @@
       <c r="L14" s="16">
         <v>0</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35455,7 +35250,7 @@
       <c r="L15" s="16">
         <v>2.9498525073746308E-3</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35496,7 +35291,7 @@
       <c r="L16" s="16">
         <v>0</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35537,7 +35332,7 @@
       <c r="L17" s="16">
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35578,7 +35373,7 @@
       <c r="L18" s="16">
         <v>4.0609137055837574E-3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35619,7 +35414,7 @@
       <c r="L19" s="16">
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35660,7 +35455,7 @@
       <c r="L20" s="16">
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35701,7 +35496,7 @@
       <c r="L21" s="16">
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35742,7 +35537,7 @@
       <c r="L22" s="16">
         <v>0</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35783,7 +35578,7 @@
       <c r="L23" s="16">
         <v>0</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35824,7 +35619,7 @@
       <c r="L24" s="16">
         <v>4.8543689320388354E-3</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35865,7 +35660,7 @@
       <c r="L25" s="16">
         <v>1.120448179271709E-2</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35906,7 +35701,7 @@
       <c r="L26" s="16">
         <v>0</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35947,7 +35742,7 @@
       <c r="L27" s="16">
         <v>1.3972055888223551E-2</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="19">
         <v>0</v>
       </c>
     </row>
@@ -35988,7 +35783,7 @@
       <c r="L28" s="16">
         <v>0</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36029,7 +35824,7 @@
       <c r="L29" s="16">
         <v>1.6025641025641029E-3</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36070,7 +35865,7 @@
       <c r="L30" s="16">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36111,7 +35906,7 @@
       <c r="L31" s="16">
         <v>1.507537688442211E-2</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36152,7 +35947,7 @@
       <c r="L32" s="16">
         <v>1.076426264800861E-2</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36193,7 +35988,7 @@
       <c r="L33" s="16">
         <v>0</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36234,7 +36029,7 @@
       <c r="L34" s="16">
         <v>0</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36275,7 +36070,7 @@
       <c r="L35" s="16">
         <v>6.5359477124183009E-3</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36316,7 +36111,7 @@
       <c r="L36" s="16">
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36357,7 +36152,7 @@
       <c r="L37" s="16">
         <v>4.9261083743842374E-3</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36398,7 +36193,7 @@
       <c r="L38" s="16">
         <v>0</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36439,7 +36234,7 @@
       <c r="L39" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36480,7 +36275,7 @@
       <c r="L40" s="16">
         <v>6.2370062370062374E-3</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36521,7 +36316,7 @@
       <c r="L41" s="16">
         <v>7.3710073710073713E-3</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36562,7 +36357,7 @@
       <c r="L42" s="16">
         <v>3.5816618911174792E-3</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36603,7 +36398,7 @@
       <c r="L43" s="16">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36644,7 +36439,7 @@
       <c r="L44" s="16">
         <v>0</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36685,7 +36480,7 @@
       <c r="L45" s="16">
         <v>8.8495575221238937E-3</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36726,7 +36521,7 @@
       <c r="L46" s="16">
         <v>0</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36767,7 +36562,7 @@
       <c r="L47" s="16">
         <v>0</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36808,7 +36603,7 @@
       <c r="L48" s="16">
         <v>0</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36849,7 +36644,7 @@
       <c r="L49" s="16">
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36890,7 +36685,7 @@
       <c r="L50" s="16">
         <v>7.7519379844961239E-3</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36931,7 +36726,7 @@
       <c r="L51" s="16">
         <v>2.881844380403458E-3</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <v>0</v>
       </c>
     </row>
@@ -36972,7 +36767,7 @@
       <c r="L52" s="16">
         <v>6.269592476489028E-3</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37013,7 +36808,7 @@
       <c r="L53" s="16">
         <v>0</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37054,7 +36849,7 @@
       <c r="L54" s="16">
         <v>6.269592476489028E-3</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37095,7 +36890,7 @@
       <c r="L55" s="16">
         <v>0</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37136,7 +36931,7 @@
       <c r="L56" s="16">
         <v>7.2538860103626944E-3</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37177,7 +36972,7 @@
       <c r="L57" s="16">
         <v>0</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37218,7 +37013,7 @@
       <c r="L58" s="16">
         <v>2.8901734104046239E-2</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37259,7 +37054,7 @@
       <c r="L59" s="16">
         <v>0</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37300,7 +37095,7 @@
       <c r="L60" s="16">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37341,7 +37136,7 @@
       <c r="L61" s="16">
         <v>0.10213776722090261</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37382,7 +37177,7 @@
       <c r="L62" s="16">
         <v>6.0606060606060606E-3</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37423,7 +37218,7 @@
       <c r="L63" s="16">
         <v>4.7619047619047623E-2</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37464,7 +37259,7 @@
       <c r="L64" s="16">
         <v>0</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37505,7 +37300,7 @@
       <c r="L65" s="16">
         <v>3.6764705882352941E-3</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37546,7 +37341,7 @@
       <c r="L66" s="16">
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37587,7 +37382,7 @@
       <c r="L67" s="16">
         <v>1.3449367088607601E-2</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37628,7 +37423,7 @@
       <c r="L68" s="16">
         <v>0</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37669,7 +37464,7 @@
       <c r="L69" s="16">
         <v>5.1933064050779E-3</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37710,7 +37505,7 @@
       <c r="L70" s="16">
         <v>2.4169184290030211E-2</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37751,7 +37546,7 @@
       <c r="L71" s="16">
         <v>1.049317943336831E-2</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37792,7 +37587,7 @@
       <c r="L72" s="16">
         <v>0</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37833,7 +37628,7 @@
       <c r="L73" s="16">
         <v>0</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37874,7 +37669,7 @@
       <c r="L74" s="16">
         <v>0</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37915,7 +37710,7 @@
       <c r="L75" s="16">
         <v>0</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37956,7 +37751,7 @@
       <c r="L76" s="16">
         <v>3.8167938931297711E-2</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="19">
         <v>0</v>
       </c>
     </row>
@@ -37997,7 +37792,7 @@
       <c r="L77" s="16">
         <v>2.6970954356846471E-2</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38038,7 +37833,7 @@
       <c r="L78" s="16">
         <v>0</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38079,7 +37874,7 @@
       <c r="L79" s="16">
         <v>2.0618556701030931E-2</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38120,7 +37915,7 @@
       <c r="L80" s="16">
         <v>7.173601147776184E-4</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38161,7 +37956,7 @@
       <c r="L81" s="16">
         <v>0</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M81" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38202,7 +37997,7 @@
       <c r="L82" s="16">
         <v>0</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38243,7 +38038,7 @@
       <c r="L83" s="16">
         <v>0</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38284,7 +38079,7 @@
       <c r="L84" s="16">
         <v>8.23045267489712E-3</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38325,7 +38120,7 @@
       <c r="L85" s="16">
         <v>4.736842105263158E-2</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M85" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38366,7 +38161,7 @@
       <c r="L86" s="16">
         <v>0</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M86" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38407,7 +38202,7 @@
       <c r="L87" s="16">
         <v>5.7306590257879646E-3</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38448,7 +38243,7 @@
       <c r="L88" s="16">
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="M88" s="20">
+      <c r="M88" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38489,7 +38284,7 @@
       <c r="L89" s="16">
         <v>3.3112582781456949E-3</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M89" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38530,7 +38325,7 @@
       <c r="L90" s="16">
         <v>4.1118421052631577E-3</v>
       </c>
-      <c r="M90" s="20">
+      <c r="M90" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38571,7 +38366,7 @@
       <c r="L91" s="16">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="M91" s="20">
+      <c r="M91" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38612,7 +38407,7 @@
       <c r="L92" s="16">
         <v>0</v>
       </c>
-      <c r="M92" s="20">
+      <c r="M92" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38653,7 +38448,7 @@
       <c r="L93" s="16">
         <v>9.1059602649006619E-3</v>
       </c>
-      <c r="M93" s="20">
+      <c r="M93" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38694,7 +38489,7 @@
       <c r="L94" s="16">
         <v>7.0493454179254783E-3</v>
       </c>
-      <c r="M94" s="20">
+      <c r="M94" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38735,7 +38530,7 @@
       <c r="L95" s="16">
         <v>7.848101265822785E-2</v>
       </c>
-      <c r="M95" s="20">
+      <c r="M95" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38776,7 +38571,7 @@
       <c r="L96" s="16">
         <v>6.9306930693069313E-2</v>
       </c>
-      <c r="M96" s="20">
+      <c r="M96" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38817,7 +38612,7 @@
       <c r="L97" s="16">
         <v>0</v>
       </c>
-      <c r="M97" s="20">
+      <c r="M97" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38858,7 +38653,7 @@
       <c r="L98" s="16">
         <v>1.900584795321637E-2</v>
       </c>
-      <c r="M98" s="20">
+      <c r="M98" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38899,7 +38694,7 @@
       <c r="L99" s="16">
         <v>7.3349633251833741E-3</v>
       </c>
-      <c r="M99" s="20">
+      <c r="M99" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38940,7 +38735,7 @@
       <c r="L100" s="16">
         <v>4.2944785276073622E-2</v>
       </c>
-      <c r="M100" s="20">
+      <c r="M100" s="19">
         <v>0</v>
       </c>
     </row>
@@ -38981,7 +38776,7 @@
       <c r="L101" s="16">
         <v>1.428571428571429E-2</v>
       </c>
-      <c r="M101" s="20">
+      <c r="M101" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39022,7 +38817,7 @@
       <c r="L102" s="16">
         <v>0</v>
       </c>
-      <c r="M102" s="20">
+      <c r="M102" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39063,7 +38858,7 @@
       <c r="L103" s="16">
         <v>0</v>
       </c>
-      <c r="M103" s="20">
+      <c r="M103" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39104,7 +38899,7 @@
       <c r="L104" s="16">
         <v>0</v>
       </c>
-      <c r="M104" s="20">
+      <c r="M104" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39145,7 +38940,7 @@
       <c r="L105" s="16">
         <v>0</v>
       </c>
-      <c r="M105" s="20">
+      <c r="M105" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39186,7 +38981,7 @@
       <c r="L106" s="16">
         <v>0</v>
       </c>
-      <c r="M106" s="20">
+      <c r="M106" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39227,7 +39022,7 @@
       <c r="L107" s="16">
         <v>0</v>
       </c>
-      <c r="M107" s="20">
+      <c r="M107" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39268,7 +39063,7 @@
       <c r="L108" s="16">
         <v>0</v>
       </c>
-      <c r="M108" s="20">
+      <c r="M108" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39309,7 +39104,7 @@
       <c r="L109" s="16">
         <v>0</v>
       </c>
-      <c r="M109" s="20">
+      <c r="M109" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39350,7 +39145,7 @@
       <c r="L110" s="16">
         <v>0</v>
       </c>
-      <c r="M110" s="20">
+      <c r="M110" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39391,7 +39186,7 @@
       <c r="L111" s="16">
         <v>0</v>
       </c>
-      <c r="M111" s="20">
+      <c r="M111" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39432,7 +39227,7 @@
       <c r="L112" s="16">
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="M112" s="20">
+      <c r="M112" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39473,7 +39268,7 @@
       <c r="L113" s="16">
         <v>0</v>
       </c>
-      <c r="M113" s="20">
+      <c r="M113" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39514,7 +39309,7 @@
       <c r="L114" s="16">
         <v>5.8823529411764712E-2</v>
       </c>
-      <c r="M114" s="20">
+      <c r="M114" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39555,7 +39350,7 @@
       <c r="L115" s="16">
         <v>0</v>
       </c>
-      <c r="M115" s="20">
+      <c r="M115" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39596,7 +39391,7 @@
       <c r="L116" s="16">
         <v>0</v>
       </c>
-      <c r="M116" s="20">
+      <c r="M116" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39637,7 +39432,7 @@
       <c r="L117" s="16">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="M117" s="20">
+      <c r="M117" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39678,7 +39473,7 @@
       <c r="L118" s="16">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="M118" s="20">
+      <c r="M118" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39719,7 +39514,7 @@
       <c r="L119" s="16">
         <v>0</v>
       </c>
-      <c r="M119" s="20">
+      <c r="M119" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39760,7 +39555,7 @@
       <c r="L120" s="16">
         <v>0</v>
       </c>
-      <c r="M120" s="20">
+      <c r="M120" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39801,7 +39596,7 @@
       <c r="L121" s="16">
         <v>0</v>
       </c>
-      <c r="M121" s="20">
+      <c r="M121" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39842,7 +39637,7 @@
       <c r="L122" s="16">
         <v>0</v>
       </c>
-      <c r="M122" s="20">
+      <c r="M122" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39883,7 +39678,7 @@
       <c r="L123" s="16">
         <v>0.2</v>
       </c>
-      <c r="M123" s="20">
+      <c r="M123" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39924,7 +39719,7 @@
       <c r="L124" s="16">
         <v>0</v>
       </c>
-      <c r="M124" s="20">
+      <c r="M124" s="19">
         <v>0</v>
       </c>
     </row>
@@ -39965,7 +39760,7 @@
       <c r="L125" s="16">
         <v>0.10526315789473679</v>
       </c>
-      <c r="M125" s="20">
+      <c r="M125" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40006,7 +39801,7 @@
       <c r="L126" s="16">
         <v>0</v>
       </c>
-      <c r="M126" s="20">
+      <c r="M126" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40047,7 +39842,7 @@
       <c r="L127" s="16">
         <v>0</v>
       </c>
-      <c r="M127" s="20">
+      <c r="M127" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40088,7 +39883,7 @@
       <c r="L128" s="16">
         <v>0</v>
       </c>
-      <c r="M128" s="20">
+      <c r="M128" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40129,7 +39924,7 @@
       <c r="L129" s="16">
         <v>0</v>
       </c>
-      <c r="M129" s="20">
+      <c r="M129" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40170,7 +39965,7 @@
       <c r="L130" s="16">
         <v>0</v>
       </c>
-      <c r="M130" s="20">
+      <c r="M130" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40211,7 +40006,7 @@
       <c r="L131" s="16">
         <v>0</v>
       </c>
-      <c r="M131" s="20">
+      <c r="M131" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40252,7 +40047,7 @@
       <c r="L132" s="16">
         <v>0</v>
       </c>
-      <c r="M132" s="20">
+      <c r="M132" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40293,7 +40088,7 @@
       <c r="L133" s="16">
         <v>0</v>
       </c>
-      <c r="M133" s="20">
+      <c r="M133" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40334,7 +40129,7 @@
       <c r="L134" s="16">
         <v>0</v>
       </c>
-      <c r="M134" s="20">
+      <c r="M134" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40375,7 +40170,7 @@
       <c r="L135" s="16">
         <v>0</v>
       </c>
-      <c r="M135" s="20">
+      <c r="M135" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40416,7 +40211,7 @@
       <c r="L136" s="16">
         <v>0</v>
       </c>
-      <c r="M136" s="20">
+      <c r="M136" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40457,7 +40252,7 @@
       <c r="L137" s="16">
         <v>0</v>
       </c>
-      <c r="M137" s="20">
+      <c r="M137" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40498,7 +40293,7 @@
       <c r="L138" s="16">
         <v>1.2453300124532999E-3</v>
       </c>
-      <c r="M138" s="20">
+      <c r="M138" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40539,7 +40334,7 @@
       <c r="L139" s="16">
         <v>9.4517958412098299E-3</v>
       </c>
-      <c r="M139" s="20">
+      <c r="M139" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40580,7 +40375,7 @@
       <c r="L140" s="16">
         <v>0</v>
       </c>
-      <c r="M140" s="20">
+      <c r="M140" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40621,7 +40416,7 @@
       <c r="L141" s="16">
         <v>1.538461538461538E-3</v>
       </c>
-      <c r="M141" s="20">
+      <c r="M141" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40662,7 +40457,7 @@
       <c r="L142" s="16">
         <v>0</v>
       </c>
-      <c r="M142" s="20">
+      <c r="M142" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40703,7 +40498,7 @@
       <c r="L143" s="16">
         <v>7.9787234042553185E-3</v>
       </c>
-      <c r="M143" s="20">
+      <c r="M143" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40744,7 +40539,7 @@
       <c r="L144" s="16">
         <v>1.240079365079365E-2</v>
       </c>
-      <c r="M144" s="20">
+      <c r="M144" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40785,7 +40580,7 @@
       <c r="L145" s="16">
         <v>2.006018054162487E-3</v>
       </c>
-      <c r="M145" s="20">
+      <c r="M145" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40826,7 +40621,7 @@
       <c r="L146" s="16">
         <v>7.3170731707317077E-3</v>
       </c>
-      <c r="M146" s="20">
+      <c r="M146" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40867,7 +40662,7 @@
       <c r="L147" s="16">
         <v>0</v>
       </c>
-      <c r="M147" s="20">
+      <c r="M147" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40908,7 +40703,7 @@
       <c r="L148" s="16">
         <v>0</v>
       </c>
-      <c r="M148" s="20">
+      <c r="M148" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40949,7 +40744,7 @@
       <c r="L149" s="16">
         <v>0</v>
       </c>
-      <c r="M149" s="20">
+      <c r="M149" s="19">
         <v>0</v>
       </c>
     </row>
@@ -40990,7 +40785,7 @@
       <c r="L150" s="16">
         <v>4.6948356807511738E-3</v>
       </c>
-      <c r="M150" s="20">
+      <c r="M150" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41031,7 +40826,7 @@
       <c r="L151" s="16">
         <v>0</v>
       </c>
-      <c r="M151" s="20">
+      <c r="M151" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41072,7 +40867,7 @@
       <c r="L152" s="16">
         <v>2.5575447570332479E-3</v>
       </c>
-      <c r="M152" s="20">
+      <c r="M152" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41113,7 +40908,7 @@
       <c r="L153" s="16">
         <v>3.2362459546925568E-3</v>
       </c>
-      <c r="M153" s="20">
+      <c r="M153" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41154,7 +40949,7 @@
       <c r="L154" s="16">
         <v>0</v>
       </c>
-      <c r="M154" s="20">
+      <c r="M154" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41195,7 +40990,7 @@
       <c r="L155" s="16">
         <v>1.223990208078335E-3</v>
       </c>
-      <c r="M155" s="20">
+      <c r="M155" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41236,7 +41031,7 @@
       <c r="L156" s="16">
         <v>0</v>
       </c>
-      <c r="M156" s="20">
+      <c r="M156" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41277,7 +41072,7 @@
       <c r="L157" s="16">
         <v>0</v>
       </c>
-      <c r="M157" s="20">
+      <c r="M157" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41318,7 +41113,7 @@
       <c r="L158" s="16">
         <v>0</v>
       </c>
-      <c r="M158" s="20">
+      <c r="M158" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41359,7 +41154,7 @@
       <c r="L159" s="16">
         <v>0</v>
       </c>
-      <c r="M159" s="20">
+      <c r="M159" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41400,7 +41195,7 @@
       <c r="L160" s="16">
         <v>0</v>
       </c>
-      <c r="M160" s="20">
+      <c r="M160" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41441,7 +41236,7 @@
       <c r="L161" s="16">
         <v>0</v>
       </c>
-      <c r="M161" s="20">
+      <c r="M161" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41482,7 +41277,7 @@
       <c r="L162" s="16">
         <v>0</v>
       </c>
-      <c r="M162" s="20">
+      <c r="M162" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41523,7 +41318,7 @@
       <c r="L163" s="16">
         <v>0</v>
       </c>
-      <c r="M163" s="20">
+      <c r="M163" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41564,7 +41359,7 @@
       <c r="L164" s="16">
         <v>5.235602094240838E-3</v>
       </c>
-      <c r="M164" s="20">
+      <c r="M164" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41605,7 +41400,7 @@
       <c r="L165" s="16">
         <v>0</v>
       </c>
-      <c r="M165" s="20">
+      <c r="M165" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41646,7 +41441,7 @@
       <c r="L166" s="16">
         <v>2.4390243902439029E-2</v>
       </c>
-      <c r="M166" s="20">
+      <c r="M166" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41687,7 +41482,7 @@
       <c r="L167" s="16">
         <v>0</v>
       </c>
-      <c r="M167" s="20">
+      <c r="M167" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41728,7 +41523,7 @@
       <c r="L168" s="16">
         <v>0</v>
       </c>
-      <c r="M168" s="20">
+      <c r="M168" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41769,7 +41564,7 @@
       <c r="L169" s="16">
         <v>0</v>
       </c>
-      <c r="M169" s="20">
+      <c r="M169" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41810,7 +41605,7 @@
       <c r="L170" s="16">
         <v>1.5384615384615391E-2</v>
       </c>
-      <c r="M170" s="20">
+      <c r="M170" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41851,7 +41646,7 @@
       <c r="L171" s="16">
         <v>0</v>
       </c>
-      <c r="M171" s="20">
+      <c r="M171" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41892,7 +41687,7 @@
       <c r="L172" s="16">
         <v>0</v>
       </c>
-      <c r="M172" s="20">
+      <c r="M172" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41933,7 +41728,7 @@
       <c r="L173" s="16">
         <v>0</v>
       </c>
-      <c r="M173" s="20">
+      <c r="M173" s="19">
         <v>0</v>
       </c>
     </row>
@@ -41974,7 +41769,7 @@
       <c r="L174" s="16">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="M174" s="20">
+      <c r="M174" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42015,7 +41810,7 @@
       <c r="L175" s="16">
         <v>0</v>
       </c>
-      <c r="M175" s="20">
+      <c r="M175" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42056,7 +41851,7 @@
       <c r="L176" s="16">
         <v>0</v>
       </c>
-      <c r="M176" s="20">
+      <c r="M176" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42097,7 +41892,7 @@
       <c r="L177" s="16">
         <v>1.8621973929236499E-3</v>
       </c>
-      <c r="M177" s="20">
+      <c r="M177" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42138,7 +41933,7 @@
       <c r="L178" s="16">
         <v>0</v>
       </c>
-      <c r="M178" s="20">
+      <c r="M178" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42179,7 +41974,7 @@
       <c r="L179" s="16">
         <v>1.7114914425427868E-2</v>
       </c>
-      <c r="M179" s="20">
+      <c r="M179" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42220,7 +42015,7 @@
       <c r="L180" s="16">
         <v>0</v>
       </c>
-      <c r="M180" s="20">
+      <c r="M180" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42261,7 +42056,7 @@
       <c r="L181" s="16">
         <v>1.0526315789473681E-2</v>
       </c>
-      <c r="M181" s="20">
+      <c r="M181" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42302,7 +42097,7 @@
       <c r="L182" s="16">
         <v>0</v>
       </c>
-      <c r="M182" s="20">
+      <c r="M182" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42343,7 +42138,7 @@
       <c r="L183" s="16">
         <v>0.16949152542372881</v>
       </c>
-      <c r="M183" s="20">
+      <c r="M183" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42384,7 +42179,7 @@
       <c r="L184" s="16">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="M184" s="20">
+      <c r="M184" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42425,7 +42220,7 @@
       <c r="L185" s="16">
         <v>1.8691588785046731E-2</v>
       </c>
-      <c r="M185" s="20">
+      <c r="M185" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42466,7 +42261,7 @@
       <c r="L186" s="16">
         <v>0</v>
       </c>
-      <c r="M186" s="20">
+      <c r="M186" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42507,7 +42302,7 @@
       <c r="L187" s="16">
         <v>5.4216867469879519E-2</v>
       </c>
-      <c r="M187" s="20">
+      <c r="M187" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42548,7 +42343,7 @@
       <c r="L188" s="16">
         <v>3.6900369003690037E-2</v>
       </c>
-      <c r="M188" s="20">
+      <c r="M188" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42589,7 +42384,7 @@
       <c r="L189" s="16">
         <v>1.5384615384615391E-2</v>
       </c>
-      <c r="M189" s="20">
+      <c r="M189" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42630,7 +42425,7 @@
       <c r="L190" s="16">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M190" s="20">
+      <c r="M190" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42671,7 +42466,7 @@
       <c r="L191" s="16">
         <v>0</v>
       </c>
-      <c r="M191" s="20">
+      <c r="M191" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42712,7 +42507,7 @@
       <c r="L192" s="16">
         <v>0.05</v>
       </c>
-      <c r="M192" s="20">
+      <c r="M192" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42753,7 +42548,7 @@
       <c r="L193" s="16">
         <v>6.5420560747663545E-2</v>
       </c>
-      <c r="M193" s="20">
+      <c r="M193" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42794,7 +42589,7 @@
       <c r="L194" s="16">
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="M194" s="20">
+      <c r="M194" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42835,7 +42630,7 @@
       <c r="L195" s="16">
         <v>0</v>
       </c>
-      <c r="M195" s="20">
+      <c r="M195" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42876,7 +42671,7 @@
       <c r="L196" s="16">
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="M196" s="20">
+      <c r="M196" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42917,7 +42712,7 @@
       <c r="L197" s="16">
         <v>0</v>
       </c>
-      <c r="M197" s="20">
+      <c r="M197" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42958,7 +42753,7 @@
       <c r="L198" s="16">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M198" s="20">
+      <c r="M198" s="19">
         <v>0</v>
       </c>
     </row>
@@ -42999,7 +42794,7 @@
       <c r="L199" s="16">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M199" s="20">
+      <c r="M199" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43040,7 +42835,7 @@
       <c r="L200" s="16">
         <v>2.1940516821062901E-3</v>
       </c>
-      <c r="M200" s="20">
+      <c r="M200" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43081,7 +42876,7 @@
       <c r="L201" s="16">
         <v>1.0576923076923079E-2</v>
       </c>
-      <c r="M201" s="20">
+      <c r="M201" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43122,7 +42917,7 @@
       <c r="L202" s="16">
         <v>4.0816326530612249E-3</v>
       </c>
-      <c r="M202" s="20">
+      <c r="M202" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43163,7 +42958,7 @@
       <c r="L203" s="16">
         <v>0</v>
       </c>
-      <c r="M203" s="20">
+      <c r="M203" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43204,7 +42999,7 @@
       <c r="L204" s="16">
         <v>0</v>
       </c>
-      <c r="M204" s="20">
+      <c r="M204" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43245,7 +43040,7 @@
       <c r="L205" s="16">
         <v>0</v>
       </c>
-      <c r="M205" s="20">
+      <c r="M205" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43286,7 +43081,7 @@
       <c r="L206" s="16">
         <v>0</v>
       </c>
-      <c r="M206" s="20">
+      <c r="M206" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43327,7 +43122,7 @@
       <c r="L207" s="16">
         <v>1.15606936416185E-2</v>
       </c>
-      <c r="M207" s="20">
+      <c r="M207" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43368,7 +43163,7 @@
       <c r="L208" s="16">
         <v>0</v>
       </c>
-      <c r="M208" s="20">
+      <c r="M208" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43409,7 +43204,7 @@
       <c r="L209" s="16">
         <v>3.9325842696629212E-2</v>
       </c>
-      <c r="M209" s="20">
+      <c r="M209" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43450,7 +43245,7 @@
       <c r="L210" s="16">
         <v>2.5873221216041399E-3</v>
       </c>
-      <c r="M210" s="20">
+      <c r="M210" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43491,7 +43286,7 @@
       <c r="L211" s="16">
         <v>6.1983471074380167E-3</v>
       </c>
-      <c r="M211" s="20">
+      <c r="M211" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43532,7 +43327,7 @@
       <c r="L212" s="16">
         <v>0</v>
       </c>
-      <c r="M212" s="20">
+      <c r="M212" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43573,7 +43368,7 @@
       <c r="L213" s="16">
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="M213" s="20">
+      <c r="M213" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43614,7 +43409,7 @@
       <c r="L214" s="16">
         <v>1.945525291828794E-3</v>
       </c>
-      <c r="M214" s="20">
+      <c r="M214" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43655,7 +43450,7 @@
       <c r="L215" s="16">
         <v>3.666361136571952E-3</v>
       </c>
-      <c r="M215" s="20">
+      <c r="M215" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43696,7 +43491,7 @@
       <c r="L216" s="16">
         <v>2.527379949452401E-3</v>
       </c>
-      <c r="M216" s="20">
+      <c r="M216" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43737,7 +43532,7 @@
       <c r="L217" s="16">
         <v>9.7087378640776691E-3</v>
       </c>
-      <c r="M217" s="20">
+      <c r="M217" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43778,7 +43573,7 @@
       <c r="L218" s="16">
         <v>0</v>
       </c>
-      <c r="M218" s="20">
+      <c r="M218" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43819,7 +43614,7 @@
       <c r="L219" s="16">
         <v>8.0080080080080079E-3</v>
       </c>
-      <c r="M219" s="20">
+      <c r="M219" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43860,7 +43655,7 @@
       <c r="L220" s="16">
         <v>0.24</v>
       </c>
-      <c r="M220" s="20">
+      <c r="M220" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43901,7 +43696,7 @@
       <c r="L221" s="16">
         <v>2.3941068139963169E-2</v>
       </c>
-      <c r="M221" s="20">
+      <c r="M221" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43942,7 +43737,7 @@
       <c r="L222" s="16">
         <v>0</v>
       </c>
-      <c r="M222" s="20">
+      <c r="M222" s="19">
         <v>0</v>
       </c>
     </row>
@@ -43983,7 +43778,7 @@
       <c r="L223" s="16">
         <v>2.5806451612903229E-2</v>
       </c>
-      <c r="M223" s="20">
+      <c r="M223" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44024,7 +43819,7 @@
       <c r="L224" s="16">
         <v>0</v>
       </c>
-      <c r="M224" s="20">
+      <c r="M224" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44065,7 +43860,7 @@
       <c r="L225" s="16">
         <v>0</v>
       </c>
-      <c r="M225" s="20">
+      <c r="M225" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44106,7 +43901,7 @@
       <c r="L226" s="16">
         <v>3.378378378378379E-3</v>
       </c>
-      <c r="M226" s="20">
+      <c r="M226" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44147,7 +43942,7 @@
       <c r="L227" s="16">
         <v>0</v>
       </c>
-      <c r="M227" s="20">
+      <c r="M227" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44188,7 +43983,7 @@
       <c r="L228" s="16">
         <v>0</v>
       </c>
-      <c r="M228" s="20">
+      <c r="M228" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44229,7 +44024,7 @@
       <c r="L229" s="16">
         <v>1.550387596899225E-3</v>
       </c>
-      <c r="M229" s="20">
+      <c r="M229" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44270,7 +44065,7 @@
       <c r="L230" s="16">
         <v>1.063829787234043E-2</v>
       </c>
-      <c r="M230" s="20">
+      <c r="M230" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44311,7 +44106,7 @@
       <c r="L231" s="16">
         <v>0</v>
       </c>
-      <c r="M231" s="20">
+      <c r="M231" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44352,7 +44147,7 @@
       <c r="L232" s="16">
         <v>2.9930162953109409E-3</v>
       </c>
-      <c r="M232" s="20">
+      <c r="M232" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44393,7 +44188,7 @@
       <c r="L233" s="16">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="M233" s="20">
+      <c r="M233" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44434,7 +44229,7 @@
       <c r="L234" s="16">
         <v>1.9073569482288829E-2</v>
       </c>
-      <c r="M234" s="20">
+      <c r="M234" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44475,7 +44270,7 @@
       <c r="L235" s="16">
         <v>0.25735294117647062</v>
       </c>
-      <c r="M235" s="20">
+      <c r="M235" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44516,7 +44311,7 @@
       <c r="L236" s="16">
         <v>0</v>
       </c>
-      <c r="M236" s="20">
+      <c r="M236" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44557,7 +44352,7 @@
       <c r="L237" s="16">
         <v>0</v>
       </c>
-      <c r="M237" s="20">
+      <c r="M237" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44598,7 +44393,7 @@
       <c r="L238" s="16">
         <v>0</v>
       </c>
-      <c r="M238" s="20">
+      <c r="M238" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44639,7 +44434,7 @@
       <c r="L239" s="16">
         <v>0.29539295392953929</v>
       </c>
-      <c r="M239" s="20">
+      <c r="M239" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44680,7 +44475,7 @@
       <c r="L240" s="16">
         <v>0.109375</v>
       </c>
-      <c r="M240" s="20">
+      <c r="M240" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44721,7 +44516,7 @@
       <c r="L241" s="16">
         <v>0.28025477707006369</v>
       </c>
-      <c r="M241" s="20">
+      <c r="M241" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44762,7 +44557,7 @@
       <c r="L242" s="16">
         <v>4.6838407494145202E-2</v>
       </c>
-      <c r="M242" s="20">
+      <c r="M242" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44803,7 +44598,7 @@
       <c r="L243" s="16">
         <v>6.8421052631578952E-2</v>
       </c>
-      <c r="M243" s="20">
+      <c r="M243" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44844,7 +44639,7 @@
       <c r="L244" s="16">
         <v>2.5878003696857669E-2</v>
       </c>
-      <c r="M244" s="20">
+      <c r="M244" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44885,7 +44680,7 @@
       <c r="L245" s="16">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="M245" s="20">
+      <c r="M245" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44926,7 +44721,7 @@
       <c r="L246" s="16">
         <v>2.3809523809523812E-2</v>
       </c>
-      <c r="M246" s="20">
+      <c r="M246" s="19">
         <v>0</v>
       </c>
     </row>
@@ -44967,7 +44762,7 @@
       <c r="L247" s="16">
         <v>0</v>
       </c>
-      <c r="M247" s="20">
+      <c r="M247" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45008,7 +44803,7 @@
       <c r="L248" s="16">
         <v>1.0526315789473681E-2</v>
       </c>
-      <c r="M248" s="20">
+      <c r="M248" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45049,7 +44844,7 @@
       <c r="L249" s="16">
         <v>3.4188034188034191E-2</v>
       </c>
-      <c r="M249" s="20">
+      <c r="M249" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45090,7 +44885,7 @@
       <c r="L250" s="16">
         <v>0.2142857142857143</v>
       </c>
-      <c r="M250" s="20">
+      <c r="M250" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45131,7 +44926,7 @@
       <c r="L251" s="16">
         <v>1.298701298701299E-2</v>
       </c>
-      <c r="M251" s="20">
+      <c r="M251" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45172,7 +44967,7 @@
       <c r="L252" s="16">
         <v>2.645502645502645E-2</v>
       </c>
-      <c r="M252" s="20">
+      <c r="M252" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45213,7 +45008,7 @@
       <c r="L253" s="16">
         <v>1.8018018018018021E-2</v>
       </c>
-      <c r="M253" s="20">
+      <c r="M253" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45254,7 +45049,7 @@
       <c r="L254" s="16">
         <v>7.8947368421052627E-2</v>
       </c>
-      <c r="M254" s="20">
+      <c r="M254" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45295,7 +45090,7 @@
       <c r="L255" s="16">
         <v>3.9325842696629212E-2</v>
       </c>
-      <c r="M255" s="20">
+      <c r="M255" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45336,7 +45131,7 @@
       <c r="L256" s="16">
         <v>1.096491228070175E-2</v>
       </c>
-      <c r="M256" s="20">
+      <c r="M256" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45377,7 +45172,7 @@
       <c r="L257" s="16">
         <v>1.754385964912281E-2</v>
       </c>
-      <c r="M257" s="20">
+      <c r="M257" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45418,7 +45213,7 @@
       <c r="L258" s="16">
         <v>2.7450980392156859E-2</v>
       </c>
-      <c r="M258" s="20">
+      <c r="M258" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45459,7 +45254,7 @@
       <c r="L259" s="16">
         <v>0</v>
       </c>
-      <c r="M259" s="20">
+      <c r="M259" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45500,7 +45295,7 @@
       <c r="L260" s="16">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="M260" s="20">
+      <c r="M260" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45541,7 +45336,7 @@
       <c r="L261" s="16">
         <v>8.2815734989648039E-3</v>
       </c>
-      <c r="M261" s="20">
+      <c r="M261" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45582,7 +45377,7 @@
       <c r="L262" s="16">
         <v>4.662004662004662E-3</v>
       </c>
-      <c r="M262" s="20">
+      <c r="M262" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45623,7 +45418,7 @@
       <c r="L263" s="16">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="M263" s="20">
+      <c r="M263" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45664,7 +45459,7 @@
       <c r="L264" s="16">
         <v>4.4910179640718561E-3</v>
       </c>
-      <c r="M264" s="20">
+      <c r="M264" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45705,7 +45500,7 @@
       <c r="L265" s="16">
         <v>1.7241379310344831E-2</v>
       </c>
-      <c r="M265" s="20">
+      <c r="M265" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45746,7 +45541,7 @@
       <c r="L266" s="16">
         <v>0</v>
       </c>
-      <c r="M266" s="20">
+      <c r="M266" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45787,7 +45582,7 @@
       <c r="L267" s="16">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M267" s="20">
+      <c r="M267" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45828,7 +45623,7 @@
       <c r="L268" s="16">
         <v>6.5656565656565663E-2</v>
       </c>
-      <c r="M268" s="20">
+      <c r="M268" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45869,7 +45664,7 @@
       <c r="L269" s="16">
         <v>0</v>
       </c>
-      <c r="M269" s="20">
+      <c r="M269" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45910,7 +45705,7 @@
       <c r="L270" s="16">
         <v>0.1683168316831683</v>
       </c>
-      <c r="M270" s="20">
+      <c r="M270" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45951,7 +45746,7 @@
       <c r="L271" s="16">
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="M271" s="20">
+      <c r="M271" s="19">
         <v>0</v>
       </c>
     </row>
@@ -45992,7 +45787,7 @@
       <c r="L272" s="16">
         <v>0.29411764705882348</v>
       </c>
-      <c r="M272" s="20">
+      <c r="M272" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46033,7 +45828,7 @@
       <c r="L273" s="16">
         <v>0.1063829787234043</v>
       </c>
-      <c r="M273" s="20">
+      <c r="M273" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46074,7 +45869,7 @@
       <c r="L274" s="16">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M274" s="20">
+      <c r="M274" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46115,7 +45910,7 @@
       <c r="L275" s="16">
         <v>1.754385964912281E-2</v>
       </c>
-      <c r="M275" s="20">
+      <c r="M275" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46156,7 +45951,7 @@
       <c r="L276" s="16">
         <v>1.234567901234568E-2</v>
       </c>
-      <c r="M276" s="20">
+      <c r="M276" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46197,7 +45992,7 @@
       <c r="L277" s="16">
         <v>3.8809831824062092E-2</v>
       </c>
-      <c r="M277" s="20">
+      <c r="M277" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46238,7 +46033,7 @@
       <c r="L278" s="16">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="M278" s="20">
+      <c r="M278" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46279,7 +46074,7 @@
       <c r="L279" s="16">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M279" s="20">
+      <c r="M279" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46320,7 +46115,7 @@
       <c r="L280" s="16">
         <v>5.5066079295154183E-2</v>
       </c>
-      <c r="M280" s="20">
+      <c r="M280" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46361,7 +46156,7 @@
       <c r="L281" s="16">
         <v>2.3510971786833861E-2</v>
       </c>
-      <c r="M281" s="20">
+      <c r="M281" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46402,7 +46197,7 @@
       <c r="L282" s="16">
         <v>0.1619718309859155</v>
       </c>
-      <c r="M282" s="20">
+      <c r="M282" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46443,7 +46238,7 @@
       <c r="L283" s="16">
         <v>2.166064981949458E-2</v>
       </c>
-      <c r="M283" s="20">
+      <c r="M283" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46484,7 +46279,7 @@
       <c r="L284" s="16">
         <v>0.18367346938775511</v>
       </c>
-      <c r="M284" s="20">
+      <c r="M284" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46525,7 +46320,7 @@
       <c r="L285" s="16">
         <v>8.0645161290322578E-3</v>
       </c>
-      <c r="M285" s="20">
+      <c r="M285" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46566,7 +46361,7 @@
       <c r="L286" s="16">
         <v>0</v>
       </c>
-      <c r="M286" s="20">
+      <c r="M286" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46607,7 +46402,7 @@
       <c r="L287" s="16">
         <v>0</v>
       </c>
-      <c r="M287" s="20">
+      <c r="M287" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46648,7 +46443,7 @@
       <c r="L288" s="16">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="M288" s="20">
+      <c r="M288" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46689,7 +46484,7 @@
       <c r="L289" s="16">
         <v>0</v>
       </c>
-      <c r="M289" s="20">
+      <c r="M289" s="19">
         <v>0</v>
       </c>
     </row>
@@ -46730,7 +46525,7 @@
       <c r="L290" s="16">
         <v>4.3209876543209867E-2</v>
       </c>
-      <c r="M290" s="20">
+      <c r="M290" s="19">
         <v>0</v>
       </c>
     </row>
@@ -47261,14 +47056,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -54651,14 +54446,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">

--- a/Institutions_Final.xlsx
+++ b/Institutions_Final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="639">
   <si>
     <t>Field</t>
   </si>
@@ -1944,6 +1944,9 @@
   </si>
   <si>
     <t>Predatory_%</t>
+  </si>
+  <si>
+    <t>Akademie věd</t>
   </si>
 </sst>
 </file>
@@ -2089,12 +2092,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5694,19 +5697,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -6358,37 +6361,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3</c:v>
@@ -6938,76 +6941,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3</c:v>
@@ -7742,115 +7745,115 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3</c:v>
@@ -8630,22 +8633,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -11487,22 +11490,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -12081,19 +12084,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -12745,37 +12748,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3</c:v>
@@ -13325,76 +13328,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3</c:v>
@@ -14129,115 +14132,115 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3</c:v>
@@ -15017,22 +15020,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -15670,22 +15673,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -25483,10 +25486,10 @@
   <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B288" sqref="B288"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25576,14 +25579,14 @@
       <c r="K2" s="14">
         <v>0.44173441734417351</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>0.29539295392953929</v>
       </c>
       <c r="M2" s="17">
         <v>0</v>
       </c>
-      <c r="N2" s="20">
-        <f>K2+L2</f>
+      <c r="N2" s="19">
+        <f t="shared" ref="N2:N65" si="0">K2+L2</f>
         <v>0.73712737127371275</v>
       </c>
     </row>
@@ -25621,14 +25624,14 @@
       <c r="K3" s="14">
         <v>0.52941176470588236</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>0.29411764705882348</v>
       </c>
       <c r="M3" s="17">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
-        <f>K3+L3</f>
+      <c r="N3" s="19">
+        <f t="shared" si="0"/>
         <v>0.82352941176470584</v>
       </c>
     </row>
@@ -25666,14 +25669,14 @@
       <c r="K4" s="14">
         <v>0.45859872611464969</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>0.28025477707006369</v>
       </c>
       <c r="M4" s="17">
         <v>0</v>
       </c>
-      <c r="N4" s="20">
-        <f>K4+L4</f>
+      <c r="N4" s="19">
+        <f t="shared" si="0"/>
         <v>0.73885350318471343</v>
       </c>
     </row>
@@ -25711,14 +25714,14 @@
       <c r="K5" s="14">
         <v>0.59558823529411764</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>0.25735294117647062</v>
       </c>
       <c r="M5" s="17">
         <v>0</v>
       </c>
-      <c r="N5" s="20">
-        <f>K5+L5</f>
+      <c r="N5" s="19">
+        <f t="shared" si="0"/>
         <v>0.85294117647058831</v>
       </c>
     </row>
@@ -25756,14 +25759,14 @@
       <c r="K6" s="14">
         <v>0.22</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>0.24</v>
       </c>
       <c r="M6" s="17">
         <v>0</v>
       </c>
-      <c r="N6" s="20">
-        <f>K6+L6</f>
+      <c r="N6" s="19">
+        <f t="shared" si="0"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
@@ -25801,14 +25804,14 @@
       <c r="K7" s="14">
         <v>0.45634920634920628</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <v>0.2142857142857143</v>
       </c>
       <c r="M7" s="17">
         <v>0</v>
       </c>
-      <c r="N7" s="20">
-        <f>K7+L7</f>
+      <c r="N7" s="19">
+        <f t="shared" si="0"/>
         <v>0.67063492063492058</v>
       </c>
     </row>
@@ -25846,14 +25849,14 @@
       <c r="K8" s="14">
         <v>0.46666666666666667</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <v>0.2</v>
       </c>
       <c r="M8" s="17">
         <v>0</v>
       </c>
-      <c r="N8" s="20">
-        <f>K8+L8</f>
+      <c r="N8" s="19">
+        <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
     </row>
@@ -25891,14 +25894,14 @@
       <c r="K9" s="14">
         <v>0.48979591836734693</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <v>0.18367346938775511</v>
       </c>
       <c r="M9" s="17">
         <v>0</v>
       </c>
-      <c r="N9" s="20">
-        <f>K9+L9</f>
+      <c r="N9" s="19">
+        <f t="shared" si="0"/>
         <v>0.67346938775510201</v>
       </c>
     </row>
@@ -25936,14 +25939,14 @@
       <c r="K10" s="14">
         <v>0.65254237288135597</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <v>0.16949152542372881</v>
       </c>
       <c r="M10" s="17">
         <v>0</v>
       </c>
-      <c r="N10" s="20">
-        <f>K10+L10</f>
+      <c r="N10" s="19">
+        <f t="shared" si="0"/>
         <v>0.82203389830508478</v>
       </c>
     </row>
@@ -25981,14 +25984,14 @@
       <c r="K11" s="14">
         <v>0.62376237623762376</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <v>0.1683168316831683</v>
       </c>
       <c r="M11" s="17">
         <v>0</v>
       </c>
-      <c r="N11" s="20">
-        <f>K11+L11</f>
+      <c r="N11" s="19">
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
     </row>
@@ -26026,14 +26029,14 @@
       <c r="K12" s="14">
         <v>2.582159624413146E-2</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="18">
         <v>0.1619718309859155</v>
       </c>
       <c r="M12" s="17">
         <v>0</v>
       </c>
-      <c r="N12" s="20">
-        <f>K12+L12</f>
+      <c r="N12" s="19">
+        <f t="shared" si="0"/>
         <v>0.18779342723004697</v>
       </c>
     </row>
@@ -26071,14 +26074,14 @@
       <c r="K13" s="14">
         <v>0.375</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <v>0.109375</v>
       </c>
       <c r="M13" s="17">
         <v>0</v>
       </c>
-      <c r="N13" s="20">
-        <f>K13+L13</f>
+      <c r="N13" s="19">
+        <f t="shared" si="0"/>
         <v>0.484375</v>
       </c>
     </row>
@@ -26116,14 +26119,14 @@
       <c r="K14" s="14">
         <v>0.42553191489361702</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <v>0.1063829787234043</v>
       </c>
       <c r="M14" s="17">
         <v>0</v>
       </c>
-      <c r="N14" s="20">
-        <f>K14+L14</f>
+      <c r="N14" s="19">
+        <f t="shared" si="0"/>
         <v>0.53191489361702127</v>
       </c>
     </row>
@@ -26161,14 +26164,14 @@
       <c r="K15" s="14">
         <v>0.42105263157894729</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <v>0.10526315789473679</v>
       </c>
       <c r="M15" s="17">
         <v>0</v>
       </c>
-      <c r="N15" s="20">
-        <f>K15+L15</f>
+      <c r="N15" s="19">
+        <f t="shared" si="0"/>
         <v>0.52631578947368407</v>
       </c>
     </row>
@@ -26206,14 +26209,14 @@
       <c r="K16" s="14">
         <v>0.76247030878859856</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <v>0.10213776722090261</v>
       </c>
       <c r="M16" s="17">
         <v>0</v>
       </c>
-      <c r="N16" s="20">
-        <f>K16+L16</f>
+      <c r="N16" s="19">
+        <f t="shared" si="0"/>
         <v>0.86460807600950118</v>
       </c>
     </row>
@@ -26251,14 +26254,14 @@
       <c r="K17" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="M17" s="17">
         <v>0</v>
       </c>
-      <c r="N17" s="20">
-        <f>K17+L17</f>
+      <c r="N17" s="19">
+        <f t="shared" si="0"/>
         <v>0.67424242424242431</v>
       </c>
     </row>
@@ -26296,14 +26299,14 @@
       <c r="K18" s="14">
         <v>0.38235294117647062</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="M18" s="17">
         <v>0</v>
       </c>
-      <c r="N18" s="20">
-        <f>K18+L18</f>
+      <c r="N18" s="19">
+        <f t="shared" si="0"/>
         <v>0.4705882352941177</v>
       </c>
     </row>
@@ -26341,14 +26344,14 @@
       <c r="K19" s="14">
         <v>0.55882352941176472</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="M19" s="17">
         <v>0</v>
       </c>
-      <c r="N19" s="20">
-        <f>K19+L19</f>
+      <c r="N19" s="19">
+        <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
     </row>
@@ -26386,14 +26389,14 @@
       <c r="K20" s="14">
         <v>0.30136986301369861</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="M20" s="17">
         <v>0</v>
       </c>
-      <c r="N20" s="20">
-        <f>K20+L20</f>
+      <c r="N20" s="19">
+        <f t="shared" si="0"/>
         <v>0.38356164383561642</v>
       </c>
     </row>
@@ -26431,14 +26434,14 @@
       <c r="K21" s="14">
         <v>0.48684210526315791</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="M21" s="17">
         <v>0</v>
       </c>
-      <c r="N21" s="20">
-        <f>K21+L21</f>
+      <c r="N21" s="19">
+        <f t="shared" si="0"/>
         <v>0.56578947368421051</v>
       </c>
     </row>
@@ -26476,14 +26479,14 @@
       <c r="K22" s="14">
         <v>0.44050632911392412</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <v>7.848101265822785E-2</v>
       </c>
       <c r="M22" s="17">
         <v>0</v>
       </c>
-      <c r="N22" s="20">
-        <f>K22+L22</f>
+      <c r="N22" s="19">
+        <f t="shared" si="0"/>
         <v>0.518987341772152</v>
       </c>
     </row>
@@ -26521,14 +26524,14 @@
       <c r="K23" s="14">
         <v>0</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="M23" s="17">
         <v>0</v>
       </c>
-      <c r="N23" s="20">
-        <f>K23+L23</f>
+      <c r="N23" s="19">
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -26566,14 +26569,14 @@
       <c r="K24" s="14">
         <v>0.5357142857142857</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="M24" s="17">
         <v>0</v>
       </c>
-      <c r="N24" s="20">
-        <f>K24+L24</f>
+      <c r="N24" s="19">
+        <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
     </row>
@@ -26611,14 +26614,14 @@
       <c r="K25" s="14">
         <v>0.82178217821782173</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="18">
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="M25" s="17">
         <v>0</v>
       </c>
-      <c r="N25" s="20">
-        <f>K25+L25</f>
+      <c r="N25" s="19">
+        <f t="shared" si="0"/>
         <v>0.89108910891089099</v>
       </c>
     </row>
@@ -26656,14 +26659,14 @@
       <c r="K26" s="14">
         <v>0.10789473684210529</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <v>6.8421052631578952E-2</v>
       </c>
       <c r="M26" s="17">
         <v>0</v>
       </c>
-      <c r="N26" s="20">
-        <f>K26+L26</f>
+      <c r="N26" s="19">
+        <f t="shared" si="0"/>
         <v>0.17631578947368426</v>
       </c>
     </row>
@@ -26701,14 +26704,14 @@
       <c r="K27" s="14">
         <v>0.4</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="18">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M27" s="17">
         <v>0</v>
       </c>
-      <c r="N27" s="20">
-        <f>K27+L27</f>
+      <c r="N27" s="19">
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
@@ -26746,14 +26749,14 @@
       <c r="K28" s="14">
         <v>0.48989898989898989</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="18">
         <v>6.5656565656565663E-2</v>
       </c>
       <c r="M28" s="17">
         <v>0</v>
       </c>
-      <c r="N28" s="20">
-        <f>K28+L28</f>
+      <c r="N28" s="19">
+        <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -26791,14 +26794,14 @@
       <c r="K29" s="14">
         <v>0.17289719626168221</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="18">
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="M29" s="17">
         <v>0</v>
       </c>
-      <c r="N29" s="20">
-        <f>K29+L29</f>
+      <c r="N29" s="19">
+        <f t="shared" si="0"/>
         <v>0.23831775700934577</v>
       </c>
     </row>
@@ -26836,14 +26839,14 @@
       <c r="K30" s="14">
         <v>0.32</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="18">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="M30" s="17">
         <v>0</v>
       </c>
-      <c r="N30" s="20">
-        <f>K30+L30</f>
+      <c r="N30" s="19">
+        <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
     </row>
@@ -26881,14 +26884,14 @@
       <c r="K31" s="14">
         <v>0.23529411764705879</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="18">
         <v>5.8823529411764712E-2</v>
       </c>
       <c r="M31" s="17">
         <v>0</v>
       </c>
-      <c r="N31" s="20">
-        <f>K31+L31</f>
+      <c r="N31" s="19">
+        <f t="shared" si="0"/>
         <v>0.29411764705882348</v>
       </c>
     </row>
@@ -26926,14 +26929,14 @@
       <c r="K32" s="14">
         <v>0.752</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="18">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="M32" s="17">
         <v>0</v>
       </c>
-      <c r="N32" s="20">
-        <f>K32+L32</f>
+      <c r="N32" s="19">
+        <f t="shared" si="0"/>
         <v>0.80800000000000005</v>
       </c>
     </row>
@@ -26971,14 +26974,14 @@
       <c r="K33" s="14">
         <v>0.22246696035242289</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="M33" s="17">
         <v>0</v>
       </c>
-      <c r="N33" s="20">
-        <f>K33+L33</f>
+      <c r="N33" s="19">
+        <f t="shared" si="0"/>
         <v>0.27753303964757708</v>
       </c>
     </row>
@@ -27016,14 +27019,14 @@
       <c r="K34" s="14">
         <v>0.35542168674698787</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>5.4216867469879519E-2</v>
       </c>
       <c r="M34" s="17">
         <v>0</v>
       </c>
-      <c r="N34" s="20">
-        <f>K34+L34</f>
+      <c r="N34" s="19">
+        <f t="shared" si="0"/>
         <v>0.4096385542168674</v>
       </c>
     </row>
@@ -27061,14 +27064,14 @@
       <c r="K35" s="14">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <v>0.05</v>
       </c>
       <c r="M35" s="17">
         <v>0</v>
       </c>
-      <c r="N35" s="20">
-        <f>K35+L35</f>
+      <c r="N35" s="19">
+        <f t="shared" si="0"/>
         <v>0.6166666666666667</v>
       </c>
     </row>
@@ -27106,14 +27109,14 @@
       <c r="K36" s="14">
         <v>0.6097560975609756</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="18">
         <v>4.878048780487805E-2</v>
       </c>
       <c r="M36" s="17">
         <v>0</v>
       </c>
-      <c r="N36" s="20">
-        <f>K36+L36</f>
+      <c r="N36" s="19">
+        <f t="shared" si="0"/>
         <v>0.65853658536585369</v>
       </c>
     </row>
@@ -27151,14 +27154,14 @@
       <c r="K37" s="14">
         <v>4.7619047619047623E-2</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="18">
         <v>4.7619047619047623E-2</v>
       </c>
       <c r="M37" s="17">
         <v>0</v>
       </c>
-      <c r="N37" s="20">
-        <f>K37+L37</f>
+      <c r="N37" s="19">
+        <f t="shared" si="0"/>
         <v>9.5238095238095247E-2</v>
       </c>
     </row>
@@ -27196,14 +27199,14 @@
       <c r="K38" s="14">
         <v>0.63157894736842102</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="18">
         <v>4.736842105263158E-2</v>
       </c>
       <c r="M38" s="17">
         <v>0</v>
       </c>
-      <c r="N38" s="20">
-        <f>K38+L38</f>
+      <c r="N38" s="19">
+        <f t="shared" si="0"/>
         <v>0.67894736842105263</v>
       </c>
     </row>
@@ -27241,14 +27244,14 @@
       <c r="K39" s="14">
         <v>0.32084309133489458</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="18">
         <v>4.6838407494145202E-2</v>
       </c>
       <c r="M39" s="17">
         <v>0</v>
       </c>
-      <c r="N39" s="20">
-        <f>K39+L39</f>
+      <c r="N39" s="19">
+        <f t="shared" si="0"/>
         <v>0.36768149882903978</v>
       </c>
     </row>
@@ -27286,14 +27289,14 @@
       <c r="K40" s="14">
         <v>0.81818181818181823</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="18">
         <v>4.5454545454545463E-2</v>
       </c>
       <c r="M40" s="17">
         <v>0</v>
       </c>
-      <c r="N40" s="20">
-        <f>K40+L40</f>
+      <c r="N40" s="19">
+        <f t="shared" si="0"/>
         <v>0.86363636363636365</v>
       </c>
     </row>
@@ -27331,14 +27334,14 @@
       <c r="K41" s="14">
         <v>6.4814814814814811E-2</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="18">
         <v>4.3209876543209867E-2</v>
       </c>
       <c r="M41" s="17">
         <v>0</v>
       </c>
-      <c r="N41" s="20">
-        <f>K41+L41</f>
+      <c r="N41" s="19">
+        <f t="shared" si="0"/>
         <v>0.10802469135802467</v>
       </c>
     </row>
@@ -27376,14 +27379,14 @@
       <c r="K42" s="14">
         <v>0.58895705521472397</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="18">
         <v>4.2944785276073622E-2</v>
       </c>
       <c r="M42" s="17">
         <v>0</v>
       </c>
-      <c r="N42" s="20">
-        <f>K42+L42</f>
+      <c r="N42" s="19">
+        <f t="shared" si="0"/>
         <v>0.63190184049079756</v>
       </c>
     </row>
@@ -27421,14 +27424,14 @@
       <c r="K43" s="14">
         <v>0.22916666666666671</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="18">
         <v>4.1666666666666657E-2</v>
       </c>
       <c r="M43" s="17">
         <v>0</v>
       </c>
-      <c r="N43" s="20">
-        <f>K43+L43</f>
+      <c r="N43" s="19">
+        <f t="shared" si="0"/>
         <v>0.27083333333333337</v>
       </c>
     </row>
@@ -27466,14 +27469,14 @@
       <c r="K44" s="14">
         <v>0.1020408163265306</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="18">
         <v>4.0816326530612242E-2</v>
       </c>
       <c r="M44" s="17">
         <v>0</v>
       </c>
-      <c r="N44" s="20">
-        <f>K44+L44</f>
+      <c r="N44" s="19">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -27511,14 +27514,14 @@
       <c r="K45" s="14">
         <v>0.5449438202247191</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="18">
         <v>3.9325842696629212E-2</v>
       </c>
       <c r="M45" s="17">
         <v>0</v>
       </c>
-      <c r="N45" s="20">
-        <f>K45+L45</f>
+      <c r="N45" s="19">
+        <f t="shared" si="0"/>
         <v>0.5842696629213483</v>
       </c>
     </row>
@@ -27556,14 +27559,14 @@
       <c r="K46" s="14">
         <v>0.33707865168539319</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="18">
         <v>3.9325842696629212E-2</v>
       </c>
       <c r="M46" s="17">
         <v>0</v>
       </c>
-      <c r="N46" s="20">
-        <f>K46+L46</f>
+      <c r="N46" s="19">
+        <f t="shared" si="0"/>
         <v>0.37640449438202239</v>
       </c>
     </row>
@@ -27601,14 +27604,14 @@
       <c r="K47" s="14">
         <v>9.8318240620957315E-2</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="18">
         <v>3.8809831824062092E-2</v>
       </c>
       <c r="M47" s="17">
         <v>0</v>
       </c>
-      <c r="N47" s="20">
-        <f>K47+L47</f>
+      <c r="N47" s="19">
+        <f t="shared" si="0"/>
         <v>0.1371280724450194</v>
       </c>
     </row>
@@ -27646,14 +27649,14 @@
       <c r="K48" s="14">
         <v>0.40458015267175568</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="18">
         <v>3.8167938931297711E-2</v>
       </c>
       <c r="M48" s="17">
         <v>0</v>
       </c>
-      <c r="N48" s="20">
-        <f>K48+L48</f>
+      <c r="N48" s="19">
+        <f t="shared" si="0"/>
         <v>0.4427480916030534</v>
       </c>
     </row>
@@ -27691,14 +27694,14 @@
       <c r="K49" s="14">
         <v>0.2250922509225092</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="18">
         <v>3.6900369003690037E-2</v>
       </c>
       <c r="M49" s="17">
         <v>0</v>
       </c>
-      <c r="N49" s="20">
-        <f>K49+L49</f>
+      <c r="N49" s="19">
+        <f t="shared" si="0"/>
         <v>0.26199261992619927</v>
       </c>
     </row>
@@ -27736,14 +27739,14 @@
       <c r="K50" s="14">
         <v>0.52447552447552448</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="18">
         <v>3.4965034965034968E-2</v>
       </c>
       <c r="M50" s="17">
         <v>0</v>
       </c>
-      <c r="N50" s="20">
-        <f>K50+L50</f>
+      <c r="N50" s="19">
+        <f t="shared" si="0"/>
         <v>0.55944055944055948</v>
       </c>
     </row>
@@ -27781,14 +27784,14 @@
       <c r="K51" s="14">
         <v>6.8376068376068383E-2</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="18">
         <v>3.4188034188034191E-2</v>
       </c>
       <c r="M51" s="17">
         <v>0</v>
       </c>
-      <c r="N51" s="20">
-        <f>K51+L51</f>
+      <c r="N51" s="19">
+        <f t="shared" si="0"/>
         <v>0.10256410256410257</v>
       </c>
     </row>
@@ -27826,14 +27829,14 @@
       <c r="K52" s="14">
         <v>7.6246334310850442E-2</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="18">
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M52" s="17">
         <v>0</v>
       </c>
-      <c r="N52" s="20">
-        <f>K52+L52</f>
+      <c r="N52" s="19">
+        <f t="shared" si="0"/>
         <v>0.10850439882697947</v>
       </c>
     </row>
@@ -27871,14 +27874,14 @@
       <c r="K53" s="14">
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="18">
         <v>3.03030303030303E-2</v>
       </c>
       <c r="M53" s="17">
         <v>0</v>
       </c>
-      <c r="N53" s="20">
-        <f>K53+L53</f>
+      <c r="N53" s="19">
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -27916,14 +27919,14 @@
       <c r="K54" s="14">
         <v>9.8265895953757232E-2</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="18">
         <v>2.8901734104046239E-2</v>
       </c>
       <c r="M54" s="17">
         <v>0</v>
       </c>
-      <c r="N54" s="20">
-        <f>K54+L54</f>
+      <c r="N54" s="19">
+        <f t="shared" si="0"/>
         <v>0.12716763005780346</v>
       </c>
     </row>
@@ -27961,14 +27964,14 @@
       <c r="K55" s="14">
         <v>0.1254901960784314</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="18">
         <v>2.7450980392156859E-2</v>
       </c>
       <c r="M55" s="17">
         <v>0</v>
       </c>
-      <c r="N55" s="20">
-        <f>K55+L55</f>
+      <c r="N55" s="19">
+        <f t="shared" si="0"/>
         <v>0.15294117647058825</v>
       </c>
     </row>
@@ -28006,14 +28009,14 @@
       <c r="K56" s="14">
         <v>0.26027397260273971</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L56" s="18">
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="M56" s="17">
         <v>0</v>
       </c>
-      <c r="N56" s="20">
-        <f>K56+L56</f>
+      <c r="N56" s="19">
+        <f t="shared" si="0"/>
         <v>0.28767123287671231</v>
       </c>
     </row>
@@ -28051,14 +28054,14 @@
       <c r="K57" s="14">
         <v>0.72972972972972971</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="18">
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="M57" s="17">
         <v>0</v>
       </c>
-      <c r="N57" s="20">
-        <f>K57+L57</f>
+      <c r="N57" s="19">
+        <f t="shared" si="0"/>
         <v>0.7567567567567568</v>
       </c>
     </row>
@@ -28096,14 +28099,14 @@
       <c r="K58" s="14">
         <v>9.3360995850622408E-2</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L58" s="18">
         <v>2.6970954356846471E-2</v>
       </c>
       <c r="M58" s="17">
         <v>0</v>
       </c>
-      <c r="N58" s="20">
-        <f>K58+L58</f>
+      <c r="N58" s="19">
+        <f t="shared" si="0"/>
         <v>0.12033195020746888</v>
       </c>
     </row>
@@ -28141,14 +28144,14 @@
       <c r="K59" s="14">
         <v>0.2098765432098765</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="18">
         <v>2.645502645502645E-2</v>
       </c>
       <c r="M59" s="17">
         <v>0</v>
       </c>
-      <c r="N59" s="20">
-        <f>K59+L59</f>
+      <c r="N59" s="19">
+        <f t="shared" si="0"/>
         <v>0.23633156966490296</v>
       </c>
     </row>
@@ -28186,14 +28189,14 @@
       <c r="K60" s="14">
         <v>0.13157894736842099</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="18">
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="M60" s="17">
         <v>0</v>
       </c>
-      <c r="N60" s="20">
-        <f>K60+L60</f>
+      <c r="N60" s="19">
+        <f t="shared" si="0"/>
         <v>0.1578947368421052</v>
       </c>
     </row>
@@ -28231,14 +28234,14 @@
       <c r="K61" s="14">
         <v>0.39001848428835489</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L61" s="18">
         <v>2.5878003696857669E-2</v>
       </c>
       <c r="M61" s="17">
         <v>0</v>
       </c>
-      <c r="N61" s="20">
-        <f>K61+L61</f>
+      <c r="N61" s="19">
+        <f t="shared" si="0"/>
         <v>0.41589648798521256</v>
       </c>
     </row>
@@ -28276,14 +28279,14 @@
       <c r="K62" s="14">
         <v>0.47096774193548391</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L62" s="18">
         <v>2.5806451612903229E-2</v>
       </c>
       <c r="M62" s="17">
         <v>0</v>
       </c>
-      <c r="N62" s="20">
-        <f>K62+L62</f>
+      <c r="N62" s="19">
+        <f t="shared" si="0"/>
         <v>0.49677419354838714</v>
       </c>
     </row>
@@ -28321,14 +28324,14 @@
       <c r="K63" s="14">
         <v>0.15384615384615391</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L63" s="18">
         <v>2.564102564102564E-2</v>
       </c>
       <c r="M63" s="17">
         <v>0</v>
       </c>
-      <c r="N63" s="20">
-        <f>K63+L63</f>
+      <c r="N63" s="19">
+        <f t="shared" si="0"/>
         <v>0.17948717948717954</v>
       </c>
     </row>
@@ -28366,14 +28369,14 @@
       <c r="K64" s="14">
         <v>0.6097560975609756</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L64" s="18">
         <v>2.4390243902439029E-2</v>
       </c>
       <c r="M64" s="17">
         <v>0</v>
       </c>
-      <c r="N64" s="20">
-        <f>K64+L64</f>
+      <c r="N64" s="19">
+        <f t="shared" si="0"/>
         <v>0.63414634146341464</v>
       </c>
     </row>
@@ -28411,14 +28414,14 @@
       <c r="K65" s="14">
         <v>0.14803625377643501</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L65" s="18">
         <v>2.4169184290030211E-2</v>
       </c>
       <c r="M65" s="17">
         <v>0</v>
       </c>
-      <c r="N65" s="20">
-        <f>K65+L65</f>
+      <c r="N65" s="19">
+        <f t="shared" si="0"/>
         <v>0.17220543806646521</v>
       </c>
     </row>
@@ -28456,14 +28459,14 @@
       <c r="K66" s="14">
         <v>0.38121546961325969</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L66" s="18">
         <v>2.3941068139963169E-2</v>
       </c>
       <c r="M66" s="17">
         <v>0</v>
       </c>
-      <c r="N66" s="20">
-        <f>K66+L66</f>
+      <c r="N66" s="19">
+        <f t="shared" ref="N66:N129" si="1">K66+L66</f>
         <v>0.40515653775322286</v>
       </c>
     </row>
@@ -28501,14 +28504,14 @@
       <c r="K67" s="14">
         <v>0.35119047619047622</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L67" s="18">
         <v>2.3809523809523812E-2</v>
       </c>
       <c r="M67" s="17">
         <v>0</v>
       </c>
-      <c r="N67" s="20">
-        <f>K67+L67</f>
+      <c r="N67" s="19">
+        <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
     </row>
@@ -28546,14 +28549,14 @@
       <c r="K68" s="14">
         <v>0.17084639498432599</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L68" s="18">
         <v>2.3510971786833861E-2</v>
       </c>
       <c r="M68" s="17">
         <v>0</v>
       </c>
-      <c r="N68" s="20">
-        <f>K68+L68</f>
+      <c r="N68" s="19">
+        <f t="shared" si="1"/>
         <v>0.19435736677115986</v>
       </c>
     </row>
@@ -28591,14 +28594,14 @@
       <c r="K69" s="14">
         <v>4.3321299638989168E-2</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="18">
         <v>2.166064981949458E-2</v>
       </c>
       <c r="M69" s="17">
         <v>0</v>
       </c>
-      <c r="N69" s="20">
-        <f>K69+L69</f>
+      <c r="N69" s="19">
+        <f t="shared" si="1"/>
         <v>6.4981949458483748E-2</v>
       </c>
     </row>
@@ -28636,14 +28639,14 @@
       <c r="K70" s="14">
         <v>0.1702127659574468</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L70" s="18">
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="M70" s="17">
         <v>0</v>
       </c>
-      <c r="N70" s="20">
-        <f>K70+L70</f>
+      <c r="N70" s="19">
+        <f t="shared" si="1"/>
         <v>0.19148936170212766</v>
       </c>
     </row>
@@ -28681,14 +28684,14 @@
       <c r="K71" s="14">
         <v>0.28865979381443302</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L71" s="18">
         <v>2.0618556701030931E-2</v>
       </c>
       <c r="M71" s="17">
         <v>0</v>
       </c>
-      <c r="N71" s="20">
-        <f>K71+L71</f>
+      <c r="N71" s="19">
+        <f t="shared" si="1"/>
         <v>0.30927835051546393</v>
       </c>
     </row>
@@ -28726,14 +28729,14 @@
       <c r="K72" s="14">
         <v>6.2670299727520432E-2</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L72" s="18">
         <v>1.9073569482288829E-2</v>
       </c>
       <c r="M72" s="17">
         <v>0</v>
       </c>
-      <c r="N72" s="20">
-        <f>K72+L72</f>
+      <c r="N72" s="19">
+        <f t="shared" si="1"/>
         <v>8.1743869209809264E-2</v>
       </c>
     </row>
@@ -28771,14 +28774,14 @@
       <c r="K73" s="14">
         <v>0.4064327485380117</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L73" s="18">
         <v>1.900584795321637E-2</v>
       </c>
       <c r="M73" s="17">
         <v>0</v>
       </c>
-      <c r="N73" s="20">
-        <f>K73+L73</f>
+      <c r="N73" s="19">
+        <f t="shared" si="1"/>
         <v>0.42543859649122806</v>
       </c>
     </row>
@@ -28816,14 +28819,14 @@
       <c r="K74" s="14">
         <v>8.4112149532710276E-2</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="18">
         <v>1.8691588785046731E-2</v>
       </c>
       <c r="M74" s="17">
         <v>0</v>
       </c>
-      <c r="N74" s="20">
-        <f>K74+L74</f>
+      <c r="N74" s="19">
+        <f t="shared" si="1"/>
         <v>0.10280373831775701</v>
       </c>
     </row>
@@ -28861,14 +28864,14 @@
       <c r="K75" s="14">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="18">
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="M75" s="17">
         <v>0</v>
       </c>
-      <c r="N75" s="20">
-        <f>K75+L75</f>
+      <c r="N75" s="19">
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -28906,14 +28909,14 @@
       <c r="K76" s="14">
         <v>0.1463963963963964</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="18">
         <v>1.8018018018018021E-2</v>
       </c>
       <c r="M76" s="17">
         <v>0</v>
       </c>
-      <c r="N76" s="20">
-        <f>K76+L76</f>
+      <c r="N76" s="19">
+        <f t="shared" si="1"/>
         <v>0.16441441441441443</v>
       </c>
     </row>
@@ -28951,14 +28954,14 @@
       <c r="K77" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="18">
         <v>1.754385964912281E-2</v>
       </c>
       <c r="M77" s="17">
         <v>0</v>
       </c>
-      <c r="N77" s="20">
-        <f>K77+L77</f>
+      <c r="N77" s="19">
+        <f t="shared" si="1"/>
         <v>0.35087719298245612</v>
       </c>
     </row>
@@ -28996,14 +28999,14 @@
       <c r="K78" s="14">
         <v>7.0175438596491224E-2</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="18">
         <v>1.754385964912281E-2</v>
       </c>
       <c r="M78" s="17">
         <v>0</v>
       </c>
-      <c r="N78" s="20">
-        <f>K78+L78</f>
+      <c r="N78" s="19">
+        <f t="shared" si="1"/>
         <v>8.771929824561403E-2</v>
       </c>
     </row>
@@ -29041,14 +29044,14 @@
       <c r="K79" s="14">
         <v>0.32183908045977011</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="18">
         <v>1.7241379310344831E-2</v>
       </c>
       <c r="M79" s="17">
         <v>0</v>
       </c>
-      <c r="N79" s="20">
-        <f>K79+L79</f>
+      <c r="N79" s="19">
+        <f t="shared" si="1"/>
         <v>0.33908045977011492</v>
       </c>
     </row>
@@ -29086,14 +29089,14 @@
       <c r="K80" s="14">
         <v>0.15403422982885079</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="18">
         <v>1.7114914425427868E-2</v>
       </c>
       <c r="M80" s="17">
         <v>0</v>
       </c>
-      <c r="N80" s="20">
-        <f>K80+L80</f>
+      <c r="N80" s="19">
+        <f t="shared" si="1"/>
         <v>0.17114914425427866</v>
       </c>
     </row>
@@ -29117,7 +29120,7 @@
         <v>310</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H81" s="7">
         <v>455</v>
@@ -29131,14 +29134,14 @@
       <c r="K81" s="14">
         <v>0.21758241758241759</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L81" s="18">
         <v>1.5384615384615391E-2</v>
       </c>
       <c r="M81" s="17">
         <v>0</v>
       </c>
-      <c r="N81" s="20">
-        <f>K81+L81</f>
+      <c r="N81" s="19">
+        <f t="shared" si="1"/>
         <v>0.23296703296703297</v>
       </c>
     </row>
@@ -29176,14 +29179,14 @@
       <c r="K82" s="14">
         <v>0.17692307692307691</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L82" s="18">
         <v>1.5384615384615391E-2</v>
       </c>
       <c r="M82" s="17">
         <v>0</v>
       </c>
-      <c r="N82" s="20">
-        <f>K82+L82</f>
+      <c r="N82" s="19">
+        <f t="shared" si="1"/>
         <v>0.19230769230769229</v>
       </c>
     </row>
@@ -29207,7 +29210,7 @@
         <v>311</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H83" s="7">
         <v>199</v>
@@ -29221,14 +29224,14 @@
       <c r="K83" s="14">
         <v>2.0100502512562811E-2</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L83" s="18">
         <v>1.507537688442211E-2</v>
       </c>
       <c r="M83" s="17">
         <v>0</v>
       </c>
-      <c r="N83" s="20">
-        <f>K83+L83</f>
+      <c r="N83" s="19">
+        <f t="shared" si="1"/>
         <v>3.5175879396984924E-2</v>
       </c>
     </row>
@@ -29266,14 +29269,14 @@
       <c r="K84" s="14">
         <v>0.54285714285714282</v>
       </c>
-      <c r="L84" s="19">
+      <c r="L84" s="18">
         <v>1.428571428571429E-2</v>
       </c>
       <c r="M84" s="17">
         <v>0</v>
       </c>
-      <c r="N84" s="20">
-        <f>K84+L84</f>
+      <c r="N84" s="19">
+        <f t="shared" si="1"/>
         <v>0.55714285714285716</v>
       </c>
     </row>
@@ -29297,7 +29300,7 @@
         <v>314</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H85" s="7">
         <v>501</v>
@@ -29311,14 +29314,14 @@
       <c r="K85" s="14">
         <v>3.9920159680638723E-2</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L85" s="18">
         <v>1.3972055888223551E-2</v>
       </c>
       <c r="M85" s="17">
         <v>0</v>
       </c>
-      <c r="N85" s="20">
-        <f>K85+L85</f>
+      <c r="N85" s="19">
+        <f t="shared" si="1"/>
         <v>5.389221556886227E-2</v>
       </c>
     </row>
@@ -29356,14 +29359,14 @@
       <c r="K86" s="14">
         <v>0.11234177215189869</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L86" s="18">
         <v>1.3449367088607601E-2</v>
       </c>
       <c r="M86" s="17">
         <v>0</v>
       </c>
-      <c r="N86" s="20">
-        <f>K86+L86</f>
+      <c r="N86" s="19">
+        <f t="shared" si="1"/>
         <v>0.12579113924050631</v>
       </c>
     </row>
@@ -29401,14 +29404,14 @@
       <c r="K87" s="14">
         <v>0.53246753246753242</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="18">
         <v>1.298701298701299E-2</v>
       </c>
       <c r="M87" s="17">
         <v>0</v>
       </c>
-      <c r="N87" s="20">
-        <f>K87+L87</f>
+      <c r="N87" s="19">
+        <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
@@ -29446,14 +29449,14 @@
       <c r="K88" s="14">
         <v>0.28205128205128199</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L88" s="18">
         <v>1.282051282051282E-2</v>
       </c>
       <c r="M88" s="17">
         <v>0</v>
       </c>
-      <c r="N88" s="20">
-        <f>K88+L88</f>
+      <c r="N88" s="19">
+        <f t="shared" si="1"/>
         <v>0.29487179487179482</v>
       </c>
     </row>
@@ -29477,7 +29480,7 @@
         <v>313</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H89" s="7">
         <v>2016</v>
@@ -29491,14 +29494,14 @@
       <c r="K89" s="14">
         <v>0.40625</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L89" s="18">
         <v>1.240079365079365E-2</v>
       </c>
       <c r="M89" s="17">
         <v>0</v>
       </c>
-      <c r="N89" s="20">
-        <f>K89+L89</f>
+      <c r="N89" s="19">
+        <f t="shared" si="1"/>
         <v>0.41865079365079366</v>
       </c>
     </row>
@@ -29536,14 +29539,14 @@
       <c r="K90" s="14">
         <v>0.12654320987654319</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L90" s="18">
         <v>1.234567901234568E-2</v>
       </c>
       <c r="M90" s="17">
         <v>0</v>
       </c>
-      <c r="N90" s="20">
-        <f>K90+L90</f>
+      <c r="N90" s="19">
+        <f t="shared" si="1"/>
         <v>0.13888888888888887</v>
       </c>
     </row>
@@ -29567,7 +29570,7 @@
         <v>314</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H91" s="7">
         <v>249</v>
@@ -29581,14 +29584,14 @@
       <c r="K91" s="14">
         <v>0.26104417670682728</v>
       </c>
-      <c r="L91" s="19">
+      <c r="L91" s="18">
         <v>1.204819277108434E-2</v>
       </c>
       <c r="M91" s="17">
         <v>0</v>
       </c>
-      <c r="N91" s="20">
-        <f>K91+L91</f>
+      <c r="N91" s="19">
+        <f t="shared" si="1"/>
         <v>0.2730923694779116</v>
       </c>
     </row>
@@ -29626,14 +29629,14 @@
       <c r="K92" s="14">
         <v>0.46242774566473988</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L92" s="18">
         <v>1.15606936416185E-2</v>
       </c>
       <c r="M92" s="17">
         <v>0</v>
       </c>
-      <c r="N92" s="20">
-        <f>K92+L92</f>
+      <c r="N92" s="19">
+        <f t="shared" si="1"/>
         <v>0.47398843930635837</v>
       </c>
     </row>
@@ -29657,7 +29660,7 @@
         <v>314</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H93" s="7">
         <v>357</v>
@@ -29671,14 +29674,14 @@
       <c r="K93" s="14">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L93" s="18">
         <v>1.120448179271709E-2</v>
       </c>
       <c r="M93" s="17">
         <v>0</v>
       </c>
-      <c r="N93" s="20">
-        <f>K93+L93</f>
+      <c r="N93" s="19">
+        <f t="shared" si="1"/>
         <v>5.0420168067226892E-2</v>
       </c>
     </row>
@@ -29716,14 +29719,14 @@
       <c r="K94" s="14">
         <v>0.30043859649122812</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="18">
         <v>1.096491228070175E-2</v>
       </c>
       <c r="M94" s="17">
         <v>0</v>
       </c>
-      <c r="N94" s="20">
-        <f>K94+L94</f>
+      <c r="N94" s="19">
+        <f t="shared" si="1"/>
         <v>0.31140350877192985</v>
       </c>
     </row>
@@ -29747,7 +29750,7 @@
         <v>314</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H95" s="7">
         <v>929</v>
@@ -29761,14 +29764,14 @@
       <c r="K95" s="14">
         <v>3.3369214208826693E-2</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="18">
         <v>1.076426264800861E-2</v>
       </c>
       <c r="M95" s="17">
         <v>0</v>
       </c>
-      <c r="N95" s="20">
-        <f>K95+L95</f>
+      <c r="N95" s="19">
+        <f t="shared" si="1"/>
         <v>4.4133476856835302E-2</v>
       </c>
     </row>
@@ -29806,14 +29809,14 @@
       <c r="K96" s="14">
         <v>0.46808510638297868</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="18">
         <v>1.063829787234043E-2</v>
       </c>
       <c r="M96" s="17">
         <v>0</v>
       </c>
-      <c r="N96" s="20">
-        <f>K96+L96</f>
+      <c r="N96" s="19">
+        <f t="shared" si="1"/>
         <v>0.47872340425531912</v>
       </c>
     </row>
@@ -29851,14 +29854,14 @@
       <c r="K97" s="14">
         <v>0.37692307692307692</v>
       </c>
-      <c r="L97" s="19">
+      <c r="L97" s="18">
         <v>1.0576923076923079E-2</v>
       </c>
       <c r="M97" s="17">
         <v>0</v>
       </c>
-      <c r="N97" s="20">
-        <f>K97+L97</f>
+      <c r="N97" s="19">
+        <f t="shared" si="1"/>
         <v>0.38750000000000001</v>
       </c>
     </row>
@@ -29896,14 +29899,14 @@
       <c r="K98" s="14">
         <v>0.12631578947368419</v>
       </c>
-      <c r="L98" s="19">
+      <c r="L98" s="18">
         <v>1.0526315789473681E-2</v>
       </c>
       <c r="M98" s="17">
         <v>0</v>
       </c>
-      <c r="N98" s="20">
-        <f>K98+L98</f>
+      <c r="N98" s="19">
+        <f t="shared" si="1"/>
         <v>0.13684210526315788</v>
       </c>
     </row>
@@ -29941,14 +29944,14 @@
       <c r="K99" s="14">
         <v>0.31578947368421051</v>
       </c>
-      <c r="L99" s="19">
+      <c r="L99" s="18">
         <v>1.0526315789473681E-2</v>
       </c>
       <c r="M99" s="17">
         <v>0</v>
       </c>
-      <c r="N99" s="20">
-        <f>K99+L99</f>
+      <c r="N99" s="19">
+        <f t="shared" si="1"/>
         <v>0.32631578947368417</v>
       </c>
     </row>
@@ -29986,14 +29989,14 @@
       <c r="K100" s="14">
         <v>0.14375655823714589</v>
       </c>
-      <c r="L100" s="19">
+      <c r="L100" s="18">
         <v>1.049317943336831E-2</v>
       </c>
       <c r="M100" s="17">
         <v>0</v>
       </c>
-      <c r="N100" s="20">
-        <f>K100+L100</f>
+      <c r="N100" s="19">
+        <f t="shared" si="1"/>
         <v>0.1542497376705142</v>
       </c>
     </row>
@@ -30031,14 +30034,14 @@
       <c r="K101" s="14">
         <v>0.4854368932038835</v>
       </c>
-      <c r="L101" s="19">
+      <c r="L101" s="18">
         <v>9.7087378640776691E-3</v>
       </c>
       <c r="M101" s="17">
         <v>0</v>
       </c>
-      <c r="N101" s="20">
-        <f>K101+L101</f>
+      <c r="N101" s="19">
+        <f t="shared" si="1"/>
         <v>0.49514563106796117</v>
       </c>
     </row>
@@ -30062,7 +30065,7 @@
         <v>313</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H102" s="7">
         <v>529</v>
@@ -30076,14 +30079,14 @@
       <c r="K102" s="14">
         <v>0.3988657844990548</v>
       </c>
-      <c r="L102" s="19">
+      <c r="L102" s="18">
         <v>9.4517958412098299E-3</v>
       </c>
       <c r="M102" s="17">
         <v>0</v>
       </c>
-      <c r="N102" s="20">
-        <f>K102+L102</f>
+      <c r="N102" s="19">
+        <f t="shared" si="1"/>
         <v>0.40831758034026461</v>
       </c>
     </row>
@@ -30121,14 +30124,14 @@
       <c r="K103" s="14">
         <v>0.1179635761589404</v>
       </c>
-      <c r="L103" s="19">
+      <c r="L103" s="18">
         <v>9.1059602649006619E-3</v>
       </c>
       <c r="M103" s="17">
         <v>0</v>
       </c>
-      <c r="N103" s="20">
-        <f>K103+L103</f>
+      <c r="N103" s="19">
+        <f t="shared" si="1"/>
         <v>0.12706953642384106</v>
       </c>
     </row>
@@ -30152,7 +30155,7 @@
         <v>314</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H104" s="7">
         <v>113</v>
@@ -30166,14 +30169,14 @@
       <c r="K104" s="14">
         <v>0.22123893805309741</v>
       </c>
-      <c r="L104" s="19">
+      <c r="L104" s="18">
         <v>8.8495575221238937E-3</v>
       </c>
       <c r="M104" s="17">
         <v>0</v>
       </c>
-      <c r="N104" s="20">
-        <f>K104+L104</f>
+      <c r="N104" s="19">
+        <f t="shared" si="1"/>
         <v>0.23008849557522132</v>
       </c>
     </row>
@@ -30211,14 +30214,14 @@
       <c r="K105" s="14">
         <v>0.1687370600414079</v>
       </c>
-      <c r="L105" s="19">
+      <c r="L105" s="18">
         <v>8.2815734989648039E-3</v>
       </c>
       <c r="M105" s="17">
         <v>0</v>
       </c>
-      <c r="N105" s="20">
-        <f>K105+L105</f>
+      <c r="N105" s="19">
+        <f t="shared" si="1"/>
         <v>0.1770186335403727</v>
       </c>
     </row>
@@ -30256,14 +30259,14 @@
       <c r="K106" s="14">
         <v>0.2098765432098765</v>
       </c>
-      <c r="L106" s="19">
+      <c r="L106" s="18">
         <v>8.23045267489712E-3</v>
       </c>
       <c r="M106" s="17">
         <v>0</v>
       </c>
-      <c r="N106" s="20">
-        <f>K106+L106</f>
+      <c r="N106" s="19">
+        <f t="shared" si="1"/>
         <v>0.21810699588477361</v>
       </c>
     </row>
@@ -30301,14 +30304,14 @@
       <c r="K107" s="14">
         <v>0.14516129032258071</v>
       </c>
-      <c r="L107" s="19">
+      <c r="L107" s="18">
         <v>8.0645161290322578E-3</v>
       </c>
       <c r="M107" s="17">
         <v>0</v>
       </c>
-      <c r="N107" s="20">
-        <f>K107+L107</f>
+      <c r="N107" s="19">
+        <f t="shared" si="1"/>
         <v>0.15322580645161296</v>
       </c>
     </row>
@@ -30346,14 +30349,14 @@
       <c r="K108" s="14">
         <v>0.1036036036036036</v>
       </c>
-      <c r="L108" s="19">
+      <c r="L108" s="18">
         <v>8.0080080080080079E-3</v>
       </c>
       <c r="M108" s="17">
         <v>0</v>
       </c>
-      <c r="N108" s="20">
-        <f>K108+L108</f>
+      <c r="N108" s="19">
+        <f t="shared" si="1"/>
         <v>0.11161161161161161</v>
       </c>
     </row>
@@ -30377,7 +30380,7 @@
         <v>313</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H109" s="7">
         <v>1128</v>
@@ -30391,14 +30394,14 @@
       <c r="K109" s="14">
         <v>0.33244680851063829</v>
       </c>
-      <c r="L109" s="19">
+      <c r="L109" s="18">
         <v>7.9787234042553185E-3</v>
       </c>
       <c r="M109" s="17">
         <v>0</v>
       </c>
-      <c r="N109" s="20">
-        <f>K109+L109</f>
+      <c r="N109" s="19">
+        <f t="shared" si="1"/>
         <v>0.34042553191489361</v>
       </c>
     </row>
@@ -30422,7 +30425,7 @@
         <v>311</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H110" s="7">
         <v>129</v>
@@ -30436,14 +30439,14 @@
       <c r="K110" s="14">
         <v>0.1705426356589147</v>
       </c>
-      <c r="L110" s="19">
+      <c r="L110" s="18">
         <v>7.7519379844961239E-3</v>
       </c>
       <c r="M110" s="17">
         <v>0</v>
       </c>
-      <c r="N110" s="20">
-        <f>K110+L110</f>
+      <c r="N110" s="19">
+        <f t="shared" si="1"/>
         <v>0.17829457364341084</v>
       </c>
     </row>
@@ -30481,14 +30484,14 @@
       <c r="K111" s="14">
         <v>0.2055137844611529</v>
       </c>
-      <c r="L111" s="19">
+      <c r="L111" s="18">
         <v>7.5187969924812026E-3</v>
       </c>
       <c r="M111" s="17">
         <v>0</v>
       </c>
-      <c r="N111" s="20">
-        <f>K111+L111</f>
+      <c r="N111" s="19">
+        <f t="shared" si="1"/>
         <v>0.2130325814536341</v>
       </c>
     </row>
@@ -30512,7 +30515,7 @@
         <v>313</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H112" s="7">
         <v>399</v>
@@ -30526,14 +30529,14 @@
       <c r="K112" s="14">
         <v>7.2681704260651625E-2</v>
       </c>
-      <c r="L112" s="19">
+      <c r="L112" s="18">
         <v>7.5187969924812026E-3</v>
       </c>
       <c r="M112" s="17">
         <v>0</v>
       </c>
-      <c r="N112" s="20">
-        <f>K112+L112</f>
+      <c r="N112" s="19">
+        <f t="shared" si="1"/>
         <v>8.0200501253132828E-2</v>
       </c>
     </row>
@@ -30557,7 +30560,7 @@
         <v>314</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H113" s="7">
         <v>537</v>
@@ -30571,14 +30574,14 @@
       <c r="K113" s="14">
         <v>4.6554934823091247E-2</v>
       </c>
-      <c r="L113" s="19">
+      <c r="L113" s="18">
         <v>7.4487895716945996E-3</v>
       </c>
       <c r="M113" s="17">
         <v>0</v>
       </c>
-      <c r="N113" s="20">
-        <f>K113+L113</f>
+      <c r="N113" s="19">
+        <f t="shared" si="1"/>
         <v>5.4003724394785846E-2</v>
       </c>
     </row>
@@ -30602,7 +30605,7 @@
         <v>314</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H114" s="7">
         <v>407</v>
@@ -30616,14 +30619,14 @@
       <c r="K114" s="14">
         <v>1.4742014742014741E-2</v>
       </c>
-      <c r="L114" s="19">
+      <c r="L114" s="18">
         <v>7.3710073710073713E-3</v>
       </c>
       <c r="M114" s="17">
         <v>0</v>
       </c>
-      <c r="N114" s="20">
-        <f>K114+L114</f>
+      <c r="N114" s="19">
+        <f t="shared" si="1"/>
         <v>2.2113022113022112E-2</v>
       </c>
     </row>
@@ -30661,14 +30664,14 @@
       <c r="K115" s="14">
         <v>0.8875305623471883</v>
       </c>
-      <c r="L115" s="19">
+      <c r="L115" s="18">
         <v>7.3349633251833741E-3</v>
       </c>
       <c r="M115" s="17">
         <v>0</v>
       </c>
-      <c r="N115" s="20">
-        <f>K115+L115</f>
+      <c r="N115" s="19">
+        <f t="shared" si="1"/>
         <v>0.89486552567237165</v>
       </c>
     </row>
@@ -30692,7 +30695,7 @@
         <v>313</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H116" s="7">
         <v>410</v>
@@ -30706,14 +30709,14 @@
       <c r="K116" s="14">
         <v>0.37073170731707322</v>
       </c>
-      <c r="L116" s="19">
+      <c r="L116" s="18">
         <v>7.3170731707317077E-3</v>
       </c>
       <c r="M116" s="17">
         <v>0</v>
       </c>
-      <c r="N116" s="20">
-        <f>K116+L116</f>
+      <c r="N116" s="19">
+        <f t="shared" si="1"/>
         <v>0.37804878048780494</v>
       </c>
     </row>
@@ -30751,14 +30754,14 @@
       <c r="K117" s="14">
         <v>0.31398963730569951</v>
       </c>
-      <c r="L117" s="19">
+      <c r="L117" s="18">
         <v>7.2538860103626944E-3</v>
       </c>
       <c r="M117" s="17">
         <v>0</v>
       </c>
-      <c r="N117" s="20">
-        <f>K117+L117</f>
+      <c r="N117" s="19">
+        <f t="shared" si="1"/>
         <v>0.32124352331606221</v>
       </c>
     </row>
@@ -30796,14 +30799,14 @@
       <c r="K118" s="14">
         <v>6.0422960725075532E-2</v>
       </c>
-      <c r="L118" s="19">
+      <c r="L118" s="18">
         <v>7.0493454179254783E-3</v>
       </c>
       <c r="M118" s="17">
         <v>0</v>
       </c>
-      <c r="N118" s="20">
-        <f>K118+L118</f>
+      <c r="N118" s="19">
+        <f t="shared" si="1"/>
         <v>6.747230614300101E-2</v>
       </c>
     </row>
@@ -30827,7 +30830,7 @@
         <v>311</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H119" s="7">
         <v>459</v>
@@ -30841,14 +30844,14 @@
       <c r="K119" s="14">
         <v>5.8823529411764712E-2</v>
       </c>
-      <c r="L119" s="19">
+      <c r="L119" s="18">
         <v>6.5359477124183009E-3</v>
       </c>
       <c r="M119" s="17">
         <v>0</v>
       </c>
-      <c r="N119" s="20">
-        <f>K119+L119</f>
+      <c r="N119" s="19">
+        <f t="shared" si="1"/>
         <v>6.535947712418301E-2</v>
       </c>
     </row>
@@ -30872,7 +30875,7 @@
         <v>314</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H120" s="7">
         <v>319</v>
@@ -30886,14 +30889,14 @@
       <c r="K120" s="14">
         <v>0.1128526645768025</v>
       </c>
-      <c r="L120" s="19">
+      <c r="L120" s="18">
         <v>6.269592476489028E-3</v>
       </c>
       <c r="M120" s="17">
         <v>0</v>
       </c>
-      <c r="N120" s="20">
-        <f>K120+L120</f>
+      <c r="N120" s="19">
+        <f t="shared" si="1"/>
         <v>0.11912225705329153</v>
       </c>
     </row>
@@ -30917,7 +30920,7 @@
         <v>314</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H121" s="7">
         <v>319</v>
@@ -30931,14 +30934,14 @@
       <c r="K121" s="14">
         <v>5.6426332288401257E-2</v>
       </c>
-      <c r="L121" s="19">
+      <c r="L121" s="18">
         <v>6.269592476489028E-3</v>
       </c>
       <c r="M121" s="17">
         <v>0</v>
       </c>
-      <c r="N121" s="20">
-        <f>K121+L121</f>
+      <c r="N121" s="19">
+        <f t="shared" si="1"/>
         <v>6.269592476489029E-2</v>
       </c>
     </row>
@@ -30962,7 +30965,7 @@
         <v>314</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H122" s="7">
         <v>962</v>
@@ -30976,14 +30979,14 @@
       <c r="K122" s="14">
         <v>3.7422037422037417E-2</v>
       </c>
-      <c r="L122" s="19">
+      <c r="L122" s="18">
         <v>6.2370062370062374E-3</v>
       </c>
       <c r="M122" s="17">
         <v>0</v>
       </c>
-      <c r="N122" s="20">
-        <f>K122+L122</f>
+      <c r="N122" s="19">
+        <f t="shared" si="1"/>
         <v>4.3659043659043655E-2</v>
       </c>
     </row>
@@ -31021,14 +31024,14 @@
       <c r="K123" s="14">
         <v>0.6198347107438017</v>
       </c>
-      <c r="L123" s="19">
+      <c r="L123" s="18">
         <v>6.1983471074380167E-3</v>
       </c>
       <c r="M123" s="17">
         <v>0</v>
       </c>
-      <c r="N123" s="20">
-        <f>K123+L123</f>
+      <c r="N123" s="19">
+        <f t="shared" si="1"/>
         <v>0.62603305785123975</v>
       </c>
     </row>
@@ -31066,14 +31069,14 @@
       <c r="K124" s="14">
         <v>0.49696969696969701</v>
       </c>
-      <c r="L124" s="19">
+      <c r="L124" s="18">
         <v>6.0606060606060606E-3</v>
       </c>
       <c r="M124" s="17">
         <v>0</v>
       </c>
-      <c r="N124" s="20">
-        <f>K124+L124</f>
+      <c r="N124" s="19">
+        <f t="shared" si="1"/>
         <v>0.50303030303030305</v>
       </c>
     </row>
@@ -31111,14 +31114,14 @@
       <c r="K125" s="14">
         <v>0.42979942693409739</v>
       </c>
-      <c r="L125" s="19">
+      <c r="L125" s="18">
         <v>5.7306590257879646E-3</v>
       </c>
       <c r="M125" s="17">
         <v>0</v>
       </c>
-      <c r="N125" s="20">
-        <f>K125+L125</f>
+      <c r="N125" s="19">
+        <f t="shared" si="1"/>
         <v>0.43553008595988535</v>
       </c>
     </row>
@@ -31142,7 +31145,7 @@
         <v>314</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H126" s="7">
         <v>358</v>
@@ -31156,14 +31159,14 @@
       <c r="K126" s="14">
         <v>4.189944134078212E-2</v>
       </c>
-      <c r="L126" s="19">
+      <c r="L126" s="18">
         <v>5.5865921787709499E-3</v>
       </c>
       <c r="M126" s="17">
         <v>0</v>
       </c>
-      <c r="N126" s="20">
-        <f>K126+L126</f>
+      <c r="N126" s="19">
+        <f t="shared" si="1"/>
         <v>4.7486033519553071E-2</v>
       </c>
     </row>
@@ -31187,7 +31190,7 @@
         <v>313</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H127" s="7">
         <v>726</v>
@@ -31201,14 +31204,14 @@
       <c r="K127" s="14">
         <v>0.1776859504132231</v>
       </c>
-      <c r="L127" s="19">
+      <c r="L127" s="18">
         <v>5.5096418732782371E-3</v>
       </c>
       <c r="M127" s="17">
         <v>0</v>
       </c>
-      <c r="N127" s="20">
-        <f>K127+L127</f>
+      <c r="N127" s="19">
+        <f t="shared" si="1"/>
         <v>0.18319559228650134</v>
       </c>
     </row>
@@ -31232,7 +31235,7 @@
         <v>310</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H128" s="7">
         <v>191</v>
@@ -31246,14 +31249,14 @@
       <c r="K128" s="14">
         <v>0.77486910994764402</v>
       </c>
-      <c r="L128" s="19">
+      <c r="L128" s="18">
         <v>5.235602094240838E-3</v>
       </c>
       <c r="M128" s="17">
         <v>0</v>
       </c>
-      <c r="N128" s="20">
-        <f>K128+L128</f>
+      <c r="N128" s="19">
+        <f t="shared" si="1"/>
         <v>0.78010471204188481</v>
       </c>
     </row>
@@ -31291,14 +31294,14 @@
       <c r="K129" s="14">
         <v>3.4045008655510682E-2</v>
       </c>
-      <c r="L129" s="19">
+      <c r="L129" s="18">
         <v>5.1933064050779E-3</v>
       </c>
       <c r="M129" s="17">
         <v>0</v>
       </c>
-      <c r="N129" s="20">
-        <f>K129+L129</f>
+      <c r="N129" s="19">
+        <f t="shared" si="1"/>
         <v>3.9238315060588586E-2</v>
       </c>
     </row>
@@ -31336,14 +31339,14 @@
       <c r="K130" s="14">
         <v>9.7435897435897437E-2</v>
       </c>
-      <c r="L130" s="19">
+      <c r="L130" s="18">
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="M130" s="17">
         <v>0</v>
       </c>
-      <c r="N130" s="20">
-        <f>K130+L130</f>
+      <c r="N130" s="19">
+        <f t="shared" ref="N130:N193" si="2">K130+L130</f>
         <v>0.10256410256410256</v>
       </c>
     </row>
@@ -31367,7 +31370,7 @@
         <v>314</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H131" s="7">
         <v>800</v>
@@ -31381,14 +31384,14 @@
       <c r="K131" s="14">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="L131" s="19">
+      <c r="L131" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M131" s="17">
         <v>0</v>
       </c>
-      <c r="N131" s="20">
-        <f>K131+L131</f>
+      <c r="N131" s="19">
+        <f t="shared" si="2"/>
         <v>2.375E-2</v>
       </c>
     </row>
@@ -31412,7 +31415,7 @@
         <v>314</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H132" s="7">
         <v>3220</v>
@@ -31426,14 +31429,14 @@
       <c r="K132" s="14">
         <v>1.055900621118012E-2</v>
       </c>
-      <c r="L132" s="19">
+      <c r="L132" s="18">
         <v>4.9689440993788822E-3</v>
       </c>
       <c r="M132" s="17">
         <v>0</v>
       </c>
-      <c r="N132" s="20">
-        <f>K132+L132</f>
+      <c r="N132" s="19">
+        <f t="shared" si="2"/>
         <v>1.5527950310559001E-2</v>
       </c>
     </row>
@@ -31457,7 +31460,7 @@
         <v>314</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H133" s="7">
         <v>203</v>
@@ -31471,14 +31474,14 @@
       <c r="K133" s="14">
         <v>0.28078817733990152</v>
       </c>
-      <c r="L133" s="19">
+      <c r="L133" s="18">
         <v>4.9261083743842374E-3</v>
       </c>
       <c r="M133" s="17">
         <v>0</v>
       </c>
-      <c r="N133" s="20">
-        <f>K133+L133</f>
+      <c r="N133" s="19">
+        <f t="shared" si="2"/>
         <v>0.28571428571428575</v>
       </c>
     </row>
@@ -31502,7 +31505,7 @@
         <v>314</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H134" s="7">
         <v>206</v>
@@ -31516,14 +31519,14 @@
       <c r="K134" s="14">
         <v>3.3980582524271843E-2</v>
       </c>
-      <c r="L134" s="19">
+      <c r="L134" s="18">
         <v>4.8543689320388354E-3</v>
       </c>
       <c r="M134" s="17">
         <v>0</v>
       </c>
-      <c r="N134" s="20">
-        <f>K134+L134</f>
+      <c r="N134" s="19">
+        <f t="shared" si="2"/>
         <v>3.8834951456310676E-2</v>
       </c>
     </row>
@@ -31547,7 +31550,7 @@
         <v>313</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H135" s="7">
         <v>213</v>
@@ -31561,14 +31564,14 @@
       <c r="K135" s="14">
         <v>0.31924882629107981</v>
       </c>
-      <c r="L135" s="19">
+      <c r="L135" s="18">
         <v>4.6948356807511738E-3</v>
       </c>
       <c r="M135" s="17">
         <v>0</v>
       </c>
-      <c r="N135" s="20">
-        <f>K135+L135</f>
+      <c r="N135" s="19">
+        <f t="shared" si="2"/>
         <v>0.323943661971831</v>
       </c>
     </row>
@@ -31606,14 +31609,14 @@
       <c r="K136" s="14">
         <v>7.2261072261072257E-2</v>
       </c>
-      <c r="L136" s="19">
+      <c r="L136" s="18">
         <v>4.662004662004662E-3</v>
       </c>
       <c r="M136" s="17">
         <v>0</v>
       </c>
-      <c r="N136" s="20">
-        <f>K136+L136</f>
+      <c r="N136" s="19">
+        <f t="shared" si="2"/>
         <v>7.6923076923076913E-2</v>
       </c>
     </row>
@@ -31651,14 +31654,14 @@
       <c r="K137" s="14">
         <v>0.2350299401197605</v>
       </c>
-      <c r="L137" s="19">
+      <c r="L137" s="18">
         <v>4.4910179640718561E-3</v>
       </c>
       <c r="M137" s="17">
         <v>0</v>
       </c>
-      <c r="N137" s="20">
-        <f>K137+L137</f>
+      <c r="N137" s="19">
+        <f t="shared" si="2"/>
         <v>0.23952095808383236</v>
       </c>
     </row>
@@ -31682,7 +31685,7 @@
         <v>311</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H138" s="7">
         <v>240</v>
@@ -31696,14 +31699,14 @@
       <c r="K138" s="14">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="L138" s="19">
+      <c r="L138" s="18">
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M138" s="17">
         <v>0</v>
       </c>
-      <c r="N138" s="20">
-        <f>K138+L138</f>
+      <c r="N138" s="19">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -31741,14 +31744,14 @@
       <c r="K139" s="14">
         <v>0.51356907894736847</v>
       </c>
-      <c r="L139" s="19">
+      <c r="L139" s="18">
         <v>4.1118421052631577E-3</v>
       </c>
       <c r="M139" s="17">
         <v>0</v>
       </c>
-      <c r="N139" s="20">
-        <f>K139+L139</f>
+      <c r="N139" s="19">
+        <f t="shared" si="2"/>
         <v>0.51768092105263164</v>
       </c>
     </row>
@@ -31786,14 +31789,14 @@
       <c r="K140" s="14">
         <v>0.37084548104956272</v>
       </c>
-      <c r="L140" s="19">
+      <c r="L140" s="18">
         <v>4.0816326530612249E-3</v>
       </c>
       <c r="M140" s="17">
         <v>0</v>
       </c>
-      <c r="N140" s="20">
-        <f>K140+L140</f>
+      <c r="N140" s="19">
+        <f t="shared" si="2"/>
         <v>0.37492711370262394</v>
       </c>
     </row>
@@ -31817,7 +31820,7 @@
         <v>314</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H141" s="7">
         <v>985</v>
@@ -31831,14 +31834,14 @@
       <c r="K141" s="14">
         <v>6.1928934010152287E-2</v>
       </c>
-      <c r="L141" s="19">
+      <c r="L141" s="18">
         <v>4.0609137055837574E-3</v>
       </c>
       <c r="M141" s="17">
         <v>0</v>
       </c>
-      <c r="N141" s="20">
-        <f>K141+L141</f>
+      <c r="N141" s="19">
+        <f t="shared" si="2"/>
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
@@ -31862,7 +31865,7 @@
         <v>312</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H142" s="7">
         <v>261</v>
@@ -31876,14 +31879,14 @@
       <c r="K142" s="14">
         <v>0.83524904214559392</v>
       </c>
-      <c r="L142" s="19">
+      <c r="L142" s="18">
         <v>3.831417624521073E-3</v>
       </c>
       <c r="M142" s="17">
         <v>0</v>
       </c>
-      <c r="N142" s="20">
-        <f>K142+L142</f>
+      <c r="N142" s="19">
+        <f t="shared" si="2"/>
         <v>0.83908045977011503</v>
       </c>
     </row>
@@ -31921,14 +31924,14 @@
       <c r="K143" s="14">
         <v>0.23529411764705879</v>
       </c>
-      <c r="L143" s="19">
+      <c r="L143" s="18">
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="M143" s="17">
         <v>0</v>
       </c>
-      <c r="N143" s="20">
-        <f>K143+L143</f>
+      <c r="N143" s="19">
+        <f t="shared" si="2"/>
         <v>0.23897058823529407</v>
       </c>
     </row>
@@ -31966,14 +31969,14 @@
       <c r="K144" s="14">
         <v>0.40054995417048578</v>
       </c>
-      <c r="L144" s="19">
+      <c r="L144" s="18">
         <v>3.666361136571952E-3</v>
       </c>
       <c r="M144" s="17">
         <v>0</v>
       </c>
-      <c r="N144" s="20">
-        <f>K144+L144</f>
+      <c r="N144" s="19">
+        <f t="shared" si="2"/>
         <v>0.40421631530705771</v>
       </c>
     </row>
@@ -31997,7 +32000,7 @@
         <v>314</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H145" s="7">
         <v>1396</v>
@@ -32011,14 +32014,14 @@
       <c r="K145" s="14">
         <v>4.2979942693409739E-2</v>
       </c>
-      <c r="L145" s="19">
+      <c r="L145" s="18">
         <v>3.5816618911174792E-3</v>
       </c>
       <c r="M145" s="17">
         <v>0</v>
       </c>
-      <c r="N145" s="20">
-        <f>K145+L145</f>
+      <c r="N145" s="19">
+        <f t="shared" si="2"/>
         <v>4.6561604584527218E-2</v>
       </c>
     </row>
@@ -32056,14 +32059,14 @@
       <c r="K146" s="14">
         <v>0.54391891891891897</v>
       </c>
-      <c r="L146" s="19">
+      <c r="L146" s="18">
         <v>3.378378378378379E-3</v>
       </c>
       <c r="M146" s="17">
         <v>0</v>
       </c>
-      <c r="N146" s="20">
-        <f>K146+L146</f>
+      <c r="N146" s="19">
+        <f t="shared" si="2"/>
         <v>0.54729729729729737</v>
       </c>
     </row>
@@ -32101,14 +32104,14 @@
       <c r="K147" s="14">
         <v>0.62251655629139069</v>
       </c>
-      <c r="L147" s="19">
+      <c r="L147" s="18">
         <v>3.3112582781456949E-3</v>
       </c>
       <c r="M147" s="17">
         <v>0</v>
       </c>
-      <c r="N147" s="20">
-        <f>K147+L147</f>
+      <c r="N147" s="19">
+        <f t="shared" si="2"/>
         <v>0.6258278145695364</v>
       </c>
     </row>
@@ -32132,7 +32135,7 @@
         <v>313</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H148" s="7">
         <v>309</v>
@@ -32146,14 +32149,14 @@
       <c r="K148" s="14">
         <v>0.26860841423948217</v>
       </c>
-      <c r="L148" s="19">
+      <c r="L148" s="18">
         <v>3.2362459546925568E-3</v>
       </c>
       <c r="M148" s="17">
         <v>0</v>
       </c>
-      <c r="N148" s="20">
-        <f>K148+L148</f>
+      <c r="N148" s="19">
+        <f t="shared" si="2"/>
         <v>0.27184466019417475</v>
       </c>
     </row>
@@ -32191,14 +32194,14 @@
       <c r="K149" s="14">
         <v>5.520452278017958E-2</v>
       </c>
-      <c r="L149" s="19">
+      <c r="L149" s="18">
         <v>2.9930162953109409E-3</v>
       </c>
       <c r="M149" s="17">
         <v>0</v>
       </c>
-      <c r="N149" s="20">
-        <f>K149+L149</f>
+      <c r="N149" s="19">
+        <f t="shared" si="2"/>
         <v>5.8197539075490523E-2</v>
       </c>
     </row>
@@ -32222,7 +32225,7 @@
         <v>314</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H150" s="7">
         <v>339</v>
@@ -32236,14 +32239,14 @@
       <c r="K150" s="14">
         <v>0.2005899705014749</v>
       </c>
-      <c r="L150" s="19">
+      <c r="L150" s="18">
         <v>2.9498525073746308E-3</v>
       </c>
       <c r="M150" s="17">
         <v>0</v>
       </c>
-      <c r="N150" s="20">
-        <f>K150+L150</f>
+      <c r="N150" s="19">
+        <f t="shared" si="2"/>
         <v>0.20353982300884951</v>
       </c>
     </row>
@@ -32267,7 +32270,7 @@
         <v>314</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H151" s="7">
         <v>347</v>
@@ -32281,14 +32284,14 @@
       <c r="K151" s="14">
         <v>0.13832853025936601</v>
       </c>
-      <c r="L151" s="19">
+      <c r="L151" s="18">
         <v>2.881844380403458E-3</v>
       </c>
       <c r="M151" s="17">
         <v>0</v>
       </c>
-      <c r="N151" s="20">
-        <f>K151+L151</f>
+      <c r="N151" s="19">
+        <f t="shared" si="2"/>
         <v>0.14121037463976946</v>
       </c>
     </row>
@@ -32326,14 +32329,14 @@
       <c r="K152" s="14">
         <v>0.13583441138421731</v>
       </c>
-      <c r="L152" s="19">
+      <c r="L152" s="18">
         <v>2.5873221216041399E-3</v>
       </c>
       <c r="M152" s="17">
         <v>0</v>
       </c>
-      <c r="N152" s="20">
-        <f>K152+L152</f>
+      <c r="N152" s="19">
+        <f t="shared" si="2"/>
         <v>0.13842173350582146</v>
       </c>
     </row>
@@ -32357,7 +32360,7 @@
         <v>313</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H153" s="7">
         <v>391</v>
@@ -32371,14 +32374,14 @@
       <c r="K153" s="14">
         <v>0.44245524296675193</v>
       </c>
-      <c r="L153" s="19">
+      <c r="L153" s="18">
         <v>2.5575447570332479E-3</v>
       </c>
       <c r="M153" s="17">
         <v>0</v>
       </c>
-      <c r="N153" s="20">
-        <f>K153+L153</f>
+      <c r="N153" s="19">
+        <f t="shared" si="2"/>
         <v>0.44501278772378516</v>
       </c>
     </row>
@@ -32416,14 +32419,14 @@
       <c r="K154" s="14">
         <v>1.537489469250211E-2</v>
       </c>
-      <c r="L154" s="19">
+      <c r="L154" s="18">
         <v>2.527379949452401E-3</v>
       </c>
       <c r="M154" s="17">
         <v>0</v>
       </c>
-      <c r="N154" s="20">
-        <f>K154+L154</f>
+      <c r="N154" s="19">
+        <f t="shared" si="2"/>
         <v>1.790227464195451E-2</v>
       </c>
     </row>
@@ -32461,14 +32464,14 @@
       <c r="K155" s="14">
         <v>0.40565577766942962</v>
       </c>
-      <c r="L155" s="19">
+      <c r="L155" s="18">
         <v>2.1940516821062901E-3</v>
       </c>
       <c r="M155" s="17">
         <v>0</v>
       </c>
-      <c r="N155" s="20">
-        <f>K155+L155</f>
+      <c r="N155" s="19">
+        <f t="shared" si="2"/>
         <v>0.40784982935153591</v>
       </c>
     </row>
@@ -32492,7 +32495,7 @@
         <v>313</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H156" s="7">
         <v>997</v>
@@ -32506,14 +32509,14 @@
       <c r="K156" s="14">
         <v>0.39217652958876631</v>
       </c>
-      <c r="L156" s="19">
+      <c r="L156" s="18">
         <v>2.006018054162487E-3</v>
       </c>
       <c r="M156" s="17">
         <v>0</v>
       </c>
-      <c r="N156" s="20">
-        <f>K156+L156</f>
+      <c r="N156" s="19">
+        <f t="shared" si="2"/>
         <v>0.39418254764292882</v>
       </c>
     </row>
@@ -32551,14 +32554,14 @@
       <c r="K157" s="14">
         <v>0.46173800259403369</v>
       </c>
-      <c r="L157" s="19">
+      <c r="L157" s="18">
         <v>1.945525291828794E-3</v>
       </c>
       <c r="M157" s="17">
         <v>0</v>
       </c>
-      <c r="N157" s="20">
-        <f>K157+L157</f>
+      <c r="N157" s="19">
+        <f t="shared" si="2"/>
         <v>0.46368352788586248</v>
       </c>
     </row>
@@ -32596,14 +32599,14 @@
       <c r="K158" s="14">
         <v>0.63314711359404097</v>
       </c>
-      <c r="L158" s="19">
+      <c r="L158" s="18">
         <v>1.8621973929236499E-3</v>
       </c>
       <c r="M158" s="17">
         <v>0</v>
       </c>
-      <c r="N158" s="20">
-        <f>K158+L158</f>
+      <c r="N158" s="19">
+        <f t="shared" si="2"/>
         <v>0.63500931098696467</v>
       </c>
     </row>
@@ -32627,7 +32630,7 @@
         <v>314</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H159" s="7">
         <v>1654</v>
@@ -32641,14 +32644,14 @@
       <c r="K159" s="14">
         <v>2.720677146311971E-2</v>
       </c>
-      <c r="L159" s="19">
+      <c r="L159" s="18">
         <v>1.8137847642079809E-3</v>
       </c>
       <c r="M159" s="17">
         <v>0</v>
       </c>
-      <c r="N159" s="20">
-        <f>K159+L159</f>
+      <c r="N159" s="19">
+        <f t="shared" si="2"/>
         <v>2.9020556227327691E-2</v>
       </c>
     </row>
@@ -32672,7 +32675,7 @@
         <v>314</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H160" s="7">
         <v>624</v>
@@ -32686,14 +32689,14 @@
       <c r="K160" s="14">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="L160" s="19">
+      <c r="L160" s="18">
         <v>1.6025641025641029E-3</v>
       </c>
       <c r="M160" s="17">
         <v>0</v>
       </c>
-      <c r="N160" s="20">
-        <f>K160+L160</f>
+      <c r="N160" s="19">
+        <f t="shared" si="2"/>
         <v>4.3269230769230761E-2</v>
       </c>
     </row>
@@ -32731,14 +32734,14 @@
       <c r="K161" s="14">
         <v>0.48475452196382429</v>
       </c>
-      <c r="L161" s="19">
+      <c r="L161" s="18">
         <v>1.550387596899225E-3</v>
       </c>
       <c r="M161" s="17">
         <v>0</v>
       </c>
-      <c r="N161" s="20">
-        <f>K161+L161</f>
+      <c r="N161" s="19">
+        <f t="shared" si="2"/>
         <v>0.48630490956072353</v>
       </c>
     </row>
@@ -32762,7 +32765,7 @@
         <v>313</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H162" s="7">
         <v>650</v>
@@ -32776,14 +32779,14 @@
       <c r="K162" s="14">
         <v>0.58769230769230774</v>
       </c>
-      <c r="L162" s="19">
+      <c r="L162" s="18">
         <v>1.538461538461538E-3</v>
       </c>
       <c r="M162" s="17">
         <v>0</v>
       </c>
-      <c r="N162" s="20">
-        <f>K162+L162</f>
+      <c r="N162" s="19">
+        <f t="shared" si="2"/>
         <v>0.58923076923076922</v>
       </c>
     </row>
@@ -32807,7 +32810,7 @@
         <v>313</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H163" s="7">
         <v>1606</v>
@@ -32821,14 +32824,14 @@
       <c r="K163" s="14">
         <v>0.47633872976338731</v>
       </c>
-      <c r="L163" s="19">
+      <c r="L163" s="18">
         <v>1.2453300124532999E-3</v>
       </c>
       <c r="M163" s="17">
         <v>0</v>
       </c>
-      <c r="N163" s="20">
-        <f>K163+L163</f>
+      <c r="N163" s="19">
+        <f t="shared" si="2"/>
         <v>0.47758405977584062</v>
       </c>
     </row>
@@ -32852,7 +32855,7 @@
         <v>313</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H164" s="7">
         <v>2451</v>
@@ -32866,14 +32869,14 @@
       <c r="K164" s="14">
         <v>0.44757241942064457</v>
       </c>
-      <c r="L164" s="19">
+      <c r="L164" s="18">
         <v>1.223990208078335E-3</v>
       </c>
       <c r="M164" s="17">
         <v>0</v>
       </c>
-      <c r="N164" s="20">
-        <f>K164+L164</f>
+      <c r="N164" s="19">
+        <f t="shared" si="2"/>
         <v>0.44879640962872291</v>
       </c>
     </row>
@@ -32911,14 +32914,14 @@
       <c r="K165" s="14">
         <v>5.0932568149210912E-2</v>
       </c>
-      <c r="L165" s="19">
+      <c r="L165" s="18">
         <v>7.173601147776184E-4</v>
       </c>
       <c r="M165" s="17">
         <v>0</v>
       </c>
-      <c r="N165" s="20">
-        <f>K165+L165</f>
+      <c r="N165" s="19">
+        <f t="shared" si="2"/>
         <v>5.164992826398853E-2</v>
       </c>
     </row>
@@ -32956,14 +32959,14 @@
       <c r="K166" s="14">
         <v>1</v>
       </c>
-      <c r="L166" s="19">
+      <c r="L166" s="18">
         <v>0</v>
       </c>
       <c r="M166" s="17">
         <v>0</v>
       </c>
-      <c r="N166" s="20">
-        <f>K166+L166</f>
+      <c r="N166" s="19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33001,14 +33004,14 @@
       <c r="K167" s="14">
         <v>1</v>
       </c>
-      <c r="L167" s="19">
+      <c r="L167" s="18">
         <v>0</v>
       </c>
       <c r="M167" s="17">
         <v>0</v>
       </c>
-      <c r="N167" s="20">
-        <f>K167+L167</f>
+      <c r="N167" s="19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33046,14 +33049,14 @@
       <c r="K168" s="14">
         <v>0.98</v>
       </c>
-      <c r="L168" s="19">
+      <c r="L168" s="18">
         <v>0</v>
       </c>
       <c r="M168" s="17">
         <v>0</v>
       </c>
-      <c r="N168" s="20">
-        <f>K168+L168</f>
+      <c r="N168" s="19">
+        <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
     </row>
@@ -33077,7 +33080,7 @@
         <v>312</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H169" s="7">
         <v>42</v>
@@ -33091,14 +33094,14 @@
       <c r="K169" s="14">
         <v>0.95238095238095233</v>
       </c>
-      <c r="L169" s="19">
+      <c r="L169" s="18">
         <v>0</v>
       </c>
       <c r="M169" s="17">
         <v>0</v>
       </c>
-      <c r="N169" s="20">
-        <f>K169+L169</f>
+      <c r="N169" s="19">
+        <f t="shared" si="2"/>
         <v>0.95238095238095233</v>
       </c>
     </row>
@@ -33122,7 +33125,7 @@
         <v>312</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H170" s="7">
         <v>55</v>
@@ -33136,14 +33139,14 @@
       <c r="K170" s="14">
         <v>0.94545454545454544</v>
       </c>
-      <c r="L170" s="19">
+      <c r="L170" s="18">
         <v>0</v>
       </c>
       <c r="M170" s="17">
         <v>0</v>
       </c>
-      <c r="N170" s="20">
-        <f>K170+L170</f>
+      <c r="N170" s="19">
+        <f t="shared" si="2"/>
         <v>0.94545454545454544</v>
       </c>
     </row>
@@ -33181,14 +33184,14 @@
       <c r="K171" s="14">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L171" s="19">
+      <c r="L171" s="18">
         <v>0</v>
       </c>
       <c r="M171" s="17">
         <v>0</v>
       </c>
-      <c r="N171" s="20">
-        <f>K171+L171</f>
+      <c r="N171" s="19">
+        <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -33226,14 +33229,14 @@
       <c r="K172" s="14">
         <v>0.91304347826086951</v>
       </c>
-      <c r="L172" s="19">
+      <c r="L172" s="18">
         <v>0</v>
       </c>
       <c r="M172" s="17">
         <v>0</v>
       </c>
-      <c r="N172" s="20">
-        <f>K172+L172</f>
+      <c r="N172" s="19">
+        <f t="shared" si="2"/>
         <v>0.91304347826086951</v>
       </c>
     </row>
@@ -33257,7 +33260,7 @@
         <v>312</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H173" s="7">
         <v>30</v>
@@ -33271,14 +33274,14 @@
       <c r="K173" s="14">
         <v>0.9</v>
       </c>
-      <c r="L173" s="19">
+      <c r="L173" s="18">
         <v>0</v>
       </c>
       <c r="M173" s="17">
         <v>0</v>
       </c>
-      <c r="N173" s="20">
-        <f>K173+L173</f>
+      <c r="N173" s="19">
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
@@ -33316,14 +33319,14 @@
       <c r="K174" s="14">
         <v>0.875</v>
       </c>
-      <c r="L174" s="19">
+      <c r="L174" s="18">
         <v>0</v>
       </c>
       <c r="M174" s="17">
         <v>0</v>
       </c>
-      <c r="N174" s="20">
-        <f>K174+L174</f>
+      <c r="N174" s="19">
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
@@ -33361,14 +33364,14 @@
       <c r="K175" s="14">
         <v>0.8571428571428571</v>
       </c>
-      <c r="L175" s="19">
+      <c r="L175" s="18">
         <v>0</v>
       </c>
       <c r="M175" s="17">
         <v>0</v>
       </c>
-      <c r="N175" s="20">
-        <f>K175+L175</f>
+      <c r="N175" s="19">
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -33406,14 +33409,14 @@
       <c r="K176" s="14">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L176" s="19">
+      <c r="L176" s="18">
         <v>0</v>
       </c>
       <c r="M176" s="17">
         <v>0</v>
       </c>
-      <c r="N176" s="20">
-        <f>K176+L176</f>
+      <c r="N176" s="19">
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -33437,7 +33440,7 @@
         <v>312</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H177" s="7">
         <v>60</v>
@@ -33451,14 +33454,14 @@
       <c r="K177" s="14">
         <v>0.81666666666666665</v>
       </c>
-      <c r="L177" s="19">
+      <c r="L177" s="18">
         <v>0</v>
       </c>
       <c r="M177" s="17">
         <v>0</v>
       </c>
-      <c r="N177" s="20">
-        <f>K177+L177</f>
+      <c r="N177" s="19">
+        <f t="shared" si="2"/>
         <v>0.81666666666666665</v>
       </c>
     </row>
@@ -33496,14 +33499,14 @@
       <c r="K178" s="14">
         <v>0.76923076923076927</v>
       </c>
-      <c r="L178" s="19">
+      <c r="L178" s="18">
         <v>0</v>
       </c>
       <c r="M178" s="17">
         <v>0</v>
       </c>
-      <c r="N178" s="20">
-        <f>K178+L178</f>
+      <c r="N178" s="19">
+        <f t="shared" si="2"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
@@ -33527,7 +33530,7 @@
         <v>312</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H179" s="7">
         <v>43</v>
@@ -33541,14 +33544,14 @@
       <c r="K179" s="14">
         <v>0.76744186046511631</v>
       </c>
-      <c r="L179" s="19">
+      <c r="L179" s="18">
         <v>0</v>
       </c>
       <c r="M179" s="17">
         <v>0</v>
       </c>
-      <c r="N179" s="20">
-        <f>K179+L179</f>
+      <c r="N179" s="19">
+        <f t="shared" si="2"/>
         <v>0.76744186046511631</v>
       </c>
     </row>
@@ -33586,14 +33589,14 @@
       <c r="K180" s="14">
         <v>0.76543209876543206</v>
       </c>
-      <c r="L180" s="19">
+      <c r="L180" s="18">
         <v>0</v>
       </c>
       <c r="M180" s="17">
         <v>0</v>
       </c>
-      <c r="N180" s="20">
-        <f>K180+L180</f>
+      <c r="N180" s="19">
+        <f t="shared" si="2"/>
         <v>0.76543209876543206</v>
       </c>
     </row>
@@ -33631,14 +33634,14 @@
       <c r="K181" s="14">
         <v>0.75</v>
       </c>
-      <c r="L181" s="19">
+      <c r="L181" s="18">
         <v>0</v>
       </c>
       <c r="M181" s="17">
         <v>0</v>
       </c>
-      <c r="N181" s="20">
-        <f>K181+L181</f>
+      <c r="N181" s="19">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -33676,14 +33679,14 @@
       <c r="K182" s="14">
         <v>0.73913043478260865</v>
       </c>
-      <c r="L182" s="19">
+      <c r="L182" s="18">
         <v>0</v>
       </c>
       <c r="M182" s="17">
         <v>0</v>
       </c>
-      <c r="N182" s="20">
-        <f>K182+L182</f>
+      <c r="N182" s="19">
+        <f t="shared" si="2"/>
         <v>0.73913043478260865</v>
       </c>
     </row>
@@ -33721,14 +33724,14 @@
       <c r="K183" s="14">
         <v>0.72727272727272729</v>
       </c>
-      <c r="L183" s="19">
+      <c r="L183" s="18">
         <v>0</v>
       </c>
       <c r="M183" s="17">
         <v>0</v>
       </c>
-      <c r="N183" s="20">
-        <f>K183+L183</f>
+      <c r="N183" s="19">
+        <f t="shared" si="2"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
@@ -33766,14 +33769,14 @@
       <c r="K184" s="14">
         <v>0.72463768115942029</v>
       </c>
-      <c r="L184" s="19">
+      <c r="L184" s="18">
         <v>0</v>
       </c>
       <c r="M184" s="17">
         <v>0</v>
       </c>
-      <c r="N184" s="20">
-        <f>K184+L184</f>
+      <c r="N184" s="19">
+        <f t="shared" si="2"/>
         <v>0.72463768115942029</v>
       </c>
     </row>
@@ -33811,14 +33814,14 @@
       <c r="K185" s="14">
         <v>0.72413793103448276</v>
       </c>
-      <c r="L185" s="19">
+      <c r="L185" s="18">
         <v>0</v>
       </c>
       <c r="M185" s="17">
         <v>0</v>
       </c>
-      <c r="N185" s="20">
-        <f>K185+L185</f>
+      <c r="N185" s="19">
+        <f t="shared" si="2"/>
         <v>0.72413793103448276</v>
       </c>
     </row>
@@ -33856,14 +33859,14 @@
       <c r="K186" s="14">
         <v>0.71875</v>
       </c>
-      <c r="L186" s="19">
+      <c r="L186" s="18">
         <v>0</v>
       </c>
       <c r="M186" s="17">
         <v>0</v>
       </c>
-      <c r="N186" s="20">
-        <f>K186+L186</f>
+      <c r="N186" s="19">
+        <f t="shared" si="2"/>
         <v>0.71875</v>
       </c>
     </row>
@@ -33901,14 +33904,14 @@
       <c r="K187" s="14">
         <v>0.71610169491525422</v>
       </c>
-      <c r="L187" s="19">
+      <c r="L187" s="18">
         <v>0</v>
       </c>
       <c r="M187" s="17">
         <v>0</v>
       </c>
-      <c r="N187" s="20">
-        <f>K187+L187</f>
+      <c r="N187" s="19">
+        <f t="shared" si="2"/>
         <v>0.71610169491525422</v>
       </c>
     </row>
@@ -33946,14 +33949,14 @@
       <c r="K188" s="14">
         <v>0.70588235294117652</v>
       </c>
-      <c r="L188" s="19">
+      <c r="L188" s="18">
         <v>0</v>
       </c>
       <c r="M188" s="17">
         <v>0</v>
       </c>
-      <c r="N188" s="20">
-        <f>K188+L188</f>
+      <c r="N188" s="19">
+        <f t="shared" si="2"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -33977,7 +33980,7 @@
         <v>314</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H189" s="7">
         <v>53</v>
@@ -33991,14 +33994,14 @@
       <c r="K189" s="14">
         <v>0.67924528301886788</v>
       </c>
-      <c r="L189" s="19">
+      <c r="L189" s="18">
         <v>0</v>
       </c>
       <c r="M189" s="17">
         <v>0</v>
       </c>
-      <c r="N189" s="20">
-        <f>K189+L189</f>
+      <c r="N189" s="19">
+        <f t="shared" si="2"/>
         <v>0.67924528301886788</v>
       </c>
     </row>
@@ -34022,7 +34025,7 @@
         <v>313</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H190" s="7">
         <v>572</v>
@@ -34036,14 +34039,14 @@
       <c r="K190" s="14">
         <v>0.67307692307692313</v>
       </c>
-      <c r="L190" s="19">
+      <c r="L190" s="18">
         <v>0</v>
       </c>
       <c r="M190" s="17">
         <v>0</v>
       </c>
-      <c r="N190" s="20">
-        <f>K190+L190</f>
+      <c r="N190" s="19">
+        <f t="shared" si="2"/>
         <v>0.67307692307692313</v>
       </c>
     </row>
@@ -34081,14 +34084,14 @@
       <c r="K191" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L191" s="19">
+      <c r="L191" s="18">
         <v>0</v>
       </c>
       <c r="M191" s="17">
         <v>0</v>
       </c>
-      <c r="N191" s="20">
-        <f>K191+L191</f>
+      <c r="N191" s="19">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -34126,14 +34129,14 @@
       <c r="K192" s="14">
         <v>0.6640625</v>
       </c>
-      <c r="L192" s="19">
+      <c r="L192" s="18">
         <v>0</v>
       </c>
       <c r="M192" s="17">
         <v>0</v>
       </c>
-      <c r="N192" s="20">
-        <f>K192+L192</f>
+      <c r="N192" s="19">
+        <f t="shared" si="2"/>
         <v>0.6640625</v>
       </c>
     </row>
@@ -34171,14 +34174,14 @@
       <c r="K193" s="14">
         <v>0.65100671140939592</v>
       </c>
-      <c r="L193" s="19">
+      <c r="L193" s="18">
         <v>0</v>
       </c>
       <c r="M193" s="17">
         <v>0</v>
       </c>
-      <c r="N193" s="20">
-        <f>K193+L193</f>
+      <c r="N193" s="19">
+        <f t="shared" si="2"/>
         <v>0.65100671140939592</v>
       </c>
     </row>
@@ -34216,14 +34219,14 @@
       <c r="K194" s="14">
         <v>0.64</v>
       </c>
-      <c r="L194" s="19">
+      <c r="L194" s="18">
         <v>0</v>
       </c>
       <c r="M194" s="17">
         <v>0</v>
       </c>
-      <c r="N194" s="20">
-        <f>K194+L194</f>
+      <c r="N194" s="19">
+        <f t="shared" ref="N194:N257" si="3">K194+L194</f>
         <v>0.64</v>
       </c>
     </row>
@@ -34261,14 +34264,14 @@
       <c r="K195" s="14">
         <v>0.63636363636363635</v>
       </c>
-      <c r="L195" s="19">
+      <c r="L195" s="18">
         <v>0</v>
       </c>
       <c r="M195" s="17">
         <v>0</v>
       </c>
-      <c r="N195" s="20">
-        <f>K195+L195</f>
+      <c r="N195" s="19">
+        <f t="shared" si="3"/>
         <v>0.63636363636363635</v>
       </c>
     </row>
@@ -34306,14 +34309,14 @@
       <c r="K196" s="14">
         <v>0.63</v>
       </c>
-      <c r="L196" s="19">
+      <c r="L196" s="18">
         <v>0</v>
       </c>
       <c r="M196" s="17">
         <v>0</v>
       </c>
-      <c r="N196" s="20">
-        <f>K196+L196</f>
+      <c r="N196" s="19">
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
     </row>
@@ -34351,14 +34354,14 @@
       <c r="K197" s="14">
         <v>0.62264150943396224</v>
       </c>
-      <c r="L197" s="19">
+      <c r="L197" s="18">
         <v>0</v>
       </c>
       <c r="M197" s="17">
         <v>0</v>
       </c>
-      <c r="N197" s="20">
-        <f>K197+L197</f>
+      <c r="N197" s="19">
+        <f t="shared" si="3"/>
         <v>0.62264150943396224</v>
       </c>
     </row>
@@ -34396,14 +34399,14 @@
       <c r="K198" s="14">
         <v>0.6216216216216216</v>
       </c>
-      <c r="L198" s="19">
+      <c r="L198" s="18">
         <v>0</v>
       </c>
       <c r="M198" s="17">
         <v>0</v>
       </c>
-      <c r="N198" s="20">
-        <f>K198+L198</f>
+      <c r="N198" s="19">
+        <f t="shared" si="3"/>
         <v>0.6216216216216216</v>
       </c>
     </row>
@@ -34441,14 +34444,14 @@
       <c r="K199" s="14">
         <v>0.61224489795918369</v>
       </c>
-      <c r="L199" s="19">
+      <c r="L199" s="18">
         <v>0</v>
       </c>
       <c r="M199" s="17">
         <v>0</v>
       </c>
-      <c r="N199" s="20">
-        <f>K199+L199</f>
+      <c r="N199" s="19">
+        <f t="shared" si="3"/>
         <v>0.61224489795918369</v>
       </c>
     </row>
@@ -34486,14 +34489,14 @@
       <c r="K200" s="14">
         <v>0.6097560975609756</v>
       </c>
-      <c r="L200" s="19">
+      <c r="L200" s="18">
         <v>0</v>
       </c>
       <c r="M200" s="17">
         <v>0</v>
       </c>
-      <c r="N200" s="20">
-        <f>K200+L200</f>
+      <c r="N200" s="19">
+        <f t="shared" si="3"/>
         <v>0.6097560975609756</v>
       </c>
     </row>
@@ -34517,7 +34520,7 @@
         <v>313</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H201" s="7">
         <v>79</v>
@@ -34531,14 +34534,14 @@
       <c r="K201" s="14">
         <v>0.59493670886075944</v>
       </c>
-      <c r="L201" s="19">
+      <c r="L201" s="18">
         <v>0</v>
       </c>
       <c r="M201" s="17">
         <v>0</v>
       </c>
-      <c r="N201" s="20">
-        <f>K201+L201</f>
+      <c r="N201" s="19">
+        <f t="shared" si="3"/>
         <v>0.59493670886075944</v>
       </c>
     </row>
@@ -34562,7 +34565,7 @@
         <v>312</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H202" s="7">
         <v>142</v>
@@ -34576,14 +34579,14 @@
       <c r="K202" s="14">
         <v>0.58450704225352113</v>
       </c>
-      <c r="L202" s="19">
+      <c r="L202" s="18">
         <v>0</v>
       </c>
       <c r="M202" s="17">
         <v>0</v>
       </c>
-      <c r="N202" s="20">
-        <f>K202+L202</f>
+      <c r="N202" s="19">
+        <f t="shared" si="3"/>
         <v>0.58450704225352113</v>
       </c>
     </row>
@@ -34621,14 +34624,14 @@
       <c r="K203" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L203" s="19">
+      <c r="L203" s="18">
         <v>0</v>
       </c>
       <c r="M203" s="17">
         <v>0</v>
       </c>
-      <c r="N203" s="20">
-        <f>K203+L203</f>
+      <c r="N203" s="19">
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -34652,7 +34655,7 @@
         <v>310</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H204" s="7">
         <v>32</v>
@@ -34666,14 +34669,14 @@
       <c r="K204" s="14">
         <v>0.5625</v>
       </c>
-      <c r="L204" s="19">
+      <c r="L204" s="18">
         <v>0</v>
       </c>
       <c r="M204" s="17">
         <v>0</v>
       </c>
-      <c r="N204" s="20">
-        <f>K204+L204</f>
+      <c r="N204" s="19">
+        <f t="shared" si="3"/>
         <v>0.5625</v>
       </c>
     </row>
@@ -34711,14 +34714,14 @@
       <c r="K205" s="14">
         <v>0.55263157894736847</v>
       </c>
-      <c r="L205" s="19">
+      <c r="L205" s="18">
         <v>0</v>
       </c>
       <c r="M205" s="17">
         <v>0</v>
       </c>
-      <c r="N205" s="20">
-        <f>K205+L205</f>
+      <c r="N205" s="19">
+        <f t="shared" si="3"/>
         <v>0.55263157894736847</v>
       </c>
     </row>
@@ -34756,14 +34759,14 @@
       <c r="K206" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L206" s="19">
+      <c r="L206" s="18">
         <v>0</v>
       </c>
       <c r="M206" s="17">
         <v>0</v>
       </c>
-      <c r="N206" s="20">
-        <f>K206+L206</f>
+      <c r="N206" s="19">
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -34787,7 +34790,7 @@
         <v>311</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H207" s="7">
         <v>26</v>
@@ -34801,14 +34804,14 @@
       <c r="K207" s="14">
         <v>0.53846153846153844</v>
       </c>
-      <c r="L207" s="19">
+      <c r="L207" s="18">
         <v>0</v>
       </c>
       <c r="M207" s="17">
         <v>0</v>
       </c>
-      <c r="N207" s="20">
-        <f>K207+L207</f>
+      <c r="N207" s="19">
+        <f t="shared" si="3"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -34832,7 +34835,7 @@
         <v>315</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H208" s="7">
         <v>131</v>
@@ -34846,14 +34849,14 @@
       <c r="K208" s="14">
         <v>0.53435114503816794</v>
       </c>
-      <c r="L208" s="19">
+      <c r="L208" s="18">
         <v>0</v>
       </c>
       <c r="M208" s="17">
         <v>0</v>
       </c>
-      <c r="N208" s="20">
-        <f>K208+L208</f>
+      <c r="N208" s="19">
+        <f t="shared" si="3"/>
         <v>0.53435114503816794</v>
       </c>
     </row>
@@ -34877,7 +34880,7 @@
         <v>313</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H209" s="7">
         <v>312</v>
@@ -34891,14 +34894,14 @@
       <c r="K209" s="14">
         <v>0.51602564102564108</v>
       </c>
-      <c r="L209" s="19">
+      <c r="L209" s="18">
         <v>0</v>
       </c>
       <c r="M209" s="17">
         <v>0</v>
       </c>
-      <c r="N209" s="20">
-        <f>K209+L209</f>
+      <c r="N209" s="19">
+        <f t="shared" si="3"/>
         <v>0.51602564102564108</v>
       </c>
     </row>
@@ -34922,7 +34925,7 @@
         <v>313</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H210" s="7">
         <v>715</v>
@@ -34936,14 +34939,14 @@
       <c r="K210" s="14">
         <v>0.51468531468531464</v>
       </c>
-      <c r="L210" s="19">
+      <c r="L210" s="18">
         <v>0</v>
       </c>
       <c r="M210" s="17">
         <v>0</v>
       </c>
-      <c r="N210" s="20">
-        <f>K210+L210</f>
+      <c r="N210" s="19">
+        <f t="shared" si="3"/>
         <v>0.51468531468531464</v>
       </c>
     </row>
@@ -34967,7 +34970,7 @@
         <v>313</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H211" s="7">
         <v>241</v>
@@ -34981,14 +34984,14 @@
       <c r="K211" s="14">
         <v>0.51037344398340245</v>
       </c>
-      <c r="L211" s="19">
+      <c r="L211" s="18">
         <v>0</v>
       </c>
       <c r="M211" s="17">
         <v>0</v>
       </c>
-      <c r="N211" s="20">
-        <f>K211+L211</f>
+      <c r="N211" s="19">
+        <f t="shared" si="3"/>
         <v>0.51037344398340245</v>
       </c>
     </row>
@@ -35012,7 +35015,7 @@
         <v>313</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H212" s="7">
         <v>285</v>
@@ -35026,14 +35029,14 @@
       <c r="K212" s="14">
         <v>0.50877192982456143</v>
       </c>
-      <c r="L212" s="19">
+      <c r="L212" s="18">
         <v>0</v>
       </c>
       <c r="M212" s="17">
         <v>0</v>
       </c>
-      <c r="N212" s="20">
-        <f>K212+L212</f>
+      <c r="N212" s="19">
+        <f t="shared" si="3"/>
         <v>0.50877192982456143</v>
       </c>
     </row>
@@ -35057,7 +35060,7 @@
         <v>313</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H213" s="7">
         <v>1093</v>
@@ -35071,14 +35074,14 @@
       <c r="K213" s="14">
         <v>0.50137236962488563</v>
       </c>
-      <c r="L213" s="19">
+      <c r="L213" s="18">
         <v>0</v>
       </c>
       <c r="M213" s="17">
         <v>0</v>
       </c>
-      <c r="N213" s="20">
-        <f>K213+L213</f>
+      <c r="N213" s="19">
+        <f t="shared" si="3"/>
         <v>0.50137236962488563</v>
       </c>
     </row>
@@ -35102,7 +35105,7 @@
         <v>313</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H214" s="7">
         <v>103</v>
@@ -35116,14 +35119,14 @@
       <c r="K214" s="14">
         <v>0.49514563106796122</v>
       </c>
-      <c r="L214" s="19">
+      <c r="L214" s="18">
         <v>0</v>
       </c>
       <c r="M214" s="17">
         <v>0</v>
       </c>
-      <c r="N214" s="20">
-        <f>K214+L214</f>
+      <c r="N214" s="19">
+        <f t="shared" si="3"/>
         <v>0.49514563106796122</v>
       </c>
     </row>
@@ -35147,7 +35150,7 @@
         <v>313</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H215" s="7">
         <v>277</v>
@@ -35161,14 +35164,14 @@
       <c r="K215" s="14">
         <v>0.47653429602888092</v>
       </c>
-      <c r="L215" s="19">
+      <c r="L215" s="18">
         <v>0</v>
       </c>
       <c r="M215" s="17">
         <v>0</v>
       </c>
-      <c r="N215" s="20">
-        <f>K215+L215</f>
+      <c r="N215" s="19">
+        <f t="shared" si="3"/>
         <v>0.47653429602888092</v>
       </c>
     </row>
@@ -35206,14 +35209,14 @@
       <c r="K216" s="14">
         <v>0.47368421052631582</v>
       </c>
-      <c r="L216" s="19">
+      <c r="L216" s="18">
         <v>0</v>
       </c>
       <c r="M216" s="17">
         <v>0</v>
       </c>
-      <c r="N216" s="20">
-        <f>K216+L216</f>
+      <c r="N216" s="19">
+        <f t="shared" si="3"/>
         <v>0.47368421052631582</v>
       </c>
     </row>
@@ -35237,7 +35240,7 @@
         <v>315</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H217" s="7">
         <v>15</v>
@@ -35251,14 +35254,14 @@
       <c r="K217" s="14">
         <v>0.46666666666666667</v>
       </c>
-      <c r="L217" s="19">
+      <c r="L217" s="18">
         <v>0</v>
       </c>
       <c r="M217" s="17">
         <v>0</v>
       </c>
-      <c r="N217" s="20">
-        <f>K217+L217</f>
+      <c r="N217" s="19">
+        <f t="shared" si="3"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
@@ -35282,7 +35285,7 @@
         <v>315</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H218" s="7">
         <v>132</v>
@@ -35296,14 +35299,14 @@
       <c r="K218" s="14">
         <v>0.4621212121212121</v>
       </c>
-      <c r="L218" s="19">
+      <c r="L218" s="18">
         <v>0</v>
       </c>
       <c r="M218" s="17">
         <v>0</v>
       </c>
-      <c r="N218" s="20">
-        <f>K218+L218</f>
+      <c r="N218" s="19">
+        <f t="shared" si="3"/>
         <v>0.4621212121212121</v>
       </c>
     </row>
@@ -35341,14 +35344,14 @@
       <c r="K219" s="14">
         <v>0.46153846153846162</v>
       </c>
-      <c r="L219" s="19">
+      <c r="L219" s="18">
         <v>0</v>
       </c>
       <c r="M219" s="17">
         <v>0</v>
       </c>
-      <c r="N219" s="20">
-        <f>K219+L219</f>
+      <c r="N219" s="19">
+        <f t="shared" si="3"/>
         <v>0.46153846153846162</v>
       </c>
     </row>
@@ -35386,14 +35389,14 @@
       <c r="K220" s="14">
         <v>0.4375</v>
       </c>
-      <c r="L220" s="19">
+      <c r="L220" s="18">
         <v>0</v>
       </c>
       <c r="M220" s="17">
         <v>0</v>
       </c>
-      <c r="N220" s="20">
-        <f>K220+L220</f>
+      <c r="N220" s="19">
+        <f t="shared" si="3"/>
         <v>0.4375</v>
       </c>
     </row>
@@ -35417,7 +35420,7 @@
         <v>313</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H221" s="7">
         <v>213</v>
@@ -35431,14 +35434,14 @@
       <c r="K221" s="14">
         <v>0.43661971830985907</v>
       </c>
-      <c r="L221" s="19">
+      <c r="L221" s="18">
         <v>0</v>
       </c>
       <c r="M221" s="17">
         <v>0</v>
       </c>
-      <c r="N221" s="20">
-        <f>K221+L221</f>
+      <c r="N221" s="19">
+        <f t="shared" si="3"/>
         <v>0.43661971830985907</v>
       </c>
     </row>
@@ -35476,14 +35479,14 @@
       <c r="K222" s="14">
         <v>0.42857142857142849</v>
       </c>
-      <c r="L222" s="19">
+      <c r="L222" s="18">
         <v>0</v>
       </c>
       <c r="M222" s="17">
         <v>0</v>
       </c>
-      <c r="N222" s="20">
-        <f>K222+L222</f>
+      <c r="N222" s="19">
+        <f t="shared" si="3"/>
         <v>0.42857142857142849</v>
       </c>
     </row>
@@ -35507,7 +35510,7 @@
         <v>312</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H223" s="7">
         <v>19</v>
@@ -35521,14 +35524,14 @@
       <c r="K223" s="14">
         <v>0.42105263157894729</v>
       </c>
-      <c r="L223" s="19">
+      <c r="L223" s="18">
         <v>0</v>
       </c>
       <c r="M223" s="17">
         <v>0</v>
       </c>
-      <c r="N223" s="20">
-        <f>K223+L223</f>
+      <c r="N223" s="19">
+        <f t="shared" si="3"/>
         <v>0.42105263157894729</v>
       </c>
     </row>
@@ -35566,14 +35569,14 @@
       <c r="K224" s="14">
         <v>0.41379310344827591</v>
       </c>
-      <c r="L224" s="19">
+      <c r="L224" s="18">
         <v>0</v>
       </c>
       <c r="M224" s="17">
         <v>0</v>
       </c>
-      <c r="N224" s="20">
-        <f>K224+L224</f>
+      <c r="N224" s="19">
+        <f t="shared" si="3"/>
         <v>0.41379310344827591</v>
       </c>
     </row>
@@ -35611,14 +35614,14 @@
       <c r="K225" s="14">
         <v>0.41254752851711018</v>
       </c>
-      <c r="L225" s="19">
+      <c r="L225" s="18">
         <v>0</v>
       </c>
       <c r="M225" s="17">
         <v>0</v>
       </c>
-      <c r="N225" s="20">
-        <f>K225+L225</f>
+      <c r="N225" s="19">
+        <f t="shared" si="3"/>
         <v>0.41254752851711018</v>
       </c>
     </row>
@@ -35656,14 +35659,14 @@
       <c r="K226" s="14">
         <v>0.39534883720930231</v>
       </c>
-      <c r="L226" s="19">
+      <c r="L226" s="18">
         <v>0</v>
       </c>
       <c r="M226" s="17">
         <v>0</v>
       </c>
-      <c r="N226" s="20">
-        <f>K226+L226</f>
+      <c r="N226" s="19">
+        <f t="shared" si="3"/>
         <v>0.39534883720930231</v>
       </c>
     </row>
@@ -35701,14 +35704,14 @@
       <c r="K227" s="14">
         <v>0.3902439024390244</v>
       </c>
-      <c r="L227" s="19">
+      <c r="L227" s="18">
         <v>0</v>
       </c>
       <c r="M227" s="17">
         <v>0</v>
       </c>
-      <c r="N227" s="20">
-        <f>K227+L227</f>
+      <c r="N227" s="19">
+        <f t="shared" si="3"/>
         <v>0.3902439024390244</v>
       </c>
     </row>
@@ -35746,14 +35749,14 @@
       <c r="K228" s="14">
         <v>0.36585365853658541</v>
       </c>
-      <c r="L228" s="19">
+      <c r="L228" s="18">
         <v>0</v>
       </c>
       <c r="M228" s="17">
         <v>0</v>
       </c>
-      <c r="N228" s="20">
-        <f>K228+L228</f>
+      <c r="N228" s="19">
+        <f t="shared" si="3"/>
         <v>0.36585365853658541</v>
       </c>
     </row>
@@ -35791,14 +35794,14 @@
       <c r="K229" s="14">
         <v>0.36363636363636359</v>
       </c>
-      <c r="L229" s="19">
+      <c r="L229" s="18">
         <v>0</v>
       </c>
       <c r="M229" s="17">
         <v>0</v>
       </c>
-      <c r="N229" s="20">
-        <f>K229+L229</f>
+      <c r="N229" s="19">
+        <f t="shared" si="3"/>
         <v>0.36363636363636359</v>
       </c>
     </row>
@@ -35836,14 +35839,14 @@
       <c r="K230" s="14">
         <v>0.35655737704918028</v>
       </c>
-      <c r="L230" s="19">
+      <c r="L230" s="18">
         <v>0</v>
       </c>
       <c r="M230" s="17">
         <v>0</v>
       </c>
-      <c r="N230" s="20">
-        <f>K230+L230</f>
+      <c r="N230" s="19">
+        <f t="shared" si="3"/>
         <v>0.35655737704918028</v>
       </c>
     </row>
@@ -35881,14 +35884,14 @@
       <c r="K231" s="14">
         <v>0.34691195795006569</v>
       </c>
-      <c r="L231" s="19">
+      <c r="L231" s="18">
         <v>0</v>
       </c>
       <c r="M231" s="17">
         <v>0</v>
       </c>
-      <c r="N231" s="20">
-        <f>K231+L231</f>
+      <c r="N231" s="19">
+        <f t="shared" si="3"/>
         <v>0.34691195795006569</v>
       </c>
     </row>
@@ -35912,7 +35915,7 @@
         <v>313</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H232" s="7">
         <v>416</v>
@@ -35926,14 +35929,14 @@
       <c r="K232" s="14">
         <v>0.32451923076923078</v>
       </c>
-      <c r="L232" s="19">
+      <c r="L232" s="18">
         <v>0</v>
       </c>
       <c r="M232" s="17">
         <v>0</v>
       </c>
-      <c r="N232" s="20">
-        <f>K232+L232</f>
+      <c r="N232" s="19">
+        <f t="shared" si="3"/>
         <v>0.32451923076923078</v>
       </c>
     </row>
@@ -35957,7 +35960,7 @@
         <v>312</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H233" s="7">
         <v>34</v>
@@ -35971,14 +35974,14 @@
       <c r="K233" s="14">
         <v>0.3235294117647059</v>
       </c>
-      <c r="L233" s="19">
+      <c r="L233" s="18">
         <v>0</v>
       </c>
       <c r="M233" s="17">
         <v>0</v>
       </c>
-      <c r="N233" s="20">
-        <f>K233+L233</f>
+      <c r="N233" s="19">
+        <f t="shared" si="3"/>
         <v>0.3235294117647059</v>
       </c>
     </row>
@@ -36016,14 +36019,14 @@
       <c r="K234" s="14">
         <v>0.32</v>
       </c>
-      <c r="L234" s="19">
+      <c r="L234" s="18">
         <v>0</v>
       </c>
       <c r="M234" s="17">
         <v>0</v>
       </c>
-      <c r="N234" s="20">
-        <f>K234+L234</f>
+      <c r="N234" s="19">
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
     </row>
@@ -36061,14 +36064,14 @@
       <c r="K235" s="14">
         <v>0.31506849315068491</v>
       </c>
-      <c r="L235" s="19">
+      <c r="L235" s="18">
         <v>0</v>
       </c>
       <c r="M235" s="17">
         <v>0</v>
       </c>
-      <c r="N235" s="20">
-        <f>K235+L235</f>
+      <c r="N235" s="19">
+        <f t="shared" si="3"/>
         <v>0.31506849315068491</v>
       </c>
     </row>
@@ -36092,7 +36095,7 @@
         <v>315</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H236" s="7">
         <v>13</v>
@@ -36106,14 +36109,14 @@
       <c r="K236" s="14">
         <v>0.30769230769230771</v>
       </c>
-      <c r="L236" s="19">
+      <c r="L236" s="18">
         <v>0</v>
       </c>
       <c r="M236" s="17">
         <v>0</v>
       </c>
-      <c r="N236" s="20">
-        <f>K236+L236</f>
+      <c r="N236" s="19">
+        <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
@@ -36151,14 +36154,14 @@
       <c r="K237" s="14">
         <v>0.3</v>
       </c>
-      <c r="L237" s="19">
+      <c r="L237" s="18">
         <v>0</v>
       </c>
       <c r="M237" s="17">
         <v>0</v>
       </c>
-      <c r="N237" s="20">
-        <f>K237+L237</f>
+      <c r="N237" s="19">
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
@@ -36196,14 +36199,14 @@
       <c r="K238" s="14">
         <v>0.27272727272727271</v>
       </c>
-      <c r="L238" s="19">
+      <c r="L238" s="18">
         <v>0</v>
       </c>
       <c r="M238" s="17">
         <v>0</v>
       </c>
-      <c r="N238" s="20">
-        <f>K238+L238</f>
+      <c r="N238" s="19">
+        <f t="shared" si="3"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -36227,7 +36230,7 @@
         <v>315</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H239" s="7">
         <v>41</v>
@@ -36241,14 +36244,14 @@
       <c r="K239" s="14">
         <v>0.26829268292682928</v>
       </c>
-      <c r="L239" s="19">
+      <c r="L239" s="18">
         <v>0</v>
       </c>
       <c r="M239" s="17">
         <v>0</v>
       </c>
-      <c r="N239" s="20">
-        <f>K239+L239</f>
+      <c r="N239" s="19">
+        <f t="shared" si="3"/>
         <v>0.26829268292682928</v>
       </c>
     </row>
@@ -36286,14 +36289,14 @@
       <c r="K240" s="14">
         <v>0.26829268292682928</v>
       </c>
-      <c r="L240" s="19">
+      <c r="L240" s="18">
         <v>0</v>
       </c>
       <c r="M240" s="17">
         <v>0</v>
       </c>
-      <c r="N240" s="20">
-        <f>K240+L240</f>
+      <c r="N240" s="19">
+        <f t="shared" si="3"/>
         <v>0.26829268292682928</v>
       </c>
     </row>
@@ -36317,7 +36320,7 @@
         <v>314</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H241" s="7">
         <v>19</v>
@@ -36331,14 +36334,14 @@
       <c r="K241" s="14">
         <v>0.26315789473684209</v>
       </c>
-      <c r="L241" s="19">
+      <c r="L241" s="18">
         <v>0</v>
       </c>
       <c r="M241" s="17">
         <v>0</v>
       </c>
-      <c r="N241" s="20">
-        <f>K241+L241</f>
+      <c r="N241" s="19">
+        <f t="shared" si="3"/>
         <v>0.26315789473684209</v>
       </c>
     </row>
@@ -36376,14 +36379,14 @@
       <c r="K242" s="14">
         <v>0.26213592233009708</v>
       </c>
-      <c r="L242" s="19">
+      <c r="L242" s="18">
         <v>0</v>
       </c>
       <c r="M242" s="17">
         <v>0</v>
       </c>
-      <c r="N242" s="20">
-        <f>K242+L242</f>
+      <c r="N242" s="19">
+        <f t="shared" si="3"/>
         <v>0.26213592233009708</v>
       </c>
     </row>
@@ -36407,7 +36410,7 @@
         <v>312</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H243" s="7">
         <v>12</v>
@@ -36421,14 +36424,14 @@
       <c r="K243" s="14">
         <v>0.25</v>
       </c>
-      <c r="L243" s="19">
+      <c r="L243" s="18">
         <v>0</v>
       </c>
       <c r="M243" s="17">
         <v>0</v>
       </c>
-      <c r="N243" s="20">
-        <f>K243+L243</f>
+      <c r="N243" s="19">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -36452,7 +36455,7 @@
         <v>310</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H244" s="7">
         <v>310</v>
@@ -36466,14 +36469,14 @@
       <c r="K244" s="14">
         <v>0.24516129032258061</v>
       </c>
-      <c r="L244" s="19">
+      <c r="L244" s="18">
         <v>0</v>
       </c>
       <c r="M244" s="17">
         <v>0</v>
       </c>
-      <c r="N244" s="20">
-        <f>K244+L244</f>
+      <c r="N244" s="19">
+        <f t="shared" si="3"/>
         <v>0.24516129032258061</v>
       </c>
     </row>
@@ -36497,7 +36500,7 @@
         <v>310</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H245" s="7">
         <v>140</v>
@@ -36511,14 +36514,14 @@
       <c r="K245" s="14">
         <v>0.22142857142857139</v>
       </c>
-      <c r="L245" s="19">
+      <c r="L245" s="18">
         <v>0</v>
       </c>
       <c r="M245" s="17">
         <v>0</v>
       </c>
-      <c r="N245" s="20">
-        <f>K245+L245</f>
+      <c r="N245" s="19">
+        <f t="shared" si="3"/>
         <v>0.22142857142857139</v>
       </c>
     </row>
@@ -36556,14 +36559,14 @@
       <c r="K246" s="14">
         <v>0.2167832167832168</v>
       </c>
-      <c r="L246" s="19">
+      <c r="L246" s="18">
         <v>0</v>
       </c>
       <c r="M246" s="17">
         <v>0</v>
       </c>
-      <c r="N246" s="20">
-        <f>K246+L246</f>
+      <c r="N246" s="19">
+        <f t="shared" si="3"/>
         <v>0.2167832167832168</v>
       </c>
     </row>
@@ -36601,14 +36604,14 @@
       <c r="K247" s="14">
         <v>0.20472440944881889</v>
       </c>
-      <c r="L247" s="19">
+      <c r="L247" s="18">
         <v>0</v>
       </c>
       <c r="M247" s="17">
         <v>0</v>
       </c>
-      <c r="N247" s="20">
-        <f>K247+L247</f>
+      <c r="N247" s="19">
+        <f t="shared" si="3"/>
         <v>0.20472440944881889</v>
       </c>
     </row>
@@ -36632,7 +36635,7 @@
         <v>315</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H248" s="7">
         <v>128</v>
@@ -36646,14 +36649,14 @@
       <c r="K248" s="14">
         <v>0.1875</v>
       </c>
-      <c r="L248" s="19">
+      <c r="L248" s="18">
         <v>0</v>
       </c>
       <c r="M248" s="17">
         <v>0</v>
       </c>
-      <c r="N248" s="20">
-        <f>K248+L248</f>
+      <c r="N248" s="19">
+        <f t="shared" si="3"/>
         <v>0.1875</v>
       </c>
     </row>
@@ -36691,14 +36694,14 @@
       <c r="K249" s="14">
         <v>0.1764705882352941</v>
       </c>
-      <c r="L249" s="19">
+      <c r="L249" s="18">
         <v>0</v>
       </c>
       <c r="M249" s="17">
         <v>0</v>
       </c>
-      <c r="N249" s="20">
-        <f>K249+L249</f>
+      <c r="N249" s="19">
+        <f t="shared" si="3"/>
         <v>0.1764705882352941</v>
       </c>
     </row>
@@ -36736,14 +36739,14 @@
       <c r="K250" s="14">
         <v>0.169811320754717</v>
       </c>
-      <c r="L250" s="19">
+      <c r="L250" s="18">
         <v>0</v>
       </c>
       <c r="M250" s="17">
         <v>0</v>
       </c>
-      <c r="N250" s="20">
-        <f>K250+L250</f>
+      <c r="N250" s="19">
+        <f t="shared" si="3"/>
         <v>0.169811320754717</v>
       </c>
     </row>
@@ -36781,14 +36784,14 @@
       <c r="K251" s="14">
         <v>0.16666666666666671</v>
       </c>
-      <c r="L251" s="19">
+      <c r="L251" s="18">
         <v>0</v>
       </c>
       <c r="M251" s="17">
         <v>0</v>
       </c>
-      <c r="N251" s="20">
-        <f>K251+L251</f>
+      <c r="N251" s="19">
+        <f t="shared" si="3"/>
         <v>0.16666666666666671</v>
       </c>
     </row>
@@ -36826,14 +36829,14 @@
       <c r="K252" s="14">
         <v>0.15789473684210531</v>
       </c>
-      <c r="L252" s="19">
+      <c r="L252" s="18">
         <v>0</v>
       </c>
       <c r="M252" s="17">
         <v>0</v>
       </c>
-      <c r="N252" s="20">
-        <f>K252+L252</f>
+      <c r="N252" s="19">
+        <f t="shared" si="3"/>
         <v>0.15789473684210531</v>
       </c>
     </row>
@@ -36857,7 +36860,7 @@
         <v>314</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H253" s="7">
         <v>39</v>
@@ -36871,14 +36874,14 @@
       <c r="K253" s="14">
         <v>0.15384615384615391</v>
       </c>
-      <c r="L253" s="19">
+      <c r="L253" s="18">
         <v>0</v>
       </c>
       <c r="M253" s="17">
         <v>0</v>
       </c>
-      <c r="N253" s="20">
-        <f>K253+L253</f>
+      <c r="N253" s="19">
+        <f t="shared" si="3"/>
         <v>0.15384615384615391</v>
       </c>
     </row>
@@ -36902,7 +36905,7 @@
         <v>314</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H254" s="7">
         <v>65</v>
@@ -36916,14 +36919,14 @@
       <c r="K254" s="14">
         <v>0.1384615384615385</v>
       </c>
-      <c r="L254" s="19">
+      <c r="L254" s="18">
         <v>0</v>
       </c>
       <c r="M254" s="17">
         <v>0</v>
       </c>
-      <c r="N254" s="20">
-        <f>K254+L254</f>
+      <c r="N254" s="19">
+        <f t="shared" si="3"/>
         <v>0.1384615384615385</v>
       </c>
     </row>
@@ -36961,14 +36964,14 @@
       <c r="K255" s="14">
         <v>0.1333333333333333</v>
       </c>
-      <c r="L255" s="19">
+      <c r="L255" s="18">
         <v>0</v>
       </c>
       <c r="M255" s="17">
         <v>0</v>
       </c>
-      <c r="N255" s="20">
-        <f>K255+L255</f>
+      <c r="N255" s="19">
+        <f t="shared" si="3"/>
         <v>0.1333333333333333</v>
       </c>
     </row>
@@ -37006,14 +37009,14 @@
       <c r="K256" s="14">
         <v>0.125</v>
       </c>
-      <c r="L256" s="19">
+      <c r="L256" s="18">
         <v>0</v>
       </c>
       <c r="M256" s="17">
         <v>0</v>
       </c>
-      <c r="N256" s="20">
-        <f>K256+L256</f>
+      <c r="N256" s="19">
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
@@ -37037,7 +37040,7 @@
         <v>310</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H257" s="7">
         <v>406</v>
@@ -37051,14 +37054,14 @@
       <c r="K257" s="14">
         <v>0.1206896551724138</v>
       </c>
-      <c r="L257" s="19">
+      <c r="L257" s="18">
         <v>0</v>
       </c>
       <c r="M257" s="17">
         <v>0</v>
       </c>
-      <c r="N257" s="20">
-        <f>K257+L257</f>
+      <c r="N257" s="19">
+        <f t="shared" si="3"/>
         <v>0.1206896551724138</v>
       </c>
     </row>
@@ -37096,14 +37099,14 @@
       <c r="K258" s="14">
         <v>0.1186161449752883</v>
       </c>
-      <c r="L258" s="19">
+      <c r="L258" s="18">
         <v>0</v>
       </c>
       <c r="M258" s="17">
         <v>0</v>
       </c>
-      <c r="N258" s="20">
-        <f>K258+L258</f>
+      <c r="N258" s="19">
+        <f t="shared" ref="N258:N290" si="4">K258+L258</f>
         <v>0.1186161449752883</v>
       </c>
     </row>
@@ -37141,14 +37144,14 @@
       <c r="K259" s="14">
         <v>0.1176470588235294</v>
       </c>
-      <c r="L259" s="19">
+      <c r="L259" s="18">
         <v>0</v>
       </c>
       <c r="M259" s="17">
         <v>0</v>
       </c>
-      <c r="N259" s="20">
-        <f>K259+L259</f>
+      <c r="N259" s="19">
+        <f t="shared" si="4"/>
         <v>0.1176470588235294</v>
       </c>
     </row>
@@ -37186,14 +37189,14 @@
       <c r="K260" s="14">
         <v>0.1176470588235294</v>
       </c>
-      <c r="L260" s="19">
+      <c r="L260" s="18">
         <v>0</v>
       </c>
       <c r="M260" s="17">
         <v>0</v>
       </c>
-      <c r="N260" s="20">
-        <f>K260+L260</f>
+      <c r="N260" s="19">
+        <f t="shared" si="4"/>
         <v>0.1176470588235294</v>
       </c>
     </row>
@@ -37231,14 +37234,14 @@
       <c r="K261" s="14">
         <v>0.1160714285714286</v>
       </c>
-      <c r="L261" s="19">
+      <c r="L261" s="18">
         <v>0</v>
       </c>
       <c r="M261" s="17">
         <v>0</v>
       </c>
-      <c r="N261" s="20">
-        <f>K261+L261</f>
+      <c r="N261" s="19">
+        <f t="shared" si="4"/>
         <v>0.1160714285714286</v>
       </c>
     </row>
@@ -37276,14 +37279,14 @@
       <c r="K262" s="14">
         <v>0.1142857142857143</v>
       </c>
-      <c r="L262" s="19">
+      <c r="L262" s="18">
         <v>0</v>
       </c>
       <c r="M262" s="17">
         <v>0</v>
       </c>
-      <c r="N262" s="20">
-        <f>K262+L262</f>
+      <c r="N262" s="19">
+        <f t="shared" si="4"/>
         <v>0.1142857142857143</v>
       </c>
     </row>
@@ -37307,7 +37310,7 @@
         <v>314</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H263" s="7">
         <v>251</v>
@@ -37321,14 +37324,14 @@
       <c r="K263" s="14">
         <v>0.11155378486055779</v>
       </c>
-      <c r="L263" s="19">
+      <c r="L263" s="18">
         <v>0</v>
       </c>
       <c r="M263" s="17">
         <v>0</v>
       </c>
-      <c r="N263" s="20">
-        <f>K263+L263</f>
+      <c r="N263" s="19">
+        <f t="shared" si="4"/>
         <v>0.11155378486055779</v>
       </c>
     </row>
@@ -37352,7 +37355,7 @@
         <v>314</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H264" s="7">
         <v>909</v>
@@ -37366,14 +37369,14 @@
       <c r="K264" s="14">
         <v>0.1056105610561056</v>
       </c>
-      <c r="L264" s="19">
+      <c r="L264" s="18">
         <v>0</v>
       </c>
       <c r="M264" s="17">
         <v>0</v>
       </c>
-      <c r="N264" s="20">
-        <f>K264+L264</f>
+      <c r="N264" s="19">
+        <f t="shared" si="4"/>
         <v>0.1056105610561056</v>
       </c>
     </row>
@@ -37397,7 +37400,7 @@
         <v>312</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H265" s="7">
         <v>19</v>
@@ -37411,14 +37414,14 @@
       <c r="K265" s="14">
         <v>0.10526315789473679</v>
       </c>
-      <c r="L265" s="19">
+      <c r="L265" s="18">
         <v>0</v>
       </c>
       <c r="M265" s="17">
         <v>0</v>
       </c>
-      <c r="N265" s="20">
-        <f>K265+L265</f>
+      <c r="N265" s="19">
+        <f t="shared" si="4"/>
         <v>0.10526315789473679</v>
       </c>
     </row>
@@ -37456,14 +37459,14 @@
       <c r="K266" s="14">
         <v>9.8765432098765427E-2</v>
       </c>
-      <c r="L266" s="19">
+      <c r="L266" s="18">
         <v>0</v>
       </c>
       <c r="M266" s="17">
         <v>0</v>
       </c>
-      <c r="N266" s="20">
-        <f>K266+L266</f>
+      <c r="N266" s="19">
+        <f t="shared" si="4"/>
         <v>9.8765432098765427E-2</v>
       </c>
     </row>
@@ -37501,14 +37504,14 @@
       <c r="K267" s="14">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="L267" s="19">
+      <c r="L267" s="18">
         <v>0</v>
       </c>
       <c r="M267" s="17">
         <v>0</v>
       </c>
-      <c r="N267" s="20">
-        <f>K267+L267</f>
+      <c r="N267" s="19">
+        <f t="shared" si="4"/>
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
@@ -37546,14 +37549,14 @@
       <c r="K268" s="14">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="L268" s="19">
+      <c r="L268" s="18">
         <v>0</v>
       </c>
       <c r="M268" s="17">
         <v>0</v>
       </c>
-      <c r="N268" s="20">
-        <f>K268+L268</f>
+      <c r="N268" s="19">
+        <f t="shared" si="4"/>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
@@ -37591,14 +37594,14 @@
       <c r="K269" s="14">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="L269" s="19">
+      <c r="L269" s="18">
         <v>0</v>
       </c>
       <c r="M269" s="17">
         <v>0</v>
       </c>
-      <c r="N269" s="20">
-        <f>K269+L269</f>
+      <c r="N269" s="19">
+        <f t="shared" si="4"/>
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -37636,14 +37639,14 @@
       <c r="K270" s="14">
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="L270" s="19">
+      <c r="L270" s="18">
         <v>0</v>
       </c>
       <c r="M270" s="17">
         <v>0</v>
       </c>
-      <c r="N270" s="20">
-        <f>K270+L270</f>
+      <c r="N270" s="19">
+        <f t="shared" si="4"/>
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
@@ -37681,14 +37684,14 @@
       <c r="K271" s="14">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L271" s="19">
+      <c r="L271" s="18">
         <v>0</v>
       </c>
       <c r="M271" s="17">
         <v>0</v>
       </c>
-      <c r="N271" s="20">
-        <f>K271+L271</f>
+      <c r="N271" s="19">
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -37712,7 +37715,7 @@
         <v>314</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H272" s="7">
         <v>426</v>
@@ -37726,14 +37729,14 @@
       <c r="K272" s="14">
         <v>6.5727699530516437E-2</v>
       </c>
-      <c r="L272" s="19">
+      <c r="L272" s="18">
         <v>0</v>
       </c>
       <c r="M272" s="17">
         <v>0</v>
       </c>
-      <c r="N272" s="20">
-        <f>K272+L272</f>
+      <c r="N272" s="19">
+        <f t="shared" si="4"/>
         <v>6.5727699530516437E-2</v>
       </c>
     </row>
@@ -37757,7 +37760,7 @@
         <v>314</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H273" s="7">
         <v>181</v>
@@ -37771,14 +37774,14 @@
       <c r="K273" s="14">
         <v>5.5248618784530378E-2</v>
       </c>
-      <c r="L273" s="19">
+      <c r="L273" s="18">
         <v>0</v>
       </c>
       <c r="M273" s="17">
         <v>0</v>
       </c>
-      <c r="N273" s="20">
-        <f>K273+L273</f>
+      <c r="N273" s="19">
+        <f t="shared" si="4"/>
         <v>5.5248618784530378E-2</v>
       </c>
     </row>
@@ -37802,7 +37805,7 @@
         <v>314</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H274" s="7">
         <v>516</v>
@@ -37816,14 +37819,14 @@
       <c r="K274" s="14">
         <v>5.4263565891472867E-2</v>
       </c>
-      <c r="L274" s="19">
+      <c r="L274" s="18">
         <v>0</v>
       </c>
       <c r="M274" s="17">
         <v>0</v>
       </c>
-      <c r="N274" s="20">
-        <f>K274+L274</f>
+      <c r="N274" s="19">
+        <f t="shared" si="4"/>
         <v>5.4263565891472867E-2</v>
       </c>
     </row>
@@ -37847,7 +37850,7 @@
         <v>314</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H275" s="7">
         <v>472</v>
@@ -37861,14 +37864,14 @@
       <c r="K275" s="14">
         <v>5.2966101694915252E-2</v>
       </c>
-      <c r="L275" s="19">
+      <c r="L275" s="18">
         <v>0</v>
       </c>
       <c r="M275" s="17">
         <v>0</v>
       </c>
-      <c r="N275" s="20">
-        <f>K275+L275</f>
+      <c r="N275" s="19">
+        <f t="shared" si="4"/>
         <v>5.2966101694915252E-2</v>
       </c>
     </row>
@@ -37892,7 +37895,7 @@
         <v>314</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H276" s="7">
         <v>38</v>
@@ -37906,14 +37909,14 @@
       <c r="K276" s="14">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="L276" s="19">
+      <c r="L276" s="18">
         <v>0</v>
       </c>
       <c r="M276" s="17">
         <v>0</v>
       </c>
-      <c r="N276" s="20">
-        <f>K276+L276</f>
+      <c r="N276" s="19">
+        <f t="shared" si="4"/>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -37951,14 +37954,14 @@
       <c r="K277" s="14">
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="L277" s="19">
+      <c r="L277" s="18">
         <v>0</v>
       </c>
       <c r="M277" s="17">
         <v>0</v>
       </c>
-      <c r="N277" s="20">
-        <f>K277+L277</f>
+      <c r="N277" s="19">
+        <f t="shared" si="4"/>
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
@@ -37996,14 +37999,14 @@
       <c r="K278" s="14">
         <v>3.7313432835820892E-2</v>
       </c>
-      <c r="L278" s="19">
+      <c r="L278" s="18">
         <v>0</v>
       </c>
       <c r="M278" s="17">
         <v>0</v>
       </c>
-      <c r="N278" s="20">
-        <f>K278+L278</f>
+      <c r="N278" s="19">
+        <f t="shared" si="4"/>
         <v>3.7313432835820892E-2</v>
       </c>
     </row>
@@ -38041,14 +38044,14 @@
       <c r="K279" s="14">
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="L279" s="19">
+      <c r="L279" s="18">
         <v>0</v>
       </c>
       <c r="M279" s="17">
         <v>0</v>
       </c>
-      <c r="N279" s="20">
-        <f>K279+L279</f>
+      <c r="N279" s="19">
+        <f t="shared" si="4"/>
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
@@ -38086,14 +38089,14 @@
       <c r="K280" s="14">
         <v>3.4934497816593878E-2</v>
       </c>
-      <c r="L280" s="19">
+      <c r="L280" s="18">
         <v>0</v>
       </c>
       <c r="M280" s="17">
         <v>0</v>
       </c>
-      <c r="N280" s="20">
-        <f>K280+L280</f>
+      <c r="N280" s="19">
+        <f t="shared" si="4"/>
         <v>3.4934497816593878E-2</v>
       </c>
     </row>
@@ -38117,7 +38120,7 @@
         <v>314</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H281" s="7">
         <v>202</v>
@@ -38131,14 +38134,14 @@
       <c r="K281" s="14">
         <v>2.475247524752475E-2</v>
       </c>
-      <c r="L281" s="19">
+      <c r="L281" s="18">
         <v>0</v>
       </c>
       <c r="M281" s="17">
         <v>0</v>
       </c>
-      <c r="N281" s="20">
-        <f>K281+L281</f>
+      <c r="N281" s="19">
+        <f t="shared" si="4"/>
         <v>2.475247524752475E-2</v>
       </c>
     </row>
@@ -38162,7 +38165,7 @@
         <v>314</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H282" s="7">
         <v>156</v>
@@ -38176,14 +38179,14 @@
       <c r="K282" s="14">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="L282" s="19">
+      <c r="L282" s="18">
         <v>0</v>
       </c>
       <c r="M282" s="17">
         <v>0</v>
       </c>
-      <c r="N282" s="21">
-        <f>K282+L282</f>
+      <c r="N282" s="20">
+        <f t="shared" si="4"/>
         <v>1.282051282051282E-2</v>
       </c>
     </row>
@@ -38221,14 +38224,14 @@
       <c r="K283" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L283" s="19">
+      <c r="L283" s="18">
         <v>0</v>
       </c>
       <c r="M283" s="17">
         <v>0</v>
       </c>
-      <c r="N283" s="21">
-        <f>K283+L283</f>
+      <c r="N283" s="20">
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -38252,7 +38255,7 @@
         <v>314</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H284" s="7">
         <v>553</v>
@@ -38266,14 +38269,14 @@
       <c r="K284" s="14">
         <v>7.2332730560578659E-3</v>
       </c>
-      <c r="L284" s="19">
+      <c r="L284" s="18">
         <v>0</v>
       </c>
       <c r="M284" s="17">
         <v>0</v>
       </c>
-      <c r="N284" s="21">
-        <f>K284+L284</f>
+      <c r="N284" s="20">
+        <f t="shared" si="4"/>
         <v>7.2332730560578659E-3</v>
       </c>
     </row>
@@ -38311,14 +38314,14 @@
       <c r="K285" s="14">
         <v>4.418262150220913E-3</v>
       </c>
-      <c r="L285" s="19">
+      <c r="L285" s="18">
         <v>0</v>
       </c>
       <c r="M285" s="17">
         <v>0</v>
       </c>
-      <c r="N285" s="21">
-        <f>K285+L285</f>
+      <c r="N285" s="20">
+        <f t="shared" si="4"/>
         <v>4.418262150220913E-3</v>
       </c>
     </row>
@@ -38342,7 +38345,7 @@
         <v>314</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="H286" s="7">
         <v>25</v>
@@ -38356,14 +38359,14 @@
       <c r="K286" s="14">
         <v>0</v>
       </c>
-      <c r="L286" s="19">
+      <c r="L286" s="18">
         <v>0</v>
       </c>
       <c r="M286" s="17">
         <v>0</v>
       </c>
-      <c r="N286" s="21">
-        <f>K286+L286</f>
+      <c r="N286" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -38401,14 +38404,14 @@
       <c r="K287" s="14">
         <v>0</v>
       </c>
-      <c r="L287" s="19">
+      <c r="L287" s="18">
         <v>0</v>
       </c>
       <c r="M287" s="17">
         <v>0</v>
       </c>
-      <c r="N287" s="21">
-        <f>K287+L287</f>
+      <c r="N287" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -38446,14 +38449,14 @@
       <c r="K288" s="14">
         <v>0</v>
       </c>
-      <c r="L288" s="19">
+      <c r="L288" s="18">
         <v>0</v>
       </c>
       <c r="M288" s="17">
         <v>0</v>
       </c>
-      <c r="N288" s="21">
-        <f>K288+L288</f>
+      <c r="N288" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -38477,7 +38480,7 @@
         <v>314</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H289" s="7">
         <v>82</v>
@@ -38491,14 +38494,14 @@
       <c r="K289" s="14">
         <v>0</v>
       </c>
-      <c r="L289" s="19">
+      <c r="L289" s="18">
         <v>0</v>
       </c>
       <c r="M289" s="17">
         <v>0</v>
       </c>
-      <c r="N289" s="21">
-        <f>K289+L289</f>
+      <c r="N289" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -38536,14 +38539,14 @@
       <c r="K290" s="14">
         <v>0</v>
       </c>
-      <c r="L290" s="19">
+      <c r="L290" s="18">
         <v>0</v>
       </c>
       <c r="M290" s="17">
         <v>0</v>
       </c>
-      <c r="N290" s="21">
-        <f>K290+L290</f>
+      <c r="N290" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -39080,14 +39083,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -39417,11 +39420,11 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP($A15,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(C15,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>VLOOKUP($A15,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39442,11 +39445,11 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP($A16,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(C16,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <f>VLOOKUP($A16,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39467,11 +39470,11 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP($A17,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(C17,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>VLOOKUP($A17,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39492,11 +39495,11 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP($A18,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(C18,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f>VLOOKUP($A18,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39517,11 +39520,11 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP($A19,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(C19,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>VLOOKUP($A19,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39542,11 +39545,11 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP($A20,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(C20,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f>VLOOKUP($A20,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40134,11 +40137,11 @@
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP($A44,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(C44,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <f>VLOOKUP($A44,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40159,11 +40162,11 @@
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP($A45,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D45">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D45" t="e">
         <f>VLOOKUP(C45,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E45">
         <f>VLOOKUP($A45,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40184,11 +40187,11 @@
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP($A46,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D46">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D46" t="e">
         <f>VLOOKUP(C46,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E46">
         <f>VLOOKUP($A46,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40209,11 +40212,11 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP($A47,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D47">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D47" t="e">
         <f>VLOOKUP(C47,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E47">
         <f>VLOOKUP($A47,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40234,11 +40237,11 @@
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP($A48,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D48">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D48" t="e">
         <f>VLOOKUP(C48,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E48">
         <f>VLOOKUP($A48,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41326,11 +41329,11 @@
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP($A92,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D92">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D92" t="e">
         <f>VLOOKUP(C92,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E92">
         <f>VLOOKUP($A92,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41351,11 +41354,11 @@
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP($A93,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D93">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D93" t="e">
         <f>VLOOKUP(C93,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E93">
         <f>VLOOKUP($A93,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41376,11 +41379,11 @@
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP($A94,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D94">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D94" t="e">
         <f>VLOOKUP(C94,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E94">
         <f>VLOOKUP($A94,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41401,11 +41404,11 @@
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP($A95,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D95">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D95" t="e">
         <f>VLOOKUP(C95,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E95">
         <f>VLOOKUP($A95,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41426,11 +41429,11 @@
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP($A96,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D96">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D96" t="e">
         <f>VLOOKUP(C96,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E96">
         <f>VLOOKUP($A96,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41451,11 +41454,11 @@
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP($A97,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D97">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D97" t="e">
         <f>VLOOKUP(C97,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E97">
         <f>VLOOKUP($A97,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41476,11 +41479,11 @@
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP($A98,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D98">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D98" t="e">
         <f>VLOOKUP(C98,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E98">
         <f>VLOOKUP($A98,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41501,11 +41504,11 @@
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP($A99,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D99">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D99" t="e">
         <f>VLOOKUP(C99,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E99">
         <f>VLOOKUP($A99,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41526,11 +41529,11 @@
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP($A100,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D100">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D100" t="e">
         <f>VLOOKUP(C100,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E100">
         <f>VLOOKUP($A100,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41551,11 +41554,11 @@
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP($A101,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D101">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D101" t="e">
         <f>VLOOKUP(C101,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E101">
         <f>VLOOKUP($A101,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41576,11 +41579,11 @@
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP($A102,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D102">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D102" t="e">
         <f>VLOOKUP(C102,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E102">
         <f>VLOOKUP($A102,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42068,11 +42071,11 @@
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP($A122,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(C122,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <f>VLOOKUP($A122,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42093,11 +42096,11 @@
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP($A123,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(C123,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <f>VLOOKUP($A123,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42118,11 +42121,11 @@
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP($A124,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(C124,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <f>VLOOKUP($A124,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42143,11 +42146,11 @@
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP($A125,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(C125,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <f>VLOOKUP($A125,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42168,11 +42171,11 @@
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP($A126,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(C126,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <f>VLOOKUP($A126,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42193,11 +42196,11 @@
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP($A127,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(C127,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <f>VLOOKUP($A127,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42218,11 +42221,11 @@
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP($A128,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(C128,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <f>VLOOKUP($A128,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42243,11 +42246,11 @@
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP($A129,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(C129,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <f>VLOOKUP($A129,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42268,11 +42271,11 @@
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP($A130,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(C130,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <f>VLOOKUP($A130,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42293,11 +42296,11 @@
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP($A131,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(C131,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <f>VLOOKUP($A131,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42318,11 +42321,11 @@
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP($A132,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(C132,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <f>VLOOKUP($A132,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42343,11 +42346,11 @@
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP($A133,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(C133,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <f>VLOOKUP($A133,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42368,11 +42371,11 @@
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP($A134,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(C134,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <f>VLOOKUP($A134,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42393,11 +42396,11 @@
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP($A135,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(C135,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <f>VLOOKUP($A135,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42418,11 +42421,11 @@
       </c>
       <c r="C136" t="str">
         <f>VLOOKUP($A136,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(C136,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <f>VLOOKUP($A136,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42443,11 +42446,11 @@
       </c>
       <c r="C137" t="str">
         <f>VLOOKUP($A137,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(C137,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <f>VLOOKUP($A137,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42468,11 +42471,11 @@
       </c>
       <c r="C138" t="str">
         <f>VLOOKUP($A138,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(C138,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <f>VLOOKUP($A138,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42493,11 +42496,11 @@
       </c>
       <c r="C139" t="str">
         <f>VLOOKUP($A139,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(C139,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <f>VLOOKUP($A139,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42518,11 +42521,11 @@
       </c>
       <c r="C140" t="str">
         <f>VLOOKUP($A140,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(C140,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <f>VLOOKUP($A140,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42543,11 +42546,11 @@
       </c>
       <c r="C141" t="str">
         <f>VLOOKUP($A141,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(C141,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <f>VLOOKUP($A141,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42568,11 +42571,11 @@
       </c>
       <c r="C142" t="str">
         <f>VLOOKUP($A142,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(C142,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <f>VLOOKUP($A142,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42593,11 +42596,11 @@
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP($A143,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(C143,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <f>VLOOKUP($A143,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42618,11 +42621,11 @@
       </c>
       <c r="C144" t="str">
         <f>VLOOKUP($A144,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D144">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D144" t="e">
         <f>VLOOKUP(C144,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E144">
         <f>VLOOKUP($A144,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42643,11 +42646,11 @@
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP($A145,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D145">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D145" t="e">
         <f>VLOOKUP(C145,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E145">
         <f>VLOOKUP($A145,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43385,11 +43388,11 @@
       </c>
       <c r="C175" t="str">
         <f>VLOOKUP($A175,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(C175,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <f>VLOOKUP($A175,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43410,11 +43413,11 @@
       </c>
       <c r="C176" t="str">
         <f>VLOOKUP($A176,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(C176,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <f>VLOOKUP($A176,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43435,11 +43438,11 @@
       </c>
       <c r="C177" t="str">
         <f>VLOOKUP($A177,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(C177,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <f>VLOOKUP($A177,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43460,11 +43463,11 @@
       </c>
       <c r="C178" t="str">
         <f>VLOOKUP($A178,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(C178,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <f>VLOOKUP($A178,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43485,11 +43488,11 @@
       </c>
       <c r="C179" t="str">
         <f>VLOOKUP($A179,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(C179,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <f>VLOOKUP($A179,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43510,11 +43513,11 @@
       </c>
       <c r="C180" t="str">
         <f>VLOOKUP($A180,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D180">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D180" t="e">
         <f>VLOOKUP(C180,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E180">
         <f>VLOOKUP($A180,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43535,11 +43538,11 @@
       </c>
       <c r="C181" t="str">
         <f>VLOOKUP($A181,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D181">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D181" t="e">
         <f>VLOOKUP(C181,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E181">
         <f>VLOOKUP($A181,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43560,11 +43563,11 @@
       </c>
       <c r="C182" t="str">
         <f>VLOOKUP($A182,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D182">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D182" t="e">
         <f>VLOOKUP(C182,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E182">
         <f>VLOOKUP($A182,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43585,11 +43588,11 @@
       </c>
       <c r="C183" t="str">
         <f>VLOOKUP($A183,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D183">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D183" t="e">
         <f>VLOOKUP(C183,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E183">
         <f>VLOOKUP($A183,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43610,11 +43613,11 @@
       </c>
       <c r="C184" t="str">
         <f>VLOOKUP($A184,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D184">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D184" t="e">
         <f>VLOOKUP(C184,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E184">
         <f>VLOOKUP($A184,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43635,11 +43638,11 @@
       </c>
       <c r="C185" t="str">
         <f>VLOOKUP($A185,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D185">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D185" t="e">
         <f>VLOOKUP(C185,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E185">
         <f>VLOOKUP($A185,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43660,11 +43663,11 @@
       </c>
       <c r="C186" t="str">
         <f>VLOOKUP($A186,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D186">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D186" t="e">
         <f>VLOOKUP(C186,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E186">
         <f>VLOOKUP($A186,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43685,11 +43688,11 @@
       </c>
       <c r="C187" t="str">
         <f>VLOOKUP($A187,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D187">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D187" t="e">
         <f>VLOOKUP(C187,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E187">
         <f>VLOOKUP($A187,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43710,11 +43713,11 @@
       </c>
       <c r="C188" t="str">
         <f>VLOOKUP($A188,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D188">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D188" t="e">
         <f>VLOOKUP(C188,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E188">
         <f>VLOOKUP($A188,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43735,11 +43738,11 @@
       </c>
       <c r="C189" t="str">
         <f>VLOOKUP($A189,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D189">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D189" t="e">
         <f>VLOOKUP(C189,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E189">
         <f>VLOOKUP($A189,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43760,11 +43763,11 @@
       </c>
       <c r="C190" t="str">
         <f>VLOOKUP($A190,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D190">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D190" t="e">
         <f>VLOOKUP(C190,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E190">
         <f>VLOOKUP($A190,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43785,11 +43788,11 @@
       </c>
       <c r="C191" t="str">
         <f>VLOOKUP($A191,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D191">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D191" t="e">
         <f>VLOOKUP(C191,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E191">
         <f>VLOOKUP($A191,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43810,11 +43813,11 @@
       </c>
       <c r="C192" t="str">
         <f>VLOOKUP($A192,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D192">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D192" t="e">
         <f>VLOOKUP(C192,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E192">
         <f>VLOOKUP($A192,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43835,11 +43838,11 @@
       </c>
       <c r="C193" t="str">
         <f>VLOOKUP($A193,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D193">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D193" t="e">
         <f>VLOOKUP(C193,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E193">
         <f>VLOOKUP($A193,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43860,11 +43863,11 @@
       </c>
       <c r="C194" t="str">
         <f>VLOOKUP($A194,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D194">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D194" t="e">
         <f>VLOOKUP(C194,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E194">
         <f>VLOOKUP($A194,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43885,11 +43888,11 @@
       </c>
       <c r="C195" t="str">
         <f>VLOOKUP($A195,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D195">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D195" t="e">
         <f>VLOOKUP(C195,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E195">
         <f>VLOOKUP($A195,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43910,11 +43913,11 @@
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP($A196,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D196">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D196" t="e">
         <f>VLOOKUP(C196,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E196">
         <f>VLOOKUP($A196,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43935,11 +43938,11 @@
       </c>
       <c r="C197" t="str">
         <f>VLOOKUP($A197,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D197">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D197" t="e">
         <f>VLOOKUP(C197,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E197">
         <f>VLOOKUP($A197,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43960,11 +43963,11 @@
       </c>
       <c r="C198" t="str">
         <f>VLOOKUP($A198,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D198">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D198" t="e">
         <f>VLOOKUP(C198,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E198">
         <f>VLOOKUP($A198,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43985,11 +43988,11 @@
       </c>
       <c r="C199" t="str">
         <f>VLOOKUP($A199,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D199">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D199" t="e">
         <f>VLOOKUP(C199,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E199">
         <f>VLOOKUP($A199,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44010,11 +44013,11 @@
       </c>
       <c r="C200" t="str">
         <f>VLOOKUP($A200,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D200">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D200" t="e">
         <f>VLOOKUP(C200,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E200">
         <f>VLOOKUP($A200,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44035,11 +44038,11 @@
       </c>
       <c r="C201" t="str">
         <f>VLOOKUP($A201,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D201">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D201" t="e">
         <f>VLOOKUP(C201,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E201">
         <f>VLOOKUP($A201,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44060,11 +44063,11 @@
       </c>
       <c r="C202" t="str">
         <f>VLOOKUP($A202,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D202">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D202" t="e">
         <f>VLOOKUP(C202,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E202">
         <f>VLOOKUP($A202,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44110,11 +44113,11 @@
       </c>
       <c r="C204" t="str">
         <f>VLOOKUP($A204,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D204">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D204" t="e">
         <f>VLOOKUP(C204,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E204">
         <f>VLOOKUP($A204,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44135,11 +44138,11 @@
       </c>
       <c r="C205" t="str">
         <f>VLOOKUP($A205,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D205">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D205" t="e">
         <f>VLOOKUP(C205,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E205">
         <f>VLOOKUP($A205,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44160,11 +44163,11 @@
       </c>
       <c r="C206" t="str">
         <f>VLOOKUP($A206,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D206">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D206" t="e">
         <f>VLOOKUP(C206,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E206">
         <f>VLOOKUP($A206,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44185,11 +44188,11 @@
       </c>
       <c r="C207" t="str">
         <f>VLOOKUP($A207,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D207">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D207" t="e">
         <f>VLOOKUP(C207,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E207">
         <f>VLOOKUP($A207,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44210,11 +44213,11 @@
       </c>
       <c r="C208" t="str">
         <f>VLOOKUP($A208,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D208">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D208" t="e">
         <f>VLOOKUP(C208,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E208">
         <f>VLOOKUP($A208,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44235,11 +44238,11 @@
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP($A209,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D209">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D209" t="e">
         <f>VLOOKUP(C209,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E209">
         <f>VLOOKUP($A209,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44260,11 +44263,11 @@
       </c>
       <c r="C210" t="str">
         <f>VLOOKUP($A210,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D210">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D210" t="e">
         <f>VLOOKUP(C210,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E210">
         <f>VLOOKUP($A210,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44285,11 +44288,11 @@
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP($A211,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D211">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D211" t="e">
         <f>VLOOKUP(C211,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E211">
         <f>VLOOKUP($A211,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45327,11 +45330,11 @@
       </c>
       <c r="C253" t="str">
         <f>VLOOKUP($A253,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D253">
         <f>VLOOKUP(C253,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253">
         <f>VLOOKUP($A253,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45352,11 +45355,11 @@
       </c>
       <c r="C254" t="str">
         <f>VLOOKUP($A254,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D254">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D254" t="e">
         <f>VLOOKUP(C254,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E254">
         <f>VLOOKUP($A254,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45377,11 +45380,11 @@
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP($A255,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D255">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D255" t="e">
         <f>VLOOKUP(C255,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E255">
         <f>VLOOKUP($A255,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45402,11 +45405,11 @@
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP($A256,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D256">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D256" t="e">
         <f>VLOOKUP(C256,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E256">
         <f>VLOOKUP($A256,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45427,11 +45430,11 @@
       </c>
       <c r="C257" t="str">
         <f>VLOOKUP($A257,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D257">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D257" t="e">
         <f>VLOOKUP(C257,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E257">
         <f>VLOOKUP($A257,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45452,11 +45455,11 @@
       </c>
       <c r="C258" t="str">
         <f>VLOOKUP($A258,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D258">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D258" t="e">
         <f>VLOOKUP(C258,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E258">
         <f>VLOOKUP($A258,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46473,14 +46476,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -46810,11 +46813,11 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP($A15,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(C15,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>VLOOKUP($A15,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46835,11 +46838,11 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP($A16,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(C16,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <f>VLOOKUP($A16,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46860,11 +46863,11 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP($A17,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(C17,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>VLOOKUP($A17,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46885,11 +46888,11 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP($A18,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(C18,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f>VLOOKUP($A18,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46910,11 +46913,11 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP($A19,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(C19,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>VLOOKUP($A19,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46935,11 +46938,11 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP($A20,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(C20,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f>VLOOKUP($A20,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47527,11 +47530,11 @@
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP($A44,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(C44,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <f>VLOOKUP($A44,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47552,11 +47555,11 @@
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP($A45,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D45">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D45" t="e">
         <f>VLOOKUP(C45,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E45">
         <f>VLOOKUP($A45,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47577,11 +47580,11 @@
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP($A46,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D46">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D46" t="e">
         <f>VLOOKUP(C46,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E46">
         <f>VLOOKUP($A46,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47602,11 +47605,11 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP($A47,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D47">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D47" t="e">
         <f>VLOOKUP(C47,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E47">
         <f>VLOOKUP($A47,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47627,11 +47630,11 @@
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP($A48,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D48">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D48" t="e">
         <f>VLOOKUP(C48,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E48">
         <f>VLOOKUP($A48,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48719,11 +48722,11 @@
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP($A92,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D92">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D92" t="e">
         <f>VLOOKUP(C92,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E92">
         <f>VLOOKUP($A92,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48744,11 +48747,11 @@
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP($A93,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D93">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D93" t="e">
         <f>VLOOKUP(C93,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E93">
         <f>VLOOKUP($A93,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48769,11 +48772,11 @@
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP($A94,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D94">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D94" t="e">
         <f>VLOOKUP(C94,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E94">
         <f>VLOOKUP($A94,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48794,11 +48797,11 @@
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP($A95,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D95">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D95" t="e">
         <f>VLOOKUP(C95,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E95">
         <f>VLOOKUP($A95,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48819,11 +48822,11 @@
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP($A96,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D96">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D96" t="e">
         <f>VLOOKUP(C96,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E96">
         <f>VLOOKUP($A96,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48844,11 +48847,11 @@
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP($A97,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D97">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D97" t="e">
         <f>VLOOKUP(C97,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E97">
         <f>VLOOKUP($A97,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48869,11 +48872,11 @@
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP($A98,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D98">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D98" t="e">
         <f>VLOOKUP(C98,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E98">
         <f>VLOOKUP($A98,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48894,11 +48897,11 @@
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP($A99,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D99">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D99" t="e">
         <f>VLOOKUP(C99,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E99">
         <f>VLOOKUP($A99,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48919,11 +48922,11 @@
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP($A100,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D100">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D100" t="e">
         <f>VLOOKUP(C100,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E100">
         <f>VLOOKUP($A100,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48944,11 +48947,11 @@
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP($A101,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D101">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D101" t="e">
         <f>VLOOKUP(C101,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E101">
         <f>VLOOKUP($A101,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48969,11 +48972,11 @@
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP($A102,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D102">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D102" t="e">
         <f>VLOOKUP(C102,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E102">
         <f>VLOOKUP($A102,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49461,11 +49464,11 @@
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP($A122,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(C122,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <f>VLOOKUP($A122,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49486,11 +49489,11 @@
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP($A123,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(C123,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <f>VLOOKUP($A123,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49511,11 +49514,11 @@
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP($A124,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(C124,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <f>VLOOKUP($A124,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49536,11 +49539,11 @@
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP($A125,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(C125,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <f>VLOOKUP($A125,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49561,11 +49564,11 @@
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP($A126,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(C126,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <f>VLOOKUP($A126,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49586,11 +49589,11 @@
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP($A127,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(C127,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <f>VLOOKUP($A127,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49611,11 +49614,11 @@
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP($A128,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(C128,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <f>VLOOKUP($A128,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49636,11 +49639,11 @@
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP($A129,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(C129,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <f>VLOOKUP($A129,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49661,11 +49664,11 @@
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP($A130,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(C130,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <f>VLOOKUP($A130,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49686,11 +49689,11 @@
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP($A131,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(C131,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <f>VLOOKUP($A131,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49711,11 +49714,11 @@
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP($A132,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(C132,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <f>VLOOKUP($A132,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49736,11 +49739,11 @@
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP($A133,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(C133,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <f>VLOOKUP($A133,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49761,11 +49764,11 @@
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP($A134,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(C134,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <f>VLOOKUP($A134,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49786,11 +49789,11 @@
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP($A135,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(C135,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <f>VLOOKUP($A135,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49811,11 +49814,11 @@
       </c>
       <c r="C136" t="str">
         <f>VLOOKUP($A136,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(C136,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <f>VLOOKUP($A136,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49836,11 +49839,11 @@
       </c>
       <c r="C137" t="str">
         <f>VLOOKUP($A137,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(C137,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <f>VLOOKUP($A137,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49861,11 +49864,11 @@
       </c>
       <c r="C138" t="str">
         <f>VLOOKUP($A138,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(C138,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <f>VLOOKUP($A138,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49886,11 +49889,11 @@
       </c>
       <c r="C139" t="str">
         <f>VLOOKUP($A139,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(C139,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <f>VLOOKUP($A139,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49911,11 +49914,11 @@
       </c>
       <c r="C140" t="str">
         <f>VLOOKUP($A140,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(C140,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <f>VLOOKUP($A140,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49936,11 +49939,11 @@
       </c>
       <c r="C141" t="str">
         <f>VLOOKUP($A141,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(C141,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <f>VLOOKUP($A141,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49961,11 +49964,11 @@
       </c>
       <c r="C142" t="str">
         <f>VLOOKUP($A142,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(C142,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <f>VLOOKUP($A142,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49986,11 +49989,11 @@
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP($A143,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Nemocnice</v>
+        <v>Ostatní</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(C143,Types!$A$2:$B$6,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <f>VLOOKUP($A143,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50011,11 +50014,11 @@
       </c>
       <c r="C144" t="str">
         <f>VLOOKUP($A144,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D144">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D144" t="e">
         <f>VLOOKUP(C144,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E144">
         <f>VLOOKUP($A144,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50036,11 +50039,11 @@
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP($A145,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D145">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D145" t="e">
         <f>VLOOKUP(C145,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E145">
         <f>VLOOKUP($A145,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50778,11 +50781,11 @@
       </c>
       <c r="C175" t="str">
         <f>VLOOKUP($A175,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(C175,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <f>VLOOKUP($A175,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50803,11 +50806,11 @@
       </c>
       <c r="C176" t="str">
         <f>VLOOKUP($A176,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(C176,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <f>VLOOKUP($A176,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50828,11 +50831,11 @@
       </c>
       <c r="C177" t="str">
         <f>VLOOKUP($A177,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(C177,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <f>VLOOKUP($A177,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50853,11 +50856,11 @@
       </c>
       <c r="C178" t="str">
         <f>VLOOKUP($A178,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(C178,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <f>VLOOKUP($A178,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50878,11 +50881,11 @@
       </c>
       <c r="C179" t="str">
         <f>VLOOKUP($A179,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(C179,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <f>VLOOKUP($A179,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50903,11 +50906,11 @@
       </c>
       <c r="C180" t="str">
         <f>VLOOKUP($A180,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D180">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D180" t="e">
         <f>VLOOKUP(C180,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E180">
         <f>VLOOKUP($A180,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50928,11 +50931,11 @@
       </c>
       <c r="C181" t="str">
         <f>VLOOKUP($A181,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D181">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D181" t="e">
         <f>VLOOKUP(C181,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E181">
         <f>VLOOKUP($A181,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50953,11 +50956,11 @@
       </c>
       <c r="C182" t="str">
         <f>VLOOKUP($A182,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D182">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D182" t="e">
         <f>VLOOKUP(C182,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E182">
         <f>VLOOKUP($A182,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50978,11 +50981,11 @@
       </c>
       <c r="C183" t="str">
         <f>VLOOKUP($A183,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D183">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D183" t="e">
         <f>VLOOKUP(C183,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E183">
         <f>VLOOKUP($A183,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51003,11 +51006,11 @@
       </c>
       <c r="C184" t="str">
         <f>VLOOKUP($A184,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D184">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D184" t="e">
         <f>VLOOKUP(C184,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E184">
         <f>VLOOKUP($A184,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51028,11 +51031,11 @@
       </c>
       <c r="C185" t="str">
         <f>VLOOKUP($A185,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D185">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D185" t="e">
         <f>VLOOKUP(C185,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E185">
         <f>VLOOKUP($A185,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51053,11 +51056,11 @@
       </c>
       <c r="C186" t="str">
         <f>VLOOKUP($A186,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D186">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D186" t="e">
         <f>VLOOKUP(C186,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E186">
         <f>VLOOKUP($A186,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51078,11 +51081,11 @@
       </c>
       <c r="C187" t="str">
         <f>VLOOKUP($A187,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D187">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D187" t="e">
         <f>VLOOKUP(C187,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E187">
         <f>VLOOKUP($A187,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51103,11 +51106,11 @@
       </c>
       <c r="C188" t="str">
         <f>VLOOKUP($A188,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D188">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D188" t="e">
         <f>VLOOKUP(C188,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E188">
         <f>VLOOKUP($A188,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51128,11 +51131,11 @@
       </c>
       <c r="C189" t="str">
         <f>VLOOKUP($A189,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D189">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D189" t="e">
         <f>VLOOKUP(C189,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E189">
         <f>VLOOKUP($A189,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51153,11 +51156,11 @@
       </c>
       <c r="C190" t="str">
         <f>VLOOKUP($A190,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D190">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D190" t="e">
         <f>VLOOKUP(C190,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E190">
         <f>VLOOKUP($A190,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51178,11 +51181,11 @@
       </c>
       <c r="C191" t="str">
         <f>VLOOKUP($A191,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D191">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D191" t="e">
         <f>VLOOKUP(C191,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E191">
         <f>VLOOKUP($A191,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51203,11 +51206,11 @@
       </c>
       <c r="C192" t="str">
         <f>VLOOKUP($A192,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D192">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D192" t="e">
         <f>VLOOKUP(C192,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E192">
         <f>VLOOKUP($A192,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51228,11 +51231,11 @@
       </c>
       <c r="C193" t="str">
         <f>VLOOKUP($A193,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D193">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D193" t="e">
         <f>VLOOKUP(C193,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E193">
         <f>VLOOKUP($A193,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51253,11 +51256,11 @@
       </c>
       <c r="C194" t="str">
         <f>VLOOKUP($A194,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D194">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D194" t="e">
         <f>VLOOKUP(C194,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E194">
         <f>VLOOKUP($A194,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51278,11 +51281,11 @@
       </c>
       <c r="C195" t="str">
         <f>VLOOKUP($A195,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D195">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D195" t="e">
         <f>VLOOKUP(C195,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E195">
         <f>VLOOKUP($A195,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51303,11 +51306,11 @@
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP($A196,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D196">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D196" t="e">
         <f>VLOOKUP(C196,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E196">
         <f>VLOOKUP($A196,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51328,11 +51331,11 @@
       </c>
       <c r="C197" t="str">
         <f>VLOOKUP($A197,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D197">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D197" t="e">
         <f>VLOOKUP(C197,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E197">
         <f>VLOOKUP($A197,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51353,11 +51356,11 @@
       </c>
       <c r="C198" t="str">
         <f>VLOOKUP($A198,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D198">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D198" t="e">
         <f>VLOOKUP(C198,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E198">
         <f>VLOOKUP($A198,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51378,11 +51381,11 @@
       </c>
       <c r="C199" t="str">
         <f>VLOOKUP($A199,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D199">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D199" t="e">
         <f>VLOOKUP(C199,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E199">
         <f>VLOOKUP($A199,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51403,11 +51406,11 @@
       </c>
       <c r="C200" t="str">
         <f>VLOOKUP($A200,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D200">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D200" t="e">
         <f>VLOOKUP(C200,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E200">
         <f>VLOOKUP($A200,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51428,11 +51431,11 @@
       </c>
       <c r="C201" t="str">
         <f>VLOOKUP($A201,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D201">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D201" t="e">
         <f>VLOOKUP(C201,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E201">
         <f>VLOOKUP($A201,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51453,11 +51456,11 @@
       </c>
       <c r="C202" t="str">
         <f>VLOOKUP($A202,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D202">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D202" t="e">
         <f>VLOOKUP(C202,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E202">
         <f>VLOOKUP($A202,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51503,11 +51506,11 @@
       </c>
       <c r="C204" t="str">
         <f>VLOOKUP($A204,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D204">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D204" t="e">
         <f>VLOOKUP(C204,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E204">
         <f>VLOOKUP($A204,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51528,11 +51531,11 @@
       </c>
       <c r="C205" t="str">
         <f>VLOOKUP($A205,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D205">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D205" t="e">
         <f>VLOOKUP(C205,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E205">
         <f>VLOOKUP($A205,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51553,11 +51556,11 @@
       </c>
       <c r="C206" t="str">
         <f>VLOOKUP($A206,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D206">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D206" t="e">
         <f>VLOOKUP(C206,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E206">
         <f>VLOOKUP($A206,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51578,11 +51581,11 @@
       </c>
       <c r="C207" t="str">
         <f>VLOOKUP($A207,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D207">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D207" t="e">
         <f>VLOOKUP(C207,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E207">
         <f>VLOOKUP($A207,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51603,11 +51606,11 @@
       </c>
       <c r="C208" t="str">
         <f>VLOOKUP($A208,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D208">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D208" t="e">
         <f>VLOOKUP(C208,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E208">
         <f>VLOOKUP($A208,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51628,11 +51631,11 @@
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP($A209,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D209">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D209" t="e">
         <f>VLOOKUP(C209,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E209">
         <f>VLOOKUP($A209,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51653,11 +51656,11 @@
       </c>
       <c r="C210" t="str">
         <f>VLOOKUP($A210,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D210">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D210" t="e">
         <f>VLOOKUP(C210,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E210">
         <f>VLOOKUP($A210,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51678,11 +51681,11 @@
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP($A211,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D211">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D211" t="e">
         <f>VLOOKUP(C211,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E211">
         <f>VLOOKUP($A211,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52720,11 +52723,11 @@
       </c>
       <c r="C253" t="str">
         <f>VLOOKUP($A253,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Jiné VVI</v>
+        <v>Ostatní</v>
       </c>
       <c r="D253">
         <f>VLOOKUP(C253,Types!$A$2:$B$6,2,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253">
         <f>VLOOKUP($A253,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52745,11 +52748,11 @@
       </c>
       <c r="C254" t="str">
         <f>VLOOKUP($A254,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D254">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D254" t="e">
         <f>VLOOKUP(C254,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E254">
         <f>VLOOKUP($A254,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52770,11 +52773,11 @@
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP($A255,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D255">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D255" t="e">
         <f>VLOOKUP(C255,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E255">
         <f>VLOOKUP($A255,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52795,11 +52798,11 @@
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP($A256,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D256">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D256" t="e">
         <f>VLOOKUP(C256,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E256">
         <f>VLOOKUP($A256,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52820,11 +52823,11 @@
       </c>
       <c r="C257" t="str">
         <f>VLOOKUP($A257,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D257">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D257" t="e">
         <f>VLOOKUP(C257,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E257">
         <f>VLOOKUP($A257,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52845,11 +52848,11 @@
       </c>
       <c r="C258" t="str">
         <f>VLOOKUP($A258,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Ústav AV</v>
-      </c>
-      <c r="D258">
+        <v>Akademie věd</v>
+      </c>
+      <c r="D258" t="e">
         <f>VLOOKUP(C258,Types!$A$2:$B$6,2,0)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E258">
         <f>VLOOKUP($A258,JEDNOTKA!$B$1:$L$290,7,0)</f>

--- a/Institutions_Final.xlsx
+++ b/Institutions_Final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="640">
   <si>
     <t>Field</t>
   </si>
@@ -1947,6 +1947,9 @@
   </si>
   <si>
     <t>Akademie věd</t>
+  </si>
+  <si>
+    <t>Vysoké školy</t>
   </si>
 </sst>
 </file>
@@ -5712,115 +5715,115 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,58 +6397,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,58 +7016,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7856,121 +7859,121 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,118 +8654,118 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11508,40 +11511,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12099,115 +12102,115 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12781,58 +12784,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13400,58 +13403,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14243,121 +14246,121 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15038,118 +15041,118 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15691,40 +15694,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25486,10 +25489,10 @@
   <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25565,7 +25568,7 @@
         <v>311</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H2" s="7">
         <v>369</v>
@@ -25610,7 +25613,7 @@
         <v>315</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H3" s="7">
         <v>119</v>
@@ -25655,7 +25658,7 @@
         <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -25700,7 +25703,7 @@
         <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -25745,7 +25748,7 @@
         <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H6" s="7">
         <v>50</v>
@@ -25790,7 +25793,7 @@
         <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H7" s="7">
         <v>252</v>
@@ -25880,7 +25883,7 @@
         <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -25925,7 +25928,7 @@
         <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -25970,7 +25973,7 @@
         <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -26015,7 +26018,7 @@
         <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H12" s="7">
         <v>426</v>
@@ -26060,7 +26063,7 @@
         <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -26105,7 +26108,7 @@
         <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -26195,7 +26198,7 @@
         <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -26240,7 +26243,7 @@
         <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -26285,7 +26288,7 @@
         <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -26375,7 +26378,7 @@
         <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -26420,7 +26423,7 @@
         <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -26465,7 +26468,7 @@
         <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H22" s="7">
         <v>1185</v>
@@ -26555,7 +26558,7 @@
         <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -26600,7 +26603,7 @@
         <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H25" s="7">
         <v>101</v>
@@ -26645,7 +26648,7 @@
         <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>380</v>
@@ -26690,7 +26693,7 @@
         <v>311</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -26735,7 +26738,7 @@
         <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H28" s="7">
         <v>198</v>
@@ -26780,7 +26783,7 @@
         <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H29" s="7">
         <v>214</v>
@@ -26825,7 +26828,7 @@
         <v>315</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H30" s="7">
         <v>125</v>
@@ -26915,7 +26918,7 @@
         <v>315</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H32" s="7">
         <v>125</v>
@@ -26960,7 +26963,7 @@
         <v>311</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H33" s="7">
         <v>454</v>
@@ -27005,7 +27008,7 @@
         <v>311</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H34" s="7">
         <v>166</v>
@@ -27050,7 +27053,7 @@
         <v>315</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -27095,7 +27098,7 @@
         <v>315</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -27140,7 +27143,7 @@
         <v>311</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -27185,7 +27188,7 @@
         <v>315</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H38" s="7">
         <v>190</v>
@@ -27230,7 +27233,7 @@
         <v>311</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H39" s="7">
         <v>427</v>
@@ -27275,7 +27278,7 @@
         <v>312</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
@@ -27320,7 +27323,7 @@
         <v>314</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H41" s="7">
         <v>324</v>
@@ -27365,7 +27368,7 @@
         <v>310</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H42" s="7">
         <v>163</v>
@@ -27410,7 +27413,7 @@
         <v>311</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H43" s="7">
         <v>48</v>
@@ -27455,7 +27458,7 @@
         <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H44" s="7">
         <v>49</v>
@@ -27500,7 +27503,7 @@
         <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H45" s="7">
         <v>178</v>
@@ -27545,7 +27548,7 @@
         <v>311</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H46" s="7">
         <v>178</v>
@@ -27590,7 +27593,7 @@
         <v>311</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H47" s="7">
         <v>773</v>
@@ -27635,7 +27638,7 @@
         <v>315</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H48" s="7">
         <v>131</v>
@@ -27680,7 +27683,7 @@
         <v>311</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H49" s="7">
         <v>271</v>
@@ -27725,7 +27728,7 @@
         <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H50" s="7">
         <v>143</v>
@@ -27770,7 +27773,7 @@
         <v>314</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H51" s="7">
         <v>117</v>
@@ -27815,7 +27818,7 @@
         <v>314</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H52" s="7">
         <v>341</v>
@@ -27860,7 +27863,7 @@
         <v>314</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H53" s="7">
         <v>132</v>
@@ -27905,7 +27908,7 @@
         <v>310</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H54" s="7">
         <v>173</v>
@@ -27950,7 +27953,7 @@
         <v>314</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H55" s="7">
         <v>255</v>
@@ -27995,7 +27998,7 @@
         <v>314</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H56" s="7">
         <v>73</v>
@@ -28040,7 +28043,7 @@
         <v>315</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H57" s="7">
         <v>37</v>
@@ -28085,7 +28088,7 @@
         <v>310</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H58" s="7">
         <v>482</v>
@@ -28130,7 +28133,7 @@
         <v>311</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H59" s="7">
         <v>567</v>
@@ -28220,7 +28223,7 @@
         <v>310</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H61" s="7">
         <v>541</v>
@@ -28265,7 +28268,7 @@
         <v>311</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H62" s="7">
         <v>155</v>
@@ -28400,7 +28403,7 @@
         <v>311</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H65" s="7">
         <v>662</v>
@@ -28445,7 +28448,7 @@
         <v>313</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H66" s="7">
         <v>543</v>
@@ -28490,7 +28493,7 @@
         <v>313</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H67" s="7">
         <v>336</v>
@@ -28535,7 +28538,7 @@
         <v>311</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H68" s="7">
         <v>638</v>
@@ -28580,7 +28583,7 @@
         <v>311</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H69" s="7">
         <v>554</v>
@@ -28625,7 +28628,7 @@
         <v>310</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H70" s="7">
         <v>47</v>
@@ -28670,7 +28673,7 @@
         <v>315</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H71" s="7">
         <v>97</v>
@@ -28715,7 +28718,7 @@
         <v>314</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H72" s="7">
         <v>1101</v>
@@ -28760,7 +28763,7 @@
         <v>310</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H73" s="7">
         <v>684</v>
@@ -28805,7 +28808,7 @@
         <v>314</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H74" s="7">
         <v>107</v>
@@ -28850,7 +28853,7 @@
         <v>314</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H75" s="7">
         <v>55</v>
@@ -28895,7 +28898,7 @@
         <v>311</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H76" s="7">
         <v>444</v>
@@ -28940,7 +28943,7 @@
         <v>315</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H77" s="7">
         <v>57</v>
@@ -28985,7 +28988,7 @@
         <v>314</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H78" s="7">
         <v>57</v>
@@ -29030,7 +29033,7 @@
         <v>314</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H79" s="7">
         <v>174</v>
@@ -29075,7 +29078,7 @@
         <v>314</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H80" s="7">
         <v>409</v>
@@ -29165,7 +29168,7 @@
         <v>311</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H82" s="7">
         <v>130</v>
@@ -29255,7 +29258,7 @@
         <v>315</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H84" s="7">
         <v>70</v>
@@ -29345,7 +29348,7 @@
         <v>311</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H86" s="7">
         <v>1264</v>
@@ -29390,7 +29393,7 @@
         <v>311</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H87" s="7">
         <v>77</v>
@@ -29435,7 +29438,7 @@
         <v>311</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H88" s="7">
         <v>78</v>
@@ -29525,7 +29528,7 @@
         <v>314</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H90" s="7">
         <v>324</v>
@@ -29615,7 +29618,7 @@
         <v>312</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H92" s="7">
         <v>173</v>
@@ -29705,7 +29708,7 @@
         <v>314</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H94" s="7">
         <v>456</v>
@@ -29795,7 +29798,7 @@
         <v>315</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H96" s="7">
         <v>94</v>
@@ -29840,7 +29843,7 @@
         <v>313</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H97" s="7">
         <v>2080</v>
@@ -29885,7 +29888,7 @@
         <v>314</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H98" s="7">
         <v>190</v>
@@ -29930,7 +29933,7 @@
         <v>311</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H99" s="7">
         <v>95</v>
@@ -29975,7 +29978,7 @@
         <v>311</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H100" s="7">
         <v>953</v>
@@ -30020,7 +30023,7 @@
         <v>315</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H101" s="7">
         <v>103</v>
@@ -30110,7 +30113,7 @@
         <v>314</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H103" s="7">
         <v>2416</v>
@@ -30200,7 +30203,7 @@
         <v>314</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H105" s="7">
         <v>966</v>
@@ -30245,7 +30248,7 @@
         <v>310</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H106" s="7">
         <v>243</v>
@@ -30290,7 +30293,7 @@
         <v>311</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H107" s="7">
         <v>124</v>
@@ -30335,7 +30338,7 @@
         <v>314</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H108" s="7">
         <v>3996</v>
@@ -30470,7 +30473,7 @@
         <v>310</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H111" s="7">
         <v>399</v>
@@ -30650,7 +30653,7 @@
         <v>315</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H115" s="7">
         <v>409</v>
@@ -30740,7 +30743,7 @@
         <v>310</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H117" s="7">
         <v>965</v>
@@ -30785,7 +30788,7 @@
         <v>314</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H118" s="7">
         <v>993</v>
@@ -31010,7 +31013,7 @@
         <v>312</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H123" s="7">
         <v>484</v>
@@ -31055,7 +31058,7 @@
         <v>311</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H124" s="7">
         <v>330</v>
@@ -31100,7 +31103,7 @@
         <v>315</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H125" s="7">
         <v>349</v>
@@ -31280,7 +31283,7 @@
         <v>314</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H129" s="7">
         <v>1733</v>
@@ -31325,7 +31328,7 @@
         <v>311</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H130" s="7">
         <v>390</v>
@@ -31595,7 +31598,7 @@
         <v>311</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H136" s="7">
         <v>858</v>
@@ -31640,7 +31643,7 @@
         <v>311</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H137" s="7">
         <v>668</v>
@@ -31730,7 +31733,7 @@
         <v>313</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H139" s="7">
         <v>2432</v>
@@ -31775,7 +31778,7 @@
         <v>313</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H140" s="7">
         <v>1715</v>
@@ -31910,7 +31913,7 @@
         <v>311</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H143" s="7">
         <v>272</v>
@@ -31955,7 +31958,7 @@
         <v>313</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H144" s="7">
         <v>1091</v>
@@ -32045,7 +32048,7 @@
         <v>313</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H146" s="7">
         <v>296</v>
@@ -32090,7 +32093,7 @@
         <v>312</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H147" s="7">
         <v>302</v>
@@ -32180,7 +32183,7 @@
         <v>314</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H149" s="7">
         <v>3007</v>
@@ -32315,7 +32318,7 @@
         <v>313</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H152" s="7">
         <v>773</v>
@@ -32405,7 +32408,7 @@
         <v>314</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H154" s="7">
         <v>4748</v>
@@ -32450,7 +32453,7 @@
         <v>313</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H155" s="7">
         <v>4102</v>
@@ -32540,7 +32543,7 @@
         <v>313</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H157" s="7">
         <v>1542</v>
@@ -32585,7 +32588,7 @@
         <v>313</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H158" s="7">
         <v>537</v>
@@ -32720,7 +32723,7 @@
         <v>313</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H161" s="7">
         <v>1935</v>
@@ -32900,7 +32903,7 @@
         <v>314</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H165" s="7">
         <v>1394</v>
@@ -33035,7 +33038,7 @@
         <v>312</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H168" s="7">
         <v>50</v>
@@ -33170,7 +33173,7 @@
         <v>313</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H171" s="7">
         <v>12</v>
@@ -33305,7 +33308,7 @@
         <v>315</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H174" s="7">
         <v>24</v>
@@ -33350,7 +33353,7 @@
         <v>315</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H175" s="7">
         <v>14</v>
@@ -33485,7 +33488,7 @@
         <v>312</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H178" s="7">
         <v>39</v>
@@ -33575,7 +33578,7 @@
         <v>311</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H180" s="7">
         <v>81</v>
@@ -33620,7 +33623,7 @@
         <v>315</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H181" s="7">
         <v>12</v>
@@ -33665,7 +33668,7 @@
         <v>312</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H182" s="7">
         <v>23</v>
@@ -33710,7 +33713,7 @@
         <v>312</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H183" s="7">
         <v>11</v>
@@ -33755,7 +33758,7 @@
         <v>312</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H184" s="7">
         <v>69</v>
@@ -33845,7 +33848,7 @@
         <v>312</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H186" s="7">
         <v>32</v>
@@ -33890,7 +33893,7 @@
         <v>312</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H187" s="7">
         <v>236</v>
@@ -34115,7 +34118,7 @@
         <v>313</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H192" s="7">
         <v>128</v>
@@ -34160,7 +34163,7 @@
         <v>312</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H193" s="7">
         <v>149</v>
@@ -34205,7 +34208,7 @@
         <v>313</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H194" s="7">
         <v>100</v>
@@ -34295,7 +34298,7 @@
         <v>313</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H196" s="7">
         <v>100</v>
@@ -34340,7 +34343,7 @@
         <v>312</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H197" s="7">
         <v>53</v>
@@ -34385,7 +34388,7 @@
         <v>312</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H198" s="7">
         <v>37</v>
@@ -34430,7 +34433,7 @@
         <v>312</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H199" s="7">
         <v>49</v>
@@ -34610,7 +34613,7 @@
         <v>312</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H203" s="7">
         <v>228</v>
@@ -34745,7 +34748,7 @@
         <v>311</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H206" s="7">
         <v>20</v>
@@ -35195,7 +35198,7 @@
         <v>315</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H216" s="7">
         <v>19</v>
@@ -35330,7 +35333,7 @@
         <v>311</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H219" s="7">
         <v>26</v>
@@ -35645,7 +35648,7 @@
         <v>315</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H226" s="7">
         <v>43</v>
@@ -35735,7 +35738,7 @@
         <v>311</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H228" s="7">
         <v>41</v>
@@ -35780,7 +35783,7 @@
         <v>315</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H229" s="7">
         <v>66</v>
@@ -35825,7 +35828,7 @@
         <v>315</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H230" s="7">
         <v>488</v>
@@ -35870,7 +35873,7 @@
         <v>310</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H231" s="7">
         <v>761</v>
@@ -36050,7 +36053,7 @@
         <v>315</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H235" s="7">
         <v>73</v>
@@ -36140,7 +36143,7 @@
         <v>311</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H237" s="7">
         <v>20</v>
@@ -36275,7 +36278,7 @@
         <v>315</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H240" s="7">
         <v>41</v>
@@ -36590,7 +36593,7 @@
         <v>315</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H247" s="7">
         <v>127</v>
@@ -36680,7 +36683,7 @@
         <v>312</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H249" s="7">
         <v>17</v>
@@ -36815,7 +36818,7 @@
         <v>314</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H252" s="7">
         <v>152</v>
@@ -36995,7 +36998,7 @@
         <v>311</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H256" s="7">
         <v>24</v>
@@ -37085,7 +37088,7 @@
         <v>314</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H258" s="7">
         <v>607</v>
@@ -37220,7 +37223,7 @@
         <v>314</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H261" s="7">
         <v>112</v>
@@ -37265,7 +37268,7 @@
         <v>314</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H262" s="7">
         <v>35</v>
@@ -37445,7 +37448,7 @@
         <v>314</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H266" s="7">
         <v>81</v>
@@ -37580,7 +37583,7 @@
         <v>314</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H269" s="7">
         <v>96</v>
@@ -37625,7 +37628,7 @@
         <v>314</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H270" s="7">
         <v>44</v>
@@ -37670,7 +37673,7 @@
         <v>310</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H271" s="7">
         <v>120</v>
@@ -37985,7 +37988,7 @@
         <v>314</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H278" s="7">
         <v>134</v>
@@ -38075,7 +38078,7 @@
         <v>314</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H280" s="7">
         <v>229</v>
@@ -38300,7 +38303,7 @@
         <v>314</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H285" s="7">
         <v>679</v>
@@ -38390,7 +38393,7 @@
         <v>314</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H287" s="7">
         <v>53</v>
@@ -38525,7 +38528,7 @@
         <v>314</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="H290" s="7">
         <v>104</v>
@@ -39570,11 +39573,11 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP($A21,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D21">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D21" t="e">
         <f>VLOOKUP(C21,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E21">
         <f>VLOOKUP($A21,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39595,11 +39598,11 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP($A22,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D22">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D22" t="e">
         <f>VLOOKUP(C22,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E22">
         <f>VLOOKUP($A22,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39620,11 +39623,11 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP($A23,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D23">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D23" t="e">
         <f>VLOOKUP(C23,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E23">
         <f>VLOOKUP($A23,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39645,11 +39648,11 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP($A24,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D24">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D24" t="e">
         <f>VLOOKUP(C24,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E24">
         <f>VLOOKUP($A24,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39670,11 +39673,11 @@
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP($A25,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D25">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D25" t="e">
         <f>VLOOKUP(C25,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E25">
         <f>VLOOKUP($A25,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39695,11 +39698,11 @@
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP($A26,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D26">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D26" t="e">
         <f>VLOOKUP(C26,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E26">
         <f>VLOOKUP($A26,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39720,11 +39723,11 @@
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP($A27,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D27">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D27" t="e">
         <f>VLOOKUP(C27,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E27">
         <f>VLOOKUP($A27,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39745,11 +39748,11 @@
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP($A28,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D28">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D28" t="e">
         <f>VLOOKUP(C28,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E28">
         <f>VLOOKUP($A28,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39770,11 +39773,11 @@
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP($A29,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D29">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D29" t="e">
         <f>VLOOKUP(C29,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E29">
         <f>VLOOKUP($A29,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39795,11 +39798,11 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP($A30,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D30">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D30" t="e">
         <f>VLOOKUP(C30,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E30">
         <f>VLOOKUP($A30,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39820,11 +39823,11 @@
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP($A31,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D31">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D31" t="e">
         <f>VLOOKUP(C31,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E31">
         <f>VLOOKUP($A31,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -39862,11 +39865,11 @@
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP($A33,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D33">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D33" t="e">
         <f>VLOOKUP(C33,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E33">
         <f>VLOOKUP($A33,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40262,11 +40265,11 @@
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP($A49,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D49">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D49" t="e">
         <f>VLOOKUP(C49,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E49">
         <f>VLOOKUP($A49,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40287,11 +40290,11 @@
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP($A50,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D50">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D50" t="e">
         <f>VLOOKUP(C50,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E50">
         <f>VLOOKUP($A50,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40312,11 +40315,11 @@
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP($A51,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D51">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D51" t="e">
         <f>VLOOKUP(C51,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E51">
         <f>VLOOKUP($A51,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40337,11 +40340,11 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP($A52,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D52">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D52" t="e">
         <f>VLOOKUP(C52,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E52">
         <f>VLOOKUP($A52,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40362,11 +40365,11 @@
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP($A53,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D53">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D53" t="e">
         <f>VLOOKUP(C53,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E53">
         <f>VLOOKUP($A53,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40387,11 +40390,11 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP($A54,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D54">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D54" t="e">
         <f>VLOOKUP(C54,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E54">
         <f>VLOOKUP($A54,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40412,11 +40415,11 @@
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP($A55,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D55">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D55" t="e">
         <f>VLOOKUP(C55,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E55">
         <f>VLOOKUP($A55,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40437,11 +40440,11 @@
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP($A56,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D56">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D56" t="e">
         <f>VLOOKUP(C56,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E56">
         <f>VLOOKUP($A56,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40462,11 +40465,11 @@
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP($A57,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D57">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D57" t="e">
         <f>VLOOKUP(C57,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E57">
         <f>VLOOKUP($A57,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40487,11 +40490,11 @@
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP($A58,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D58">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D58" t="e">
         <f>VLOOKUP(C58,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E58">
         <f>VLOOKUP($A58,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40512,11 +40515,11 @@
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP($A59,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D59">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D59" t="e">
         <f>VLOOKUP(C59,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E59">
         <f>VLOOKUP($A59,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40537,11 +40540,11 @@
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP($A60,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D60">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D60" t="e">
         <f>VLOOKUP(C60,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E60">
         <f>VLOOKUP($A60,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40562,11 +40565,11 @@
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP($A61,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D61">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D61" t="e">
         <f>VLOOKUP(C61,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E61">
         <f>VLOOKUP($A61,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40587,11 +40590,11 @@
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP($A62,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D62">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D62" t="e">
         <f>VLOOKUP(C62,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E62">
         <f>VLOOKUP($A62,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40612,11 +40615,11 @@
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP($A63,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D63">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D63" t="e">
         <f>VLOOKUP(C63,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E63">
         <f>VLOOKUP($A63,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40637,11 +40640,11 @@
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP($A64,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D64">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D64" t="e">
         <f>VLOOKUP(C64,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E64">
         <f>VLOOKUP($A64,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40662,11 +40665,11 @@
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP($A65,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D65">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D65" t="e">
         <f>VLOOKUP(C65,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E65">
         <f>VLOOKUP($A65,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40687,11 +40690,11 @@
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP($A66,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D66">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D66" t="e">
         <f>VLOOKUP(C66,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E66">
         <f>VLOOKUP($A66,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40712,11 +40715,11 @@
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP($A67,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D67">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D67" t="e">
         <f>VLOOKUP(C67,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E67">
         <f>VLOOKUP($A67,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40737,11 +40740,11 @@
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP($A68,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D68">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D68" t="e">
         <f>VLOOKUP(C68,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E68">
         <f>VLOOKUP($A68,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40762,11 +40765,11 @@
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP($A69,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D69">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D69" t="e">
         <f>VLOOKUP(C69,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E69">
         <f>VLOOKUP($A69,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40787,11 +40790,11 @@
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP($A70,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D70">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D70" t="e">
         <f>VLOOKUP(C70,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E70">
         <f>VLOOKUP($A70,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40812,11 +40815,11 @@
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP($A71,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D71">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D71" t="e">
         <f>VLOOKUP(C71,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E71">
         <f>VLOOKUP($A71,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40837,11 +40840,11 @@
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP($A72,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D72">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D72" t="e">
         <f>VLOOKUP(C72,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E72">
         <f>VLOOKUP($A72,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40862,11 +40865,11 @@
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP($A73,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D73">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D73" t="e">
         <f>VLOOKUP(C73,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E73">
         <f>VLOOKUP($A73,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40887,11 +40890,11 @@
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP($A74,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D74">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D74" t="e">
         <f>VLOOKUP(C74,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E74">
         <f>VLOOKUP($A74,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40912,11 +40915,11 @@
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP($A75,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D75">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D75" t="e">
         <f>VLOOKUP(C75,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E75">
         <f>VLOOKUP($A75,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40937,11 +40940,11 @@
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP($A76,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D76">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D76" t="e">
         <f>VLOOKUP(C76,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E76">
         <f>VLOOKUP($A76,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40962,11 +40965,11 @@
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP($A77,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D77">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D77" t="e">
         <f>VLOOKUP(C77,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E77">
         <f>VLOOKUP($A77,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -40987,11 +40990,11 @@
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP($A78,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D78">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D78" t="e">
         <f>VLOOKUP(C78,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E78">
         <f>VLOOKUP($A78,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41012,11 +41015,11 @@
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP($A79,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D79">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D79" t="e">
         <f>VLOOKUP(C79,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E79">
         <f>VLOOKUP($A79,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41037,11 +41040,11 @@
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP($A80,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D80">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D80" t="e">
         <f>VLOOKUP(C80,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E80">
         <f>VLOOKUP($A80,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41062,11 +41065,11 @@
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP($A81,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D81">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D81" t="e">
         <f>VLOOKUP(C81,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E81">
         <f>VLOOKUP($A81,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41087,11 +41090,11 @@
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP($A82,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D82">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D82" t="e">
         <f>VLOOKUP(C82,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E82">
         <f>VLOOKUP($A82,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41112,11 +41115,11 @@
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP($A83,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D83">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D83" t="e">
         <f>VLOOKUP(C83,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E83">
         <f>VLOOKUP($A83,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41137,11 +41140,11 @@
       </c>
       <c r="C84" t="str">
         <f>VLOOKUP($A84,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D84">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D84" t="e">
         <f>VLOOKUP(C84,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E84">
         <f>VLOOKUP($A84,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41179,11 +41182,11 @@
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP($A86,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D86">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D86" t="e">
         <f>VLOOKUP(C86,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E86">
         <f>VLOOKUP($A86,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41604,11 +41607,11 @@
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP($A103,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D103">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D103" t="e">
         <f>VLOOKUP(C103,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E103">
         <f>VLOOKUP($A103,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41629,11 +41632,11 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP($A104,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D104">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D104" t="e">
         <f>VLOOKUP(C104,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E104">
         <f>VLOOKUP($A104,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41654,11 +41657,11 @@
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP($A105,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D105">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D105" t="e">
         <f>VLOOKUP(C105,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E105">
         <f>VLOOKUP($A105,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41679,11 +41682,11 @@
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP($A106,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D106">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D106" t="e">
         <f>VLOOKUP(C106,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E106">
         <f>VLOOKUP($A106,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41704,11 +41707,11 @@
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP($A107,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D107">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D107" t="e">
         <f>VLOOKUP(C107,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E107">
         <f>VLOOKUP($A107,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41729,11 +41732,11 @@
       </c>
       <c r="C108" t="str">
         <f>VLOOKUP($A108,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D108">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D108" t="e">
         <f>VLOOKUP(C108,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E108">
         <f>VLOOKUP($A108,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41754,11 +41757,11 @@
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP($A109,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D109">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D109" t="e">
         <f>VLOOKUP(C109,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E109">
         <f>VLOOKUP($A109,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41779,11 +41782,11 @@
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP($A110,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D110">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D110" t="e">
         <f>VLOOKUP(C110,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E110">
         <f>VLOOKUP($A110,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41804,11 +41807,11 @@
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP($A111,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D111">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D111" t="e">
         <f>VLOOKUP(C111,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E111">
         <f>VLOOKUP($A111,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41829,11 +41832,11 @@
       </c>
       <c r="C112" t="str">
         <f>VLOOKUP($A112,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D112">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D112" t="e">
         <f>VLOOKUP(C112,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E112">
         <f>VLOOKUP($A112,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41854,11 +41857,11 @@
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP($A113,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D113">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D113" t="e">
         <f>VLOOKUP(C113,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E113">
         <f>VLOOKUP($A113,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41879,11 +41882,11 @@
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP($A114,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D114">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D114" t="e">
         <f>VLOOKUP(C114,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E114">
         <f>VLOOKUP($A114,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41904,11 +41907,11 @@
       </c>
       <c r="C115" t="str">
         <f>VLOOKUP($A115,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D115">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D115" t="e">
         <f>VLOOKUP(C115,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E115">
         <f>VLOOKUP($A115,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41929,11 +41932,11 @@
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP($A116,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D116">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D116" t="e">
         <f>VLOOKUP(C116,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E116">
         <f>VLOOKUP($A116,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41954,11 +41957,11 @@
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP($A117,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D117">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D117" t="e">
         <f>VLOOKUP(C117,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E117">
         <f>VLOOKUP($A117,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -41979,11 +41982,11 @@
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP($A118,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D118">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D118" t="e">
         <f>VLOOKUP(C118,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E118">
         <f>VLOOKUP($A118,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42004,11 +42007,11 @@
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP($A119,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D119">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D119" t="e">
         <f>VLOOKUP(C119,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E119">
         <f>VLOOKUP($A119,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42046,11 +42049,11 @@
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP($A121,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D121">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D121" t="e">
         <f>VLOOKUP(C121,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E121">
         <f>VLOOKUP($A121,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42671,11 +42674,11 @@
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP($A146,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D146">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D146" t="e">
         <f>VLOOKUP(C146,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E146">
         <f>VLOOKUP($A146,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42696,11 +42699,11 @@
       </c>
       <c r="C147" t="str">
         <f>VLOOKUP($A147,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D147">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D147" t="e">
         <f>VLOOKUP(C147,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E147">
         <f>VLOOKUP($A147,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42721,11 +42724,11 @@
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP($A148,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D148">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D148" t="e">
         <f>VLOOKUP(C148,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E148">
         <f>VLOOKUP($A148,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42746,11 +42749,11 @@
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP($A149,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D149">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D149" t="e">
         <f>VLOOKUP(C149,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E149">
         <f>VLOOKUP($A149,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42771,11 +42774,11 @@
       </c>
       <c r="C150" t="str">
         <f>VLOOKUP($A150,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D150">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D150" t="e">
         <f>VLOOKUP(C150,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E150">
         <f>VLOOKUP($A150,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42796,11 +42799,11 @@
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP($A151,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D151">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D151" t="e">
         <f>VLOOKUP(C151,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E151">
         <f>VLOOKUP($A151,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42821,11 +42824,11 @@
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP($A152,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D152">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D152" t="e">
         <f>VLOOKUP(C152,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E152">
         <f>VLOOKUP($A152,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42846,11 +42849,11 @@
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP($A153,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D153">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D153" t="e">
         <f>VLOOKUP(C153,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E153">
         <f>VLOOKUP($A153,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42871,11 +42874,11 @@
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP($A154,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D154">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D154" t="e">
         <f>VLOOKUP(C154,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E154">
         <f>VLOOKUP($A154,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42896,11 +42899,11 @@
       </c>
       <c r="C155" t="str">
         <f>VLOOKUP($A155,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D155">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D155" t="e">
         <f>VLOOKUP(C155,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E155">
         <f>VLOOKUP($A155,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42921,11 +42924,11 @@
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP($A156,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D156">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D156" t="e">
         <f>VLOOKUP(C156,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E156">
         <f>VLOOKUP($A156,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42946,11 +42949,11 @@
       </c>
       <c r="C157" t="str">
         <f>VLOOKUP($A157,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D157">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D157" t="e">
         <f>VLOOKUP(C157,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E157">
         <f>VLOOKUP($A157,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42971,11 +42974,11 @@
       </c>
       <c r="C158" t="str">
         <f>VLOOKUP($A158,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D158">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D158" t="e">
         <f>VLOOKUP(C158,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E158">
         <f>VLOOKUP($A158,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -42996,11 +42999,11 @@
       </c>
       <c r="C159" t="str">
         <f>VLOOKUP($A159,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D159">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D159" t="e">
         <f>VLOOKUP(C159,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E159">
         <f>VLOOKUP($A159,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43021,11 +43024,11 @@
       </c>
       <c r="C160" t="str">
         <f>VLOOKUP($A160,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D160">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D160" t="e">
         <f>VLOOKUP(C160,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E160">
         <f>VLOOKUP($A160,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43046,11 +43049,11 @@
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP($A161,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D161">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D161" t="e">
         <f>VLOOKUP(C161,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E161">
         <f>VLOOKUP($A161,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43071,11 +43074,11 @@
       </c>
       <c r="C162" t="str">
         <f>VLOOKUP($A162,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D162">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D162" t="e">
         <f>VLOOKUP(C162,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E162">
         <f>VLOOKUP($A162,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -43113,11 +43116,11 @@
       </c>
       <c r="C164" t="str">
         <f>VLOOKUP($A164,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D164">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D164" t="e">
         <f>VLOOKUP(C164,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E164">
         <f>VLOOKUP($A164,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44313,11 +44316,11 @@
       </c>
       <c r="C212" t="str">
         <f>VLOOKUP($A212,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D212">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D212" t="e">
         <f>VLOOKUP(C212,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E212">
         <f>VLOOKUP($A212,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44338,11 +44341,11 @@
       </c>
       <c r="C213" t="str">
         <f>VLOOKUP($A213,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D213">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D213" t="e">
         <f>VLOOKUP(C213,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E213">
         <f>VLOOKUP($A213,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44363,11 +44366,11 @@
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP($A214,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D214">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D214" t="e">
         <f>VLOOKUP(C214,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E214">
         <f>VLOOKUP($A214,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44388,11 +44391,11 @@
       </c>
       <c r="C215" t="str">
         <f>VLOOKUP($A215,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D215">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D215" t="e">
         <f>VLOOKUP(C215,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E215">
         <f>VLOOKUP($A215,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44413,11 +44416,11 @@
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP($A216,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D216">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D216" t="e">
         <f>VLOOKUP(C216,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E216">
         <f>VLOOKUP($A216,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44438,11 +44441,11 @@
       </c>
       <c r="C217" t="str">
         <f>VLOOKUP($A217,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D217">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D217" t="e">
         <f>VLOOKUP(C217,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E217">
         <f>VLOOKUP($A217,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44463,11 +44466,11 @@
       </c>
       <c r="C218" t="str">
         <f>VLOOKUP($A218,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D218">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D218" t="e">
         <f>VLOOKUP(C218,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E218">
         <f>VLOOKUP($A218,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44488,11 +44491,11 @@
       </c>
       <c r="C219" t="str">
         <f>VLOOKUP($A219,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D219">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D219" t="e">
         <f>VLOOKUP(C219,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E219">
         <f>VLOOKUP($A219,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44513,11 +44516,11 @@
       </c>
       <c r="C220" t="str">
         <f>VLOOKUP($A220,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D220">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D220" t="e">
         <f>VLOOKUP(C220,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E220">
         <f>VLOOKUP($A220,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44538,11 +44541,11 @@
       </c>
       <c r="C221" t="str">
         <f>VLOOKUP($A221,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D221">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D221" t="e">
         <f>VLOOKUP(C221,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E221">
         <f>VLOOKUP($A221,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44563,11 +44566,11 @@
       </c>
       <c r="C222" t="str">
         <f>VLOOKUP($A222,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D222">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D222" t="e">
         <f>VLOOKUP(C222,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E222">
         <f>VLOOKUP($A222,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44588,11 +44591,11 @@
       </c>
       <c r="C223" t="str">
         <f>VLOOKUP($A223,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D223">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D223" t="e">
         <f>VLOOKUP(C223,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E223">
         <f>VLOOKUP($A223,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44613,11 +44616,11 @@
       </c>
       <c r="C224" t="str">
         <f>VLOOKUP($A224,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D224">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D224" t="e">
         <f>VLOOKUP(C224,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E224">
         <f>VLOOKUP($A224,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44638,11 +44641,11 @@
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP($A225,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D225">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D225" t="e">
         <f>VLOOKUP(C225,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E225">
         <f>VLOOKUP($A225,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44663,11 +44666,11 @@
       </c>
       <c r="C226" t="str">
         <f>VLOOKUP($A226,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D226">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D226" t="e">
         <f>VLOOKUP(C226,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E226">
         <f>VLOOKUP($A226,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44688,11 +44691,11 @@
       </c>
       <c r="C227" t="str">
         <f>VLOOKUP($A227,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D227">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D227" t="e">
         <f>VLOOKUP(C227,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E227">
         <f>VLOOKUP($A227,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44713,11 +44716,11 @@
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP($A228,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D228">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D228" t="e">
         <f>VLOOKUP(C228,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E228">
         <f>VLOOKUP($A228,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44738,11 +44741,11 @@
       </c>
       <c r="C229" t="str">
         <f>VLOOKUP($A229,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D229">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D229" t="e">
         <f>VLOOKUP(C229,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E229">
         <f>VLOOKUP($A229,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44763,11 +44766,11 @@
       </c>
       <c r="C230" t="str">
         <f>VLOOKUP($A230,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D230">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D230" t="e">
         <f>VLOOKUP(C230,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E230">
         <f>VLOOKUP($A230,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44788,11 +44791,11 @@
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP($A231,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D231">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D231" t="e">
         <f>VLOOKUP(C231,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E231">
         <f>VLOOKUP($A231,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44813,11 +44816,11 @@
       </c>
       <c r="C232" t="str">
         <f>VLOOKUP($A232,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D232">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D232" t="e">
         <f>VLOOKUP(C232,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E232">
         <f>VLOOKUP($A232,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44838,11 +44841,11 @@
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP($A233,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D233">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D233" t="e">
         <f>VLOOKUP(C233,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E233">
         <f>VLOOKUP($A233,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44863,11 +44866,11 @@
       </c>
       <c r="C234" t="str">
         <f>VLOOKUP($A234,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D234">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D234" t="e">
         <f>VLOOKUP(C234,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E234">
         <f>VLOOKUP($A234,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44888,11 +44891,11 @@
       </c>
       <c r="C235" t="str">
         <f>VLOOKUP($A235,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D235">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D235" t="e">
         <f>VLOOKUP(C235,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E235">
         <f>VLOOKUP($A235,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44913,11 +44916,11 @@
       </c>
       <c r="C236" t="str">
         <f>VLOOKUP($A236,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D236">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D236" t="e">
         <f>VLOOKUP(C236,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E236">
         <f>VLOOKUP($A236,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44938,11 +44941,11 @@
       </c>
       <c r="C237" t="str">
         <f>VLOOKUP($A237,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D237">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D237" t="e">
         <f>VLOOKUP(C237,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E237">
         <f>VLOOKUP($A237,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44963,11 +44966,11 @@
       </c>
       <c r="C238" t="str">
         <f>VLOOKUP($A238,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D238">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D238" t="e">
         <f>VLOOKUP(C238,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E238">
         <f>VLOOKUP($A238,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -44988,11 +44991,11 @@
       </c>
       <c r="C239" t="str">
         <f>VLOOKUP($A239,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D239">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D239" t="e">
         <f>VLOOKUP(C239,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E239">
         <f>VLOOKUP($A239,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45013,11 +45016,11 @@
       </c>
       <c r="C240" t="str">
         <f>VLOOKUP($A240,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D240">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D240" t="e">
         <f>VLOOKUP(C240,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E240">
         <f>VLOOKUP($A240,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45038,11 +45041,11 @@
       </c>
       <c r="C241" t="str">
         <f>VLOOKUP($A241,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D241">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D241" t="e">
         <f>VLOOKUP(C241,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E241">
         <f>VLOOKUP($A241,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45063,11 +45066,11 @@
       </c>
       <c r="C242" t="str">
         <f>VLOOKUP($A242,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D242">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D242" t="e">
         <f>VLOOKUP(C242,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E242">
         <f>VLOOKUP($A242,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45088,11 +45091,11 @@
       </c>
       <c r="C243" t="str">
         <f>VLOOKUP($A243,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D243">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D243" t="e">
         <f>VLOOKUP(C243,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E243">
         <f>VLOOKUP($A243,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45113,11 +45116,11 @@
       </c>
       <c r="C244" t="str">
         <f>VLOOKUP($A244,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D244">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D244" t="e">
         <f>VLOOKUP(C244,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E244">
         <f>VLOOKUP($A244,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45138,11 +45141,11 @@
       </c>
       <c r="C245" t="str">
         <f>VLOOKUP($A245,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D245">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D245" t="e">
         <f>VLOOKUP(C245,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E245">
         <f>VLOOKUP($A245,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45163,11 +45166,11 @@
       </c>
       <c r="C246" t="str">
         <f>VLOOKUP($A246,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D246">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D246" t="e">
         <f>VLOOKUP(C246,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E246">
         <f>VLOOKUP($A246,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45188,11 +45191,11 @@
       </c>
       <c r="C247" t="str">
         <f>VLOOKUP($A247,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D247">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D247" t="e">
         <f>VLOOKUP(C247,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E247">
         <f>VLOOKUP($A247,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45213,11 +45216,11 @@
       </c>
       <c r="C248" t="str">
         <f>VLOOKUP($A248,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D248">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D248" t="e">
         <f>VLOOKUP(C248,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E248">
         <f>VLOOKUP($A248,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45238,11 +45241,11 @@
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP($A249,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D249">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D249" t="e">
         <f>VLOOKUP(C249,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E249">
         <f>VLOOKUP($A249,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45280,11 +45283,11 @@
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP($A251,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D251">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D251" t="e">
         <f>VLOOKUP(C251,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E251">
         <f>VLOOKUP($A251,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45480,11 +45483,11 @@
       </c>
       <c r="C259" t="str">
         <f>VLOOKUP($A259,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D259">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D259" t="e">
         <f>VLOOKUP(C259,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E259">
         <f>VLOOKUP($A259,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45505,11 +45508,11 @@
       </c>
       <c r="C260" t="str">
         <f>VLOOKUP($A260,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D260">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D260" t="e">
         <f>VLOOKUP(C260,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E260">
         <f>VLOOKUP($A260,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45530,11 +45533,11 @@
       </c>
       <c r="C261" t="str">
         <f>VLOOKUP($A261,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D261">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D261" t="e">
         <f>VLOOKUP(C261,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E261">
         <f>VLOOKUP($A261,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45555,11 +45558,11 @@
       </c>
       <c r="C262" t="str">
         <f>VLOOKUP($A262,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D262">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D262" t="e">
         <f>VLOOKUP(C262,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E262">
         <f>VLOOKUP($A262,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45580,11 +45583,11 @@
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP($A263,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D263">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D263" t="e">
         <f>VLOOKUP(C263,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E263">
         <f>VLOOKUP($A263,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45605,11 +45608,11 @@
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP($A264,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D264">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D264" t="e">
         <f>VLOOKUP(C264,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E264">
         <f>VLOOKUP($A264,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45630,11 +45633,11 @@
       </c>
       <c r="C265" t="str">
         <f>VLOOKUP($A265,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D265">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D265" t="e">
         <f>VLOOKUP(C265,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E265">
         <f>VLOOKUP($A265,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45655,11 +45658,11 @@
       </c>
       <c r="C266" t="str">
         <f>VLOOKUP($A266,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D266">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D266" t="e">
         <f>VLOOKUP(C266,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E266">
         <f>VLOOKUP($A266,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45680,11 +45683,11 @@
       </c>
       <c r="C267" t="str">
         <f>VLOOKUP($A267,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D267">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D267" t="e">
         <f>VLOOKUP(C267,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E267">
         <f>VLOOKUP($A267,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45705,11 +45708,11 @@
       </c>
       <c r="C268" t="str">
         <f>VLOOKUP($A268,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D268">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D268" t="e">
         <f>VLOOKUP(C268,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E268">
         <f>VLOOKUP($A268,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45730,11 +45733,11 @@
       </c>
       <c r="C269" t="str">
         <f>VLOOKUP($A269,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D269">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D269" t="e">
         <f>VLOOKUP(C269,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E269">
         <f>VLOOKUP($A269,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45755,11 +45758,11 @@
       </c>
       <c r="C270" t="str">
         <f>VLOOKUP($A270,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D270">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D270" t="e">
         <f>VLOOKUP(C270,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E270">
         <f>VLOOKUP($A270,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45780,11 +45783,11 @@
       </c>
       <c r="C271" t="str">
         <f>VLOOKUP($A271,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D271">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D271" t="e">
         <f>VLOOKUP(C271,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E271">
         <f>VLOOKUP($A271,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45805,11 +45808,11 @@
       </c>
       <c r="C272" t="str">
         <f>VLOOKUP($A272,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D272">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D272" t="e">
         <f>VLOOKUP(C272,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E272">
         <f>VLOOKUP($A272,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45830,11 +45833,11 @@
       </c>
       <c r="C273" t="str">
         <f>VLOOKUP($A273,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D273">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D273" t="e">
         <f>VLOOKUP(C273,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E273">
         <f>VLOOKUP($A273,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45855,11 +45858,11 @@
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP($A274,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D274">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D274" t="e">
         <f>VLOOKUP(C274,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E274">
         <f>VLOOKUP($A274,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45880,11 +45883,11 @@
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP($A275,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D275">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D275" t="e">
         <f>VLOOKUP(C275,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E275">
         <f>VLOOKUP($A275,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45905,11 +45908,11 @@
       </c>
       <c r="C276" t="str">
         <f>VLOOKUP($A276,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D276">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D276" t="e">
         <f>VLOOKUP(C276,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E276">
         <f>VLOOKUP($A276,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45930,11 +45933,11 @@
       </c>
       <c r="C277" t="str">
         <f>VLOOKUP($A277,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D277">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D277" t="e">
         <f>VLOOKUP(C277,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E277">
         <f>VLOOKUP($A277,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45955,11 +45958,11 @@
       </c>
       <c r="C278" t="str">
         <f>VLOOKUP($A278,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D278">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D278" t="e">
         <f>VLOOKUP(C278,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E278">
         <f>VLOOKUP($A278,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -45980,11 +45983,11 @@
       </c>
       <c r="C279" t="str">
         <f>VLOOKUP($A279,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D279">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D279" t="e">
         <f>VLOOKUP(C279,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E279">
         <f>VLOOKUP($A279,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46005,11 +46008,11 @@
       </c>
       <c r="C280" t="str">
         <f>VLOOKUP($A280,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D280">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D280" t="e">
         <f>VLOOKUP(C280,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E280">
         <f>VLOOKUP($A280,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46030,11 +46033,11 @@
       </c>
       <c r="C281" t="str">
         <f>VLOOKUP($A281,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D281">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D281" t="e">
         <f>VLOOKUP(C281,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E281">
         <f>VLOOKUP($A281,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46055,11 +46058,11 @@
       </c>
       <c r="C282" t="str">
         <f>VLOOKUP($A282,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D282">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D282" t="e">
         <f>VLOOKUP(C282,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E282">
         <f>VLOOKUP($A282,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46080,11 +46083,11 @@
       </c>
       <c r="C283" t="str">
         <f>VLOOKUP($A283,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D283">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D283" t="e">
         <f>VLOOKUP(C283,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E283">
         <f>VLOOKUP($A283,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46105,11 +46108,11 @@
       </c>
       <c r="C284" t="str">
         <f>VLOOKUP($A284,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D284">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D284" t="e">
         <f>VLOOKUP(C284,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E284">
         <f>VLOOKUP($A284,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46130,11 +46133,11 @@
       </c>
       <c r="C285" t="str">
         <f>VLOOKUP($A285,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D285">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D285" t="e">
         <f>VLOOKUP(C285,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E285">
         <f>VLOOKUP($A285,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46155,11 +46158,11 @@
       </c>
       <c r="C286" t="str">
         <f>VLOOKUP($A286,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D286">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D286" t="e">
         <f>VLOOKUP(C286,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E286">
         <f>VLOOKUP($A286,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46180,11 +46183,11 @@
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP($A287,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D287">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D287" t="e">
         <f>VLOOKUP(C287,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E287">
         <f>VLOOKUP($A287,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46205,11 +46208,11 @@
       </c>
       <c r="C288" t="str">
         <f>VLOOKUP($A288,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D288">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D288" t="e">
         <f>VLOOKUP(C288,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E288">
         <f>VLOOKUP($A288,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46230,11 +46233,11 @@
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP($A289,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D289">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D289" t="e">
         <f>VLOOKUP(C289,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E289">
         <f>VLOOKUP($A289,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46255,11 +46258,11 @@
       </c>
       <c r="C290" t="str">
         <f>VLOOKUP($A290,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D290">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D290" t="e">
         <f>VLOOKUP(C290,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E290">
         <f>VLOOKUP($A290,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46280,11 +46283,11 @@
       </c>
       <c r="C291" t="str">
         <f>VLOOKUP($A291,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D291">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D291" t="e">
         <f>VLOOKUP(C291,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E291">
         <f>VLOOKUP($A291,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46305,11 +46308,11 @@
       </c>
       <c r="C292" t="str">
         <f>VLOOKUP($A292,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D292">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D292" t="e">
         <f>VLOOKUP(C292,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E292">
         <f>VLOOKUP($A292,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46330,11 +46333,11 @@
       </c>
       <c r="C293" t="str">
         <f>VLOOKUP($A293,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D293">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D293" t="e">
         <f>VLOOKUP(C293,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E293">
         <f>VLOOKUP($A293,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46355,11 +46358,11 @@
       </c>
       <c r="C294" t="str">
         <f>VLOOKUP($A294,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D294">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D294" t="e">
         <f>VLOOKUP(C294,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E294">
         <f>VLOOKUP($A294,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46380,11 +46383,11 @@
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP($A295,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D295">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D295" t="e">
         <f>VLOOKUP(C295,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E295">
         <f>VLOOKUP($A295,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46423,11 +46426,11 @@
       </c>
       <c r="C297" t="str">
         <f>VLOOKUP($A297,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D297">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D297" t="e">
         <f>VLOOKUP(C297,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E297">
         <f>VLOOKUP($A297,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46963,11 +46966,11 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP($A21,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D21">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D21" t="e">
         <f>VLOOKUP(C21,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E21">
         <f>VLOOKUP($A21,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -46988,11 +46991,11 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP($A22,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D22">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D22" t="e">
         <f>VLOOKUP(C22,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E22">
         <f>VLOOKUP($A22,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47013,11 +47016,11 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP($A23,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D23">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D23" t="e">
         <f>VLOOKUP(C23,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E23">
         <f>VLOOKUP($A23,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47038,11 +47041,11 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP($A24,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D24">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D24" t="e">
         <f>VLOOKUP(C24,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E24">
         <f>VLOOKUP($A24,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47063,11 +47066,11 @@
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP($A25,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D25">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D25" t="e">
         <f>VLOOKUP(C25,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E25">
         <f>VLOOKUP($A25,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47088,11 +47091,11 @@
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP($A26,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D26">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D26" t="e">
         <f>VLOOKUP(C26,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E26">
         <f>VLOOKUP($A26,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47113,11 +47116,11 @@
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP($A27,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D27">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D27" t="e">
         <f>VLOOKUP(C27,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E27">
         <f>VLOOKUP($A27,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47138,11 +47141,11 @@
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP($A28,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D28">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D28" t="e">
         <f>VLOOKUP(C28,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E28">
         <f>VLOOKUP($A28,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47163,11 +47166,11 @@
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP($A29,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D29">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D29" t="e">
         <f>VLOOKUP(C29,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E29">
         <f>VLOOKUP($A29,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47188,11 +47191,11 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP($A30,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D30">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D30" t="e">
         <f>VLOOKUP(C30,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E30">
         <f>VLOOKUP($A30,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47213,11 +47216,11 @@
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP($A31,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D31">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D31" t="e">
         <f>VLOOKUP(C31,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E31">
         <f>VLOOKUP($A31,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47255,11 +47258,11 @@
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP($A33,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D33">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D33" t="e">
         <f>VLOOKUP(C33,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E33">
         <f>VLOOKUP($A33,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47655,11 +47658,11 @@
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP($A49,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D49">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D49" t="e">
         <f>VLOOKUP(C49,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E49">
         <f>VLOOKUP($A49,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47680,11 +47683,11 @@
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP($A50,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D50">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D50" t="e">
         <f>VLOOKUP(C50,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E50">
         <f>VLOOKUP($A50,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47705,11 +47708,11 @@
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP($A51,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D51">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D51" t="e">
         <f>VLOOKUP(C51,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E51">
         <f>VLOOKUP($A51,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47730,11 +47733,11 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP($A52,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D52">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D52" t="e">
         <f>VLOOKUP(C52,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E52">
         <f>VLOOKUP($A52,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47755,11 +47758,11 @@
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP($A53,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D53">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D53" t="e">
         <f>VLOOKUP(C53,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E53">
         <f>VLOOKUP($A53,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47780,11 +47783,11 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP($A54,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D54">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D54" t="e">
         <f>VLOOKUP(C54,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E54">
         <f>VLOOKUP($A54,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47805,11 +47808,11 @@
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP($A55,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D55">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D55" t="e">
         <f>VLOOKUP(C55,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E55">
         <f>VLOOKUP($A55,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47830,11 +47833,11 @@
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP($A56,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D56">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D56" t="e">
         <f>VLOOKUP(C56,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E56">
         <f>VLOOKUP($A56,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47855,11 +47858,11 @@
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP($A57,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D57">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D57" t="e">
         <f>VLOOKUP(C57,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E57">
         <f>VLOOKUP($A57,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47880,11 +47883,11 @@
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP($A58,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D58">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D58" t="e">
         <f>VLOOKUP(C58,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E58">
         <f>VLOOKUP($A58,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47905,11 +47908,11 @@
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP($A59,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D59">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D59" t="e">
         <f>VLOOKUP(C59,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E59">
         <f>VLOOKUP($A59,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47930,11 +47933,11 @@
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP($A60,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D60">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D60" t="e">
         <f>VLOOKUP(C60,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E60">
         <f>VLOOKUP($A60,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47955,11 +47958,11 @@
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP($A61,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D61">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D61" t="e">
         <f>VLOOKUP(C61,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E61">
         <f>VLOOKUP($A61,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -47980,11 +47983,11 @@
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP($A62,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D62">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D62" t="e">
         <f>VLOOKUP(C62,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E62">
         <f>VLOOKUP($A62,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48005,11 +48008,11 @@
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP($A63,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D63">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D63" t="e">
         <f>VLOOKUP(C63,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E63">
         <f>VLOOKUP($A63,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48030,11 +48033,11 @@
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP($A64,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D64">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D64" t="e">
         <f>VLOOKUP(C64,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E64">
         <f>VLOOKUP($A64,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48055,11 +48058,11 @@
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP($A65,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D65">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D65" t="e">
         <f>VLOOKUP(C65,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E65">
         <f>VLOOKUP($A65,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48080,11 +48083,11 @@
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP($A66,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D66">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D66" t="e">
         <f>VLOOKUP(C66,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E66">
         <f>VLOOKUP($A66,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48105,11 +48108,11 @@
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP($A67,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D67">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D67" t="e">
         <f>VLOOKUP(C67,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E67">
         <f>VLOOKUP($A67,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48130,11 +48133,11 @@
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP($A68,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D68">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D68" t="e">
         <f>VLOOKUP(C68,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E68">
         <f>VLOOKUP($A68,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48155,11 +48158,11 @@
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP($A69,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D69">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D69" t="e">
         <f>VLOOKUP(C69,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E69">
         <f>VLOOKUP($A69,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48180,11 +48183,11 @@
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP($A70,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D70">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D70" t="e">
         <f>VLOOKUP(C70,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E70">
         <f>VLOOKUP($A70,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48205,11 +48208,11 @@
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP($A71,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D71">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D71" t="e">
         <f>VLOOKUP(C71,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E71">
         <f>VLOOKUP($A71,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48230,11 +48233,11 @@
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP($A72,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D72">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D72" t="e">
         <f>VLOOKUP(C72,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E72">
         <f>VLOOKUP($A72,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48255,11 +48258,11 @@
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP($A73,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D73">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D73" t="e">
         <f>VLOOKUP(C73,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E73">
         <f>VLOOKUP($A73,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48280,11 +48283,11 @@
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP($A74,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D74">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D74" t="e">
         <f>VLOOKUP(C74,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E74">
         <f>VLOOKUP($A74,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48305,11 +48308,11 @@
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP($A75,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D75">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D75" t="e">
         <f>VLOOKUP(C75,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E75">
         <f>VLOOKUP($A75,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48330,11 +48333,11 @@
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP($A76,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D76">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D76" t="e">
         <f>VLOOKUP(C76,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E76">
         <f>VLOOKUP($A76,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48355,11 +48358,11 @@
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP($A77,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D77">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D77" t="e">
         <f>VLOOKUP(C77,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E77">
         <f>VLOOKUP($A77,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48380,11 +48383,11 @@
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP($A78,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D78">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D78" t="e">
         <f>VLOOKUP(C78,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E78">
         <f>VLOOKUP($A78,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48405,11 +48408,11 @@
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP($A79,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D79">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D79" t="e">
         <f>VLOOKUP(C79,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E79">
         <f>VLOOKUP($A79,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48430,11 +48433,11 @@
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP($A80,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D80">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D80" t="e">
         <f>VLOOKUP(C80,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E80">
         <f>VLOOKUP($A80,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48455,11 +48458,11 @@
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP($A81,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D81">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D81" t="e">
         <f>VLOOKUP(C81,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E81">
         <f>VLOOKUP($A81,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48480,11 +48483,11 @@
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP($A82,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D82">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D82" t="e">
         <f>VLOOKUP(C82,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E82">
         <f>VLOOKUP($A82,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48505,11 +48508,11 @@
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP($A83,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D83">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D83" t="e">
         <f>VLOOKUP(C83,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E83">
         <f>VLOOKUP($A83,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48530,11 +48533,11 @@
       </c>
       <c r="C84" t="str">
         <f>VLOOKUP($A84,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D84">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D84" t="e">
         <f>VLOOKUP(C84,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E84">
         <f>VLOOKUP($A84,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48572,11 +48575,11 @@
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP($A86,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D86">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D86" t="e">
         <f>VLOOKUP(C86,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E86">
         <f>VLOOKUP($A86,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -48997,11 +49000,11 @@
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP($A103,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D103">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D103" t="e">
         <f>VLOOKUP(C103,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E103">
         <f>VLOOKUP($A103,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49022,11 +49025,11 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP($A104,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D104">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D104" t="e">
         <f>VLOOKUP(C104,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E104">
         <f>VLOOKUP($A104,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49047,11 +49050,11 @@
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP($A105,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D105">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D105" t="e">
         <f>VLOOKUP(C105,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E105">
         <f>VLOOKUP($A105,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49072,11 +49075,11 @@
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP($A106,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D106">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D106" t="e">
         <f>VLOOKUP(C106,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E106">
         <f>VLOOKUP($A106,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49097,11 +49100,11 @@
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP($A107,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D107">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D107" t="e">
         <f>VLOOKUP(C107,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E107">
         <f>VLOOKUP($A107,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49122,11 +49125,11 @@
       </c>
       <c r="C108" t="str">
         <f>VLOOKUP($A108,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D108">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D108" t="e">
         <f>VLOOKUP(C108,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E108">
         <f>VLOOKUP($A108,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49147,11 +49150,11 @@
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP($A109,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D109">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D109" t="e">
         <f>VLOOKUP(C109,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E109">
         <f>VLOOKUP($A109,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49172,11 +49175,11 @@
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP($A110,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D110">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D110" t="e">
         <f>VLOOKUP(C110,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E110">
         <f>VLOOKUP($A110,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49197,11 +49200,11 @@
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP($A111,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D111">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D111" t="e">
         <f>VLOOKUP(C111,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E111">
         <f>VLOOKUP($A111,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49222,11 +49225,11 @@
       </c>
       <c r="C112" t="str">
         <f>VLOOKUP($A112,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D112">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D112" t="e">
         <f>VLOOKUP(C112,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E112">
         <f>VLOOKUP($A112,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49247,11 +49250,11 @@
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP($A113,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D113">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D113" t="e">
         <f>VLOOKUP(C113,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E113">
         <f>VLOOKUP($A113,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49272,11 +49275,11 @@
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP($A114,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D114">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D114" t="e">
         <f>VLOOKUP(C114,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E114">
         <f>VLOOKUP($A114,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49297,11 +49300,11 @@
       </c>
       <c r="C115" t="str">
         <f>VLOOKUP($A115,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D115">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D115" t="e">
         <f>VLOOKUP(C115,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E115">
         <f>VLOOKUP($A115,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49322,11 +49325,11 @@
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP($A116,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D116">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D116" t="e">
         <f>VLOOKUP(C116,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E116">
         <f>VLOOKUP($A116,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49347,11 +49350,11 @@
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP($A117,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D117">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D117" t="e">
         <f>VLOOKUP(C117,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E117">
         <f>VLOOKUP($A117,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49372,11 +49375,11 @@
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP($A118,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D118">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D118" t="e">
         <f>VLOOKUP(C118,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E118">
         <f>VLOOKUP($A118,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49397,11 +49400,11 @@
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP($A119,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D119">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D119" t="e">
         <f>VLOOKUP(C119,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E119">
         <f>VLOOKUP($A119,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -49439,11 +49442,11 @@
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP($A121,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D121">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D121" t="e">
         <f>VLOOKUP(C121,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E121">
         <f>VLOOKUP($A121,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50064,11 +50067,11 @@
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP($A146,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D146">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D146" t="e">
         <f>VLOOKUP(C146,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E146">
         <f>VLOOKUP($A146,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50089,11 +50092,11 @@
       </c>
       <c r="C147" t="str">
         <f>VLOOKUP($A147,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D147">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D147" t="e">
         <f>VLOOKUP(C147,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E147">
         <f>VLOOKUP($A147,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50114,11 +50117,11 @@
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP($A148,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D148">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D148" t="e">
         <f>VLOOKUP(C148,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E148">
         <f>VLOOKUP($A148,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50139,11 +50142,11 @@
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP($A149,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D149">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D149" t="e">
         <f>VLOOKUP(C149,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E149">
         <f>VLOOKUP($A149,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50164,11 +50167,11 @@
       </c>
       <c r="C150" t="str">
         <f>VLOOKUP($A150,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D150">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D150" t="e">
         <f>VLOOKUP(C150,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E150">
         <f>VLOOKUP($A150,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50189,11 +50192,11 @@
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP($A151,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D151">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D151" t="e">
         <f>VLOOKUP(C151,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E151">
         <f>VLOOKUP($A151,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50214,11 +50217,11 @@
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP($A152,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D152">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D152" t="e">
         <f>VLOOKUP(C152,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E152">
         <f>VLOOKUP($A152,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50239,11 +50242,11 @@
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP($A153,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D153">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D153" t="e">
         <f>VLOOKUP(C153,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E153">
         <f>VLOOKUP($A153,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50264,11 +50267,11 @@
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP($A154,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D154">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D154" t="e">
         <f>VLOOKUP(C154,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E154">
         <f>VLOOKUP($A154,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50289,11 +50292,11 @@
       </c>
       <c r="C155" t="str">
         <f>VLOOKUP($A155,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D155">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D155" t="e">
         <f>VLOOKUP(C155,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E155">
         <f>VLOOKUP($A155,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50314,11 +50317,11 @@
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP($A156,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D156">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D156" t="e">
         <f>VLOOKUP(C156,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E156">
         <f>VLOOKUP($A156,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50339,11 +50342,11 @@
       </c>
       <c r="C157" t="str">
         <f>VLOOKUP($A157,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D157">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D157" t="e">
         <f>VLOOKUP(C157,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E157">
         <f>VLOOKUP($A157,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50364,11 +50367,11 @@
       </c>
       <c r="C158" t="str">
         <f>VLOOKUP($A158,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D158">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D158" t="e">
         <f>VLOOKUP(C158,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E158">
         <f>VLOOKUP($A158,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50389,11 +50392,11 @@
       </c>
       <c r="C159" t="str">
         <f>VLOOKUP($A159,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D159">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D159" t="e">
         <f>VLOOKUP(C159,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E159">
         <f>VLOOKUP($A159,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50414,11 +50417,11 @@
       </c>
       <c r="C160" t="str">
         <f>VLOOKUP($A160,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D160">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D160" t="e">
         <f>VLOOKUP(C160,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E160">
         <f>VLOOKUP($A160,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50439,11 +50442,11 @@
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP($A161,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D161">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D161" t="e">
         <f>VLOOKUP(C161,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E161">
         <f>VLOOKUP($A161,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50464,11 +50467,11 @@
       </c>
       <c r="C162" t="str">
         <f>VLOOKUP($A162,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D162">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D162" t="e">
         <f>VLOOKUP(C162,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E162">
         <f>VLOOKUP($A162,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -50506,11 +50509,11 @@
       </c>
       <c r="C164" t="str">
         <f>VLOOKUP($A164,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D164">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D164" t="e">
         <f>VLOOKUP(C164,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E164">
         <f>VLOOKUP($A164,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51706,11 +51709,11 @@
       </c>
       <c r="C212" t="str">
         <f>VLOOKUP($A212,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D212">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D212" t="e">
         <f>VLOOKUP(C212,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E212">
         <f>VLOOKUP($A212,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51731,11 +51734,11 @@
       </c>
       <c r="C213" t="str">
         <f>VLOOKUP($A213,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D213">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D213" t="e">
         <f>VLOOKUP(C213,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E213">
         <f>VLOOKUP($A213,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51756,11 +51759,11 @@
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP($A214,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D214">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D214" t="e">
         <f>VLOOKUP(C214,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E214">
         <f>VLOOKUP($A214,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51781,11 +51784,11 @@
       </c>
       <c r="C215" t="str">
         <f>VLOOKUP($A215,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D215">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D215" t="e">
         <f>VLOOKUP(C215,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E215">
         <f>VLOOKUP($A215,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51806,11 +51809,11 @@
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP($A216,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D216">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D216" t="e">
         <f>VLOOKUP(C216,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E216">
         <f>VLOOKUP($A216,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51831,11 +51834,11 @@
       </c>
       <c r="C217" t="str">
         <f>VLOOKUP($A217,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D217">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D217" t="e">
         <f>VLOOKUP(C217,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E217">
         <f>VLOOKUP($A217,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51856,11 +51859,11 @@
       </c>
       <c r="C218" t="str">
         <f>VLOOKUP($A218,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D218">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D218" t="e">
         <f>VLOOKUP(C218,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E218">
         <f>VLOOKUP($A218,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51881,11 +51884,11 @@
       </c>
       <c r="C219" t="str">
         <f>VLOOKUP($A219,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D219">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D219" t="e">
         <f>VLOOKUP(C219,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E219">
         <f>VLOOKUP($A219,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51906,11 +51909,11 @@
       </c>
       <c r="C220" t="str">
         <f>VLOOKUP($A220,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D220">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D220" t="e">
         <f>VLOOKUP(C220,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E220">
         <f>VLOOKUP($A220,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51931,11 +51934,11 @@
       </c>
       <c r="C221" t="str">
         <f>VLOOKUP($A221,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D221">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D221" t="e">
         <f>VLOOKUP(C221,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E221">
         <f>VLOOKUP($A221,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51956,11 +51959,11 @@
       </c>
       <c r="C222" t="str">
         <f>VLOOKUP($A222,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D222">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D222" t="e">
         <f>VLOOKUP(C222,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E222">
         <f>VLOOKUP($A222,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -51981,11 +51984,11 @@
       </c>
       <c r="C223" t="str">
         <f>VLOOKUP($A223,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D223">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D223" t="e">
         <f>VLOOKUP(C223,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E223">
         <f>VLOOKUP($A223,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52006,11 +52009,11 @@
       </c>
       <c r="C224" t="str">
         <f>VLOOKUP($A224,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D224">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D224" t="e">
         <f>VLOOKUP(C224,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E224">
         <f>VLOOKUP($A224,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52031,11 +52034,11 @@
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP($A225,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D225">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D225" t="e">
         <f>VLOOKUP(C225,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E225">
         <f>VLOOKUP($A225,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52056,11 +52059,11 @@
       </c>
       <c r="C226" t="str">
         <f>VLOOKUP($A226,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D226">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D226" t="e">
         <f>VLOOKUP(C226,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E226">
         <f>VLOOKUP($A226,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52081,11 +52084,11 @@
       </c>
       <c r="C227" t="str">
         <f>VLOOKUP($A227,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D227">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D227" t="e">
         <f>VLOOKUP(C227,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E227">
         <f>VLOOKUP($A227,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52106,11 +52109,11 @@
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP($A228,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D228">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D228" t="e">
         <f>VLOOKUP(C228,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E228">
         <f>VLOOKUP($A228,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52131,11 +52134,11 @@
       </c>
       <c r="C229" t="str">
         <f>VLOOKUP($A229,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D229">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D229" t="e">
         <f>VLOOKUP(C229,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E229">
         <f>VLOOKUP($A229,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52156,11 +52159,11 @@
       </c>
       <c r="C230" t="str">
         <f>VLOOKUP($A230,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D230">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D230" t="e">
         <f>VLOOKUP(C230,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E230">
         <f>VLOOKUP($A230,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52181,11 +52184,11 @@
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP($A231,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D231">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D231" t="e">
         <f>VLOOKUP(C231,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E231">
         <f>VLOOKUP($A231,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52206,11 +52209,11 @@
       </c>
       <c r="C232" t="str">
         <f>VLOOKUP($A232,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D232">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D232" t="e">
         <f>VLOOKUP(C232,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E232">
         <f>VLOOKUP($A232,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52231,11 +52234,11 @@
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP($A233,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D233">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D233" t="e">
         <f>VLOOKUP(C233,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E233">
         <f>VLOOKUP($A233,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52256,11 +52259,11 @@
       </c>
       <c r="C234" t="str">
         <f>VLOOKUP($A234,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D234">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D234" t="e">
         <f>VLOOKUP(C234,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E234">
         <f>VLOOKUP($A234,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52281,11 +52284,11 @@
       </c>
       <c r="C235" t="str">
         <f>VLOOKUP($A235,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D235">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D235" t="e">
         <f>VLOOKUP(C235,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E235">
         <f>VLOOKUP($A235,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52306,11 +52309,11 @@
       </c>
       <c r="C236" t="str">
         <f>VLOOKUP($A236,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D236">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D236" t="e">
         <f>VLOOKUP(C236,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E236">
         <f>VLOOKUP($A236,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52331,11 +52334,11 @@
       </c>
       <c r="C237" t="str">
         <f>VLOOKUP($A237,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D237">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D237" t="e">
         <f>VLOOKUP(C237,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E237">
         <f>VLOOKUP($A237,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52356,11 +52359,11 @@
       </c>
       <c r="C238" t="str">
         <f>VLOOKUP($A238,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D238">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D238" t="e">
         <f>VLOOKUP(C238,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E238">
         <f>VLOOKUP($A238,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52381,11 +52384,11 @@
       </c>
       <c r="C239" t="str">
         <f>VLOOKUP($A239,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D239">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D239" t="e">
         <f>VLOOKUP(C239,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E239">
         <f>VLOOKUP($A239,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52406,11 +52409,11 @@
       </c>
       <c r="C240" t="str">
         <f>VLOOKUP($A240,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D240">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D240" t="e">
         <f>VLOOKUP(C240,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E240">
         <f>VLOOKUP($A240,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52431,11 +52434,11 @@
       </c>
       <c r="C241" t="str">
         <f>VLOOKUP($A241,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D241">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D241" t="e">
         <f>VLOOKUP(C241,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E241">
         <f>VLOOKUP($A241,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52456,11 +52459,11 @@
       </c>
       <c r="C242" t="str">
         <f>VLOOKUP($A242,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D242">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D242" t="e">
         <f>VLOOKUP(C242,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E242">
         <f>VLOOKUP($A242,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52481,11 +52484,11 @@
       </c>
       <c r="C243" t="str">
         <f>VLOOKUP($A243,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D243">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D243" t="e">
         <f>VLOOKUP(C243,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E243">
         <f>VLOOKUP($A243,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52506,11 +52509,11 @@
       </c>
       <c r="C244" t="str">
         <f>VLOOKUP($A244,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D244">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D244" t="e">
         <f>VLOOKUP(C244,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E244">
         <f>VLOOKUP($A244,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52531,11 +52534,11 @@
       </c>
       <c r="C245" t="str">
         <f>VLOOKUP($A245,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D245">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D245" t="e">
         <f>VLOOKUP(C245,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E245">
         <f>VLOOKUP($A245,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52556,11 +52559,11 @@
       </c>
       <c r="C246" t="str">
         <f>VLOOKUP($A246,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D246">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D246" t="e">
         <f>VLOOKUP(C246,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E246">
         <f>VLOOKUP($A246,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52581,11 +52584,11 @@
       </c>
       <c r="C247" t="str">
         <f>VLOOKUP($A247,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D247">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D247" t="e">
         <f>VLOOKUP(C247,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E247">
         <f>VLOOKUP($A247,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52606,11 +52609,11 @@
       </c>
       <c r="C248" t="str">
         <f>VLOOKUP($A248,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D248">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D248" t="e">
         <f>VLOOKUP(C248,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E248">
         <f>VLOOKUP($A248,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52631,11 +52634,11 @@
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP($A249,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D249">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D249" t="e">
         <f>VLOOKUP(C249,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E249">
         <f>VLOOKUP($A249,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52673,11 +52676,11 @@
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP($A251,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D251">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D251" t="e">
         <f>VLOOKUP(C251,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E251">
         <f>VLOOKUP($A251,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52873,11 +52876,11 @@
       </c>
       <c r="C259" t="str">
         <f>VLOOKUP($A259,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D259">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D259" t="e">
         <f>VLOOKUP(C259,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E259">
         <f>VLOOKUP($A259,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52898,11 +52901,11 @@
       </c>
       <c r="C260" t="str">
         <f>VLOOKUP($A260,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D260">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D260" t="e">
         <f>VLOOKUP(C260,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E260">
         <f>VLOOKUP($A260,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52923,11 +52926,11 @@
       </c>
       <c r="C261" t="str">
         <f>VLOOKUP($A261,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D261">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D261" t="e">
         <f>VLOOKUP(C261,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E261">
         <f>VLOOKUP($A261,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52948,11 +52951,11 @@
       </c>
       <c r="C262" t="str">
         <f>VLOOKUP($A262,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D262">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D262" t="e">
         <f>VLOOKUP(C262,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E262">
         <f>VLOOKUP($A262,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52973,11 +52976,11 @@
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP($A263,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D263">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D263" t="e">
         <f>VLOOKUP(C263,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E263">
         <f>VLOOKUP($A263,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -52998,11 +53001,11 @@
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP($A264,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D264">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D264" t="e">
         <f>VLOOKUP(C264,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E264">
         <f>VLOOKUP($A264,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53023,11 +53026,11 @@
       </c>
       <c r="C265" t="str">
         <f>VLOOKUP($A265,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D265">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D265" t="e">
         <f>VLOOKUP(C265,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E265">
         <f>VLOOKUP($A265,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53048,11 +53051,11 @@
       </c>
       <c r="C266" t="str">
         <f>VLOOKUP($A266,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D266">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D266" t="e">
         <f>VLOOKUP(C266,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E266">
         <f>VLOOKUP($A266,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53073,11 +53076,11 @@
       </c>
       <c r="C267" t="str">
         <f>VLOOKUP($A267,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D267">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D267" t="e">
         <f>VLOOKUP(C267,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E267">
         <f>VLOOKUP($A267,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53098,11 +53101,11 @@
       </c>
       <c r="C268" t="str">
         <f>VLOOKUP($A268,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D268">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D268" t="e">
         <f>VLOOKUP(C268,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E268">
         <f>VLOOKUP($A268,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53123,11 +53126,11 @@
       </c>
       <c r="C269" t="str">
         <f>VLOOKUP($A269,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D269">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D269" t="e">
         <f>VLOOKUP(C269,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E269">
         <f>VLOOKUP($A269,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53148,11 +53151,11 @@
       </c>
       <c r="C270" t="str">
         <f>VLOOKUP($A270,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D270">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D270" t="e">
         <f>VLOOKUP(C270,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E270">
         <f>VLOOKUP($A270,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53173,11 +53176,11 @@
       </c>
       <c r="C271" t="str">
         <f>VLOOKUP($A271,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D271">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D271" t="e">
         <f>VLOOKUP(C271,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E271">
         <f>VLOOKUP($A271,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53198,11 +53201,11 @@
       </c>
       <c r="C272" t="str">
         <f>VLOOKUP($A272,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D272">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D272" t="e">
         <f>VLOOKUP(C272,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E272">
         <f>VLOOKUP($A272,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53223,11 +53226,11 @@
       </c>
       <c r="C273" t="str">
         <f>VLOOKUP($A273,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D273">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D273" t="e">
         <f>VLOOKUP(C273,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E273">
         <f>VLOOKUP($A273,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53248,11 +53251,11 @@
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP($A274,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D274">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D274" t="e">
         <f>VLOOKUP(C274,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E274">
         <f>VLOOKUP($A274,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53273,11 +53276,11 @@
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP($A275,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D275">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D275" t="e">
         <f>VLOOKUP(C275,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E275">
         <f>VLOOKUP($A275,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53298,11 +53301,11 @@
       </c>
       <c r="C276" t="str">
         <f>VLOOKUP($A276,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D276">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D276" t="e">
         <f>VLOOKUP(C276,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E276">
         <f>VLOOKUP($A276,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53323,11 +53326,11 @@
       </c>
       <c r="C277" t="str">
         <f>VLOOKUP($A277,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D277">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D277" t="e">
         <f>VLOOKUP(C277,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E277">
         <f>VLOOKUP($A277,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53348,11 +53351,11 @@
       </c>
       <c r="C278" t="str">
         <f>VLOOKUP($A278,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D278">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D278" t="e">
         <f>VLOOKUP(C278,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E278">
         <f>VLOOKUP($A278,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53373,11 +53376,11 @@
       </c>
       <c r="C279" t="str">
         <f>VLOOKUP($A279,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D279">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D279" t="e">
         <f>VLOOKUP(C279,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E279">
         <f>VLOOKUP($A279,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53398,11 +53401,11 @@
       </c>
       <c r="C280" t="str">
         <f>VLOOKUP($A280,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D280">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D280" t="e">
         <f>VLOOKUP(C280,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E280">
         <f>VLOOKUP($A280,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53423,11 +53426,11 @@
       </c>
       <c r="C281" t="str">
         <f>VLOOKUP($A281,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D281">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D281" t="e">
         <f>VLOOKUP(C281,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E281">
         <f>VLOOKUP($A281,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53448,11 +53451,11 @@
       </c>
       <c r="C282" t="str">
         <f>VLOOKUP($A282,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D282">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D282" t="e">
         <f>VLOOKUP(C282,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E282">
         <f>VLOOKUP($A282,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53473,11 +53476,11 @@
       </c>
       <c r="C283" t="str">
         <f>VLOOKUP($A283,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D283">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D283" t="e">
         <f>VLOOKUP(C283,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E283">
         <f>VLOOKUP($A283,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53498,11 +53501,11 @@
       </c>
       <c r="C284" t="str">
         <f>VLOOKUP($A284,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D284">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D284" t="e">
         <f>VLOOKUP(C284,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E284">
         <f>VLOOKUP($A284,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53523,11 +53526,11 @@
       </c>
       <c r="C285" t="str">
         <f>VLOOKUP($A285,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D285">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D285" t="e">
         <f>VLOOKUP(C285,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E285">
         <f>VLOOKUP($A285,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53548,11 +53551,11 @@
       </c>
       <c r="C286" t="str">
         <f>VLOOKUP($A286,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D286">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D286" t="e">
         <f>VLOOKUP(C286,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E286">
         <f>VLOOKUP($A286,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53573,11 +53576,11 @@
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP($A287,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D287">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D287" t="e">
         <f>VLOOKUP(C287,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E287">
         <f>VLOOKUP($A287,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53598,11 +53601,11 @@
       </c>
       <c r="C288" t="str">
         <f>VLOOKUP($A288,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D288">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D288" t="e">
         <f>VLOOKUP(C288,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E288">
         <f>VLOOKUP($A288,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53623,11 +53626,11 @@
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP($A289,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D289">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D289" t="e">
         <f>VLOOKUP(C289,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E289">
         <f>VLOOKUP($A289,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53648,11 +53651,11 @@
       </c>
       <c r="C290" t="str">
         <f>VLOOKUP($A290,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D290">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D290" t="e">
         <f>VLOOKUP(C290,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E290">
         <f>VLOOKUP($A290,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53673,11 +53676,11 @@
       </c>
       <c r="C291" t="str">
         <f>VLOOKUP($A291,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D291">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D291" t="e">
         <f>VLOOKUP(C291,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E291">
         <f>VLOOKUP($A291,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53698,11 +53701,11 @@
       </c>
       <c r="C292" t="str">
         <f>VLOOKUP($A292,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D292">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D292" t="e">
         <f>VLOOKUP(C292,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E292">
         <f>VLOOKUP($A292,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53723,11 +53726,11 @@
       </c>
       <c r="C293" t="str">
         <f>VLOOKUP($A293,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D293">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D293" t="e">
         <f>VLOOKUP(C293,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E293">
         <f>VLOOKUP($A293,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53748,11 +53751,11 @@
       </c>
       <c r="C294" t="str">
         <f>VLOOKUP($A294,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D294">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D294" t="e">
         <f>VLOOKUP(C294,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E294">
         <f>VLOOKUP($A294,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53773,11 +53776,11 @@
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP($A295,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D295">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D295" t="e">
         <f>VLOOKUP(C295,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E295">
         <f>VLOOKUP($A295,JEDNOTKA!$B$1:$L$290,7,0)</f>
@@ -53816,11 +53819,11 @@
       </c>
       <c r="C297" t="str">
         <f>VLOOKUP($A297,JEDNOTKA!$B$1:$L$290,6,0)</f>
-        <v>Vysoká škola</v>
-      </c>
-      <c r="D297">
+        <v>Vysoké školy</v>
+      </c>
+      <c r="D297" t="e">
         <f>VLOOKUP(C297,Types!$A$2:$B$6,2,0)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E297">
         <f>VLOOKUP($A297,JEDNOTKA!$B$1:$L$290,7,0)</f>

--- a/Institutions_Final.xlsx
+++ b/Institutions_Final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="641">
   <si>
     <t>Field</t>
   </si>
@@ -1950,6 +1950,9 @@
   </si>
   <si>
     <t>Vysoké školy</t>
+  </si>
+  <si>
+    <t>SumShare</t>
   </si>
 </sst>
 </file>
@@ -25489,10 +25492,10 @@
   <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
+      <selection pane="bottomRight" activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25546,6 +25549,9 @@
       </c>
       <c r="M1" s="16" t="s">
         <v>635</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
